--- a/Latest File/News Storage hang seng index.xlsx
+++ b/Latest File/News Storage hang seng index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,74 +468,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US stocks post weekly gain on hopes 'central bank storm' will pass - Financial Times</t>
+          <t>Hong Kong's Hang Seng Index soars over 3 pct in morning trading - Xinhua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:23:19 GMT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>What is included in my trial? During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Standard Digital includes access to a wealth of global news, analysis and expert opinion. Premium Digital includes access to our premier business column, Lex, as well as 15 curated newsletters covering key business themes with original, in-depth reporting. For a full comparison of Standard and Premium Digital, click here. Change the plan you will roll onto at any time during your trial by visiting the “Settings &amp; Account” section. What happens at the end of my trial? If you do nothing, you will be auto-enrolled in our premium digital monthly subscription plan and retain complete access for $69 per month. For cost savings, you can change your plan at any time online in the “Settings &amp; Account” section. If you’d like to retain your premium access and save 20%, you can opt to pay annually at the end of the trial. You may also opt to downgrade to Standard Digital, a robust journalistic offering that fulfils many user’s needs. Compare Standard and Premium Digital here. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
-        </is>
-      </c>
+          <t>Thu, 01 Dec 2022 01:41:45 GMT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9999622106552124</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dow Gains in Muted Black Friday Trading - Barron's</t>
+          <t>China encourages elderly vaccination; Hong Kong closes 5% higher - CNBC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 02:26:38 GMT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Wed, 30 Nov 2022 01:30:00 GMT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chinese President Xi Jinping has been realistic and practical on Covid, domestic real estate issues and politics since the end of the Communist Party of China's National Congress, said Andy Rothman, an investment strategist at Matthews Asia. "He's been pragmatic on Covid policy, announcing a change in direction more towards living with Covid rather than Covid zero," he said on CNBC's "Squawk Box Asia" when asked about how the government might respond to recent unrest in parts of China. "He's been pragmatic on property, he's been very pragmatic on dealing with Joe Biden, so I expect that to continue," Rothman said. He added that he views the unrests related to the prolonged zero-Covid policies as largely in line with what is expected to come from the Chinese government. "What the protesters seem to be asking for, are things Xi Jinping has already said he wants to deliver," he said. "He wants to deliver a path out of zero tolerance for Covid, towards living with Covid like all the rest of the world." Rothman added that the latest announcements to ease quarantine measures for international travelers suggests that delivering shifts from the zero-Covid policy will be "relatively easier." "He's not backing down, [or] giving in under pressure, he's just delivering, on a more accelerated pace, what he's already told these students that he wants to give them," he said. — Abigail Ng</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chinese President Xi Jinping has been realistic and practical on Covid, domestic real estate issues and politics since the end of the Communist Party of China's National Congress, said Andy Rothman, an investment strategist at Matthews Asia. " He's been pragmatic on Covid policy, announcing a change in direction more towards living with Covid rather than Covid zero," he said on CNBC's "Squawk Box Asia" when asked about how the government might respond to recent unrest in parts of China. "</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.999415397644043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asian shares mixed on inflation data - 台北時報</t>
+          <t>Hang Seng Index Technical Outlook: Upside Could Be Limited - DailyFX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 16:00:00 GMT</t>
+          <t>Wed, 30 Nov 2022 03:00:00 GMT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asian shares mixed on inflation data AP, TOKYO Asian shares were mixed on Friday as worries deepened about the regional economy and Japan reported higher-than-expected inflation. Benchmarks fell in Taipei, Tokyo, Seoul and Hong Kong, but rose in Sydney and Shanghai. Investors have their eyes on China’s lockdowns and restrictions to curb the spread of COVID-19 infections, as the direction China takes would greatly affect the rest of Asia. Traditional advertising agents promoting a local business walk by monitors showing Japan’s Nikkei 225 index at a securities firm in Tokyo on Thursday. Photo: AP “Reopening policies have pivoted in China, which will be a gradual process. COVID control measures will vary across cities, but positive top-down approaches will be ongoing,” SPI Asset Management managing partner Stephen Innes said. In Taiwan, the TAIEX closed down 5.49 points, or 0.04 percent, at 14,778.51, with turnover totaling NT$230.88 billion (US$7.47 billion). For the week, the index posted a 1.88 percent increase. In Japan, the benchmark Nikkei 225 lost 0.35 percent to 28,283.03, but was up 1.37 percent from a week earlier, while the broader TOPIX dropped 0.04 percent to 2,018, posting a weekly gain of 2.59 percent. In Seoul, the KOSPI was little changed, down 0.14 percent, at 2,437.86, and down 0.27 percent for the week, while Hong Kong’s Hang Seng slipped 0.49 percent to 17,573.58, falling 2.33 percent from a week earlier. Australia’s S&amp;P/ASX 200 rose 0.24 percent to 7,259.50, rising 1.51 percent from a week earlier, while the Shanghai Composite Index gained 0.4 percent to 3,101.69, gaining 0.14 percent weekly. India’s SENSEX rose 0.03 percent to 62,293.64 to end the week up 1.02 percent. Data on inflation in Tokyo for the month beat analysts’ expectations, with the core consumer price index showing a 3.6 percent rise, the highest in more than four decades. The US Federal Reserve and other central banks have been raising interest rates to try to rein in decades-high inflation. However, the Bank of Japan has resisted tightening monetary policy, a move that would counter inflationary pressures by discouraging borrowing by businesses and consumers. “With the Bank of Japan being one of the few outliers which has not embarked on a rate-hiking process, the point of pivot will be a key question into next year,” Jun Rong Yeap of IG said in a commentary. The rising cases of COVID-19 cases and deaths in what experts are calling an eighth wave, in Japan and in other Asian nations, are also weighing on investor sentiments, but remain relatively low so far. Many people in Japan and those nations have been vaccinated. Additional reporting by staff writer, with CNA</t>
+          <t>Hang Seng Index, Hong Kong Equities, HSI - Technical Outlook: The Hang Seng Index is running into a major hurdle. Upside could be limited as the broader trend remains down. What are the key levels to watch? Recommended by Manish Jaradi Top Trading Lessons Get My Guide HANG SENG INDEX TECHNICAL OUTLOOK - NEUTRAL The upward momentum in the Hang Seng Index (HSI) appears to be fading, suggesting that the one-month rebound could have limited upside from here. HSI, up 25% from the October low of 14597, has run into a tough barrier at about 18415: the 89-day moving average, coinciding with the March low of 18235 and the 200-period moving average on the 240-minute charts. The shorter moving average has posed quite-strong resistance since late 2021, so a retreat can’t be ruled out – scenario 1 highlighted in the previous update. Hang Seng Index Daily Chart Chart Created Using TradingView Moreover, bullish momentum since October hasn’t been any different from previous corrective rebounds this year (see chart). Hence, it may be too soon to conclude that the Hong Kong benchmark index has turned a corner. Indeed, the medium-term downtrend remains intact (see chart). The trend and momentum, as indicated by the Moving Average Convergence Divergence (MACD) indicator, remain pointed down on higher timeframes, including the monthly and quarterly charts. Any break below immediate support at Monday’s low of 16834 would confirm that short-term upward pressure had eased, exposing downside risks toward the October low of 14597. Hang Seng Index Monthly Chart Chart Created Using TradingView An alternate scenario is a relatively bullish one, where HSI breaks above immediate resistance at 18415, triggering an inverse Head &amp; Shoulders (H&amp;S) pattern. The left shoulder is the early-October low, the head is the end-October low, and the right shoulder is the November 22 low. Such a break could open the door for a rise toward 21800, the implied price objective of the H&amp;S setup. Recommended by Manish Jaradi Traits of Successful Traders Get My Guide --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Asian shares mixed on inflation data AP, TOKYO Asian shares were mixed on Friday as worries deepened about the regional economy and Japan reported higher-than-expected inflation. Benchmarks fell in Taipei, Tokyo, Seoul and Hong Kong, but rose in Sydney and Shanghai. Australia’s S&amp;P/ASX 200 rose 0.24 percent to 7,259.50, rising 1.51 percent from a week earlier, while the Shanghai Composite Index gained 0.4 percent to 3,101.69, gaining 0.14 percent weekly. With the Bank of Japan being one of the few outliers which has not embarked on a rate-hiking process, the point of pivot will be a key question into next year,” Jun Rong Yeap of IG said in a commentary.</t>
+          <t>Hang Seng Index, Hong Kong Equities, HSI - Technical Outlook: The Hang Seng Index is running into a major hurdle. Hang Seng Index Monthly Chart Chart Created Using TradingView An alternate scenario is a relatively bullish one, where HSI breaks above immediate resistance at 18415, triggering an inverse Head &amp; Shoulders (H&amp;S) pattern. Recommended by Manish Jaradi Traits of Successful Traders Get My Guide --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,118 +544,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8272529244422913</v>
+        <v>0.9997993111610413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trader’s Edge: An educator’s strategy to generate additional income for working professionals - Moneycontrol</t>
+          <t>Hang Seng Index Today: Alibaba, Nio Plunge 6% Amid Unrest Over Xi Jinping's Covid-Zero Policies - Alibaba - Benzinga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 01:42:15 GMT</t>
+          <t>Mon, 28 Nov 2022 02:17:57 GMT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>It’s often said that intraday trading in the stock market is not something for those with day jobs. But there are always some people who find ways to overcome such constraints. Rituraaj J (@simpletrades), a New Delhi-based corporate professional-turned-educator, has devised a setup that takes 15 to 30 minutes every day to generate consistent additional income every week by scalping Bank Nifty options. Scalping refers to a day-trading strategy aimed at benefitting from small price movements. “Being a working professional and officegoer, I had only limited time in the morning to take my trades and this is absolutely bang-on for busy people with limited time,” said Rituraaj, who prefers using only his first name. “It also works with people who do not want to risk huge capital in options trading, irrespective of buying or selling options.” Initial mistakes As with most successful traders, wisdom and risk management did not come without mistakes. Rituraaj’s fascination with the stock markets started with mutual funds in the early 2000s and soon developed into buying stocks on the basis of tips and recommendations. “Now I realise how stupid that was! Well, I was making some money and losing some money, so there was no real ground covered except for acquiring knowledge,” he said. He also dabbled in out-of-money (OTM) options at his broker’s suggestion, which didn’t work. These failures led Rituraaj to develop a strategy of starting small and staying in a trade for as little time as possible. Start small The first and foremost advice that the 56-year-old has to give is to start small. In the beginning, one should trade just one lot for six months to build consistency and aim to see at least four green days in a week, every week, he said. Trading in options is extremely risky. The biggest folly of beginners is to bet a large amount, thus ending up losing their money in one bad trade. The idea here is to ingrain discipline so that you don’t take excessive risks. “When consistency is developed, scaling up is simple as we are only trading the points and not money which is a by-product,” he told Moneycontrol. The basic premise of the strategy is to generate 1 percent profit every day. An options buyer, Rituraaj was inspired to become a scalper two years ago when he came across an article in Moneycontrol about Sivakumar Jayachandran, an ace scalper. Trading with just one lot in the beginning, he bought a Rs 87,000 laptop within a month. He now generates returns of an average 40-50 percent every month and has scaled up trading to 8-10 lots of Bank Nifty options a day. His tip: Only add that much money in your trading account that can buy one lot of options. Similarly, when you scale up, limit the money in your account. This trains your mind to not over-trade. Setting up trade Many traders generally refrain from trading the first candle of the day as volatility is high, but Rituraaj prefers it. He believes the best opportunity to make money is when bulls and bears are having a tug-of-war. Candlesticks are part of technical analysis that display the range and trend of price movements in a specified time. Rituraaj said making money in the market does not require complex strategies. “You don’t need to go to the moon to measure the distance to the moon,” he added. His morning setup is as follows: Step 1: Start half an hour before the market opens and scan through national and global news and events. Also check trends in global indicators such as the Dow Jones Industrial Average, the Dollar index, the rupee-dollar rate, Brent crude oil prices, the Hang Seng index, and the India volatility index to get a sense of the market for the day. Step 2: Load up the Bank Nifty Futures chart with a 3 minute time frame. Also load up Standard Pivots (to plot support and resistance levels) and the Relative Strength Index (a momentum indicator), along with VWAP and SuperTrend. They help in determining the support and resistance levels for the counter. Step 3: Log into the trading terminal before the market opens. Load up 7-8 in-the-money (ITM) strikes for both calls and puts. Step 4: As soon as the market opens, check how the first candle is forming up. If it opens above any support on the pivot with good volumes, it is time to buy call options with a target at the next resistance level. An RSI above 60 supports the view. Similarly, if it drops below any support level, buy put options. Don’t make a trade if the RSI is not supportive, volumes are not large or the candle is indecisive. A screengrab of Rituraaj's terminal while trading. Step 5: Set up a stop-loss immediately after buying the options. It should ideally be 25-30 points below the buy price (or profit of your last trade). For volatile days, this could be higher, say 50-70 points. Step 6: Exit as soon as you are close to your target, which will be the very next resistance on the pivot or RSI on the futures chart. Step 7: Close all terminals. Don’t make any other trades even if you’ve triggered a stop loss. Go to the office. Managing risks Rituraaj’s strategy can be best described as conservative. It has greater emphasis on conserving capital so that you live to trade another day. Usually, his stop-losses are limited to the profit made the previous day. He also refrains from averaging trades if losses are booked. “I exit losing positions when my stop-loss is hit. Be humble, accept defeat with dignity and grace,” he said. Rituraaj also suggests spending time in the market to understand it better. “The market is like a pet,” he said. “Even though you don’t understand their language, after spending some time with them, you get an idea of what they want. Vice-versa, they also start understanding what you want to say.” Disclaimer: The views and investment tips expressed by investment experts on Moneycontrol.com are their own and not those of the website or its management. Moneycontrol.com advises users to check with certified experts before taking any investment decisions.</t>
+          <t>Hong Kong stocks witnessed a sharp decline on Monday with the benchmark Hang Seng falling over 3% in morning trade as the unrest in China over Xi Jinping’s COVID-zero policies weighed on the market. Shares of Alibaba and JD.com lost close to 6% in morning trade while EV peers including Nio, Xpeng and Li Auto declined over 5%. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -5.48% JD.com Inc JD -6.44% Baidu Inc BIDU -4.87% Tencent Holdings Ltd. TCEHY -2.71% Meituan MPNGF -2.56% Nio Inc NIO -5.49% XPeng Inc XPEV -5.08% Li Auto Inc LI -5.91% Macro News: China's industrial companies witnessed their overall profits fall further in the January-October period as COVID-19 outbreaks rose and cities imposed new virus restrictions, reported Reuters. Industrial profits fell 3% in the first 10 months of 2022 compared to a year earlier, it said. Also Read: Brokers For Short Selling Following a fire incident in northwestern Urumqi, protests have spread across Shanghai and Beijing against China's strict 'zero COVID' policies. Protesters chanted, "Xi Jinping step down, CCP step down," referring to the Chinese president and the ruling communist party. Company News: TikTok has engaged the help of tech startups to boost its struggling e-commerce operations, as it looks to diversify its revenues amid a slowdown in digital advertising, reported Financial Times. NIO, which has previously confirmed it is making phones, has said its phone project is progressing well, according to William Li, the company's founder, reported CnEVPost. Top Gainers and Losers: JD.com and WuXi Biologics (Cayman) Inc. are the top losers among Hang Seng constitutents, having shed over 6% each. There were no gainers on the index on Monday. Global News: U.S. futures traded in the red on Monday morning Asia session. The Dow Jones futures were down 0.49% while the Nasdaq futures lost 0.91%. The S&amp;P 500 futures were trading lower by 0.68%. Elsewhere in Asia Pacific, Australia’s ASX 200 was down 0.46%. Japan’s Nikkei 225 traded 0.75% lower while China’s Shanghai Composite index lost 1.7%. South Korea’s Kospi declined by 1.19%. Read Next: Tesla, Amazon, Apple, Lufax And SoFi: Why These 5 Stocks Are Drawing Investors' Attention Today</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>It’s often said that intraday trading in the stock market is not something for those with day jobs. Rituraaj J (@simpletrades), a New Delhi-based corporate professional-turned-educator, has devised a setup that takes 15 to 30 minutes every day to generate consistent additional income every week by scalping Bank Nifty options. Scalping refers to a day-trading strategy aimed at benefitting from small price movements. “ Being a working professional and officegoer, I had only limited time in the morning to take my trades and this is absolutely bang-on for busy people with limited time,” said Rituraaj, who prefers using only his first name. “ These failures led Rituraaj to develop a strategy of starting small and staying in a trade for as little time as possible. When consistency is developed, scaling up is simple as we are only trading the points and not money which is a by-product,” he told Moneycontrol. Similarly, when you scale up, limit the money in your account. His morning setup is as follows: Step 1: Start half an hour before the market opens and scan through national and global news and events. Step 5: Set up a stop-loss immediately after buying the options. He also refrains from averaging trades if losses are booked. “ Even though you don’t understand their language, after spending some time with them, you get an idea of what they want.</t>
+          <t>Hong Kong stocks witnessed a sharp decline on Monday with the benchmark Hang Seng falling over 3% in morning trade as the unrest in China over Xi Jinping’s COVID-zero policies weighed on the market. Also Read: Brokers For Short Selling Following a fire incident in northwestern Urumqi, protests have spread across Shanghai and Beijing against China's strict 'zero COVID' policies. Elsewhere in Asia Pacific, Australia’s ASX 200 was down 0.46%.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9999803304672241</v>
+        <v>0.9999850988388062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Most Read: Highwealth Construction, Oriental Land, HLB Inc, Lockon Co Ltd, GoTo, DPC Dash, AviChina Industry &amp; Technology H, Sea Ltd, Growatt Technology, Oci Co Ltd and more - Smartkarma</t>
+          <t>Hong Kong stocks lead losses in Asia on China unrest, oil at lowest in 2022 - CNBC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 02:06:50 GMT</t>
+          <t>Mon, 28 Nov 2022 08:13:00 GMT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Police officers block off a street in Shanghai in the area where protests against China's zero-Covid policy took place the night before following a deadly fire in Urumqi, the capital of the Xinjiang region. (Photo by HECTOR RETAMAL/AFP via Getty Images) Hong Kong stocks led losses in a negative Asia-Pacific session on Monday amid unrest in China over its continued zero-Covid policy. Oil futures hovered around new 2022 lows as demand concerns from the world's second-largest consumer of oil weighed on prices. The Hang Seng index in Hong Kong fell 1.63% in the final hour of trade, paring some of the losses after shedding 4% at the open. The Hang Seng Tech index fell 2.07%. In mainland China, the Shanghai Composite fell 0.75% to 3,078.55 and the Shenzhen Component also fell 0.69% to 10,829.08. The offshore yuan weakened sharply against the dollar after ending last week around 7.20 per dollar. Futures of West Texas Intermediate crude, the U.S. benchmark for oil, dipped around 3% to the lowest levels since Dec. 2021.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Police officers block off a street in Shanghai in the area where protests against China's zero-Covid policy took place the night before following a deadly fire in Urumqi, the capital of the Xinjiang region. ( The Hang Seng index in Hong Kong fell 1.63% in the final hour of trade, paring some of the losses after shedding 4% at the open.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9998705387115479</v>
+        <v>0.9995555281639099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asia funds ditch China stocks over Covid-19 pandemic - The Times</t>
+          <t>Kuaishou, JD Health May Join Hong Kong's Hang Seng Index - Bloomberg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 00:01:00 GMT</t>
+          <t>Thu, 17 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Covid-19 seems almost forgotten by much of the UK. These days, those wearing masks on public transport are seen as overly cautious oddities, while news coverage of the virus is almost non-existent. But the pandemic continues to dog other countries, not least China. Sponsored Stock markets got ahead of themselves in late October, as hopes rose that China’s zero-Covid policy of mass testing and lockdown measures would finally be ditched. The view I hear from most people in the investment industry is that when it does eventually happen, stocks will surge. That the HSBC MSCI China exchange traded fund (ETF) soared 26 per cent in the space of 15 days this month certainly suggests that will be the case. Chinese stocks do seem cheap. Even after</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>These days, those wearing masks on public transport are seen as overly cautious oddities, while news coverage of the virus is almost non-existent. That the HSBC MSCI China exchange traded fund (ETF) soared 26 per cent in the space of 15 days this month certainly suggests that will be the case.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9872577786445618</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>China's central bank to offer cheap loans to support builders' bonds: Sources - ETRealty</t>
+          <t>Asia-Pacific markets rise, Japanese yen strengthens as Fed signals smaller hikes - CNBC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 13:30:00 GMT</t>
+          <t>Thu, 01 Dec 2022 06:29:00 GMT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HONG KONG | SHANGHAI: China 's central bank will offer cheap loans to financial firms for buying bonds issued by property developers, four people with direct knowledge of the matter said, the strongest policy support yet for the crisis-hit sector.The People's Bank of China (PBOC) hopes the loans will boost market sentiment toward the heavily indebted property sector, which has lurched from crisis to crisis over the past year, and rescue a number of private developers, said the people, who asked not to be named as they were not authorised to speak to the media.China has stepped up support in recent weeks for the property sector, a pillar accounting for a quarter of the world's second-biggest economy. Many developers defaulted on their debt obligations and were forced to halt construction.The country's biggest banks this week pledged at least $162 billion in credit to developers.The PBOC loans, through its relending facility, are expected to be at much lower than the benchmark interest rate and would be implemented in the coming weeks, giving financial institutions more incentive to invest in private developers' onshore bonds, two sources said.Terms such as the interest rate on the loans were not immediately known.The PBOC is also drafting a "white list" of good-quality and systemically important developers that would receive wider support from Beijing to improve their balance sheets, two of the sources said.The central bank did not immediately respond to a request for comment on the planned measures.At least three private developers - including Longfor Group Holdings Ltd, Midea Real Estate Holding Ltd and Seazen Holdings - received the green light this month to raise a total of 50 billion yuan ($7 billion) in debt.If there were not enough demand from investors for such new bonds, the PBOC would likely step in to provide liquidity via the relending facility for the rest of the issuance, said one of the four people and another source.Hong Kong's Hang Seng Mainland Properties Index was up as much as 4.7% on Friday, adding 1 percentage point after Reuters reported the PBOC moves. China's top developer by sales, Country Garden, was up 10%, CIFI Holdings was up more than 5% and Longfor nearly 4%.Relending is a targeted policy tool the PBOC typically uses to make low-cost loans to banks to support the slowing economy, as the central bank faces limited room to cut interest rates on concerns about capital flight.The PBOC in recent months has used the relending facility to support sectors including transport, logistics and tech innovation that were hard hit by the COVID-19 pandemic or are favoured by long-term state policies.Beijing's aggressive support for the property sector marks a reversal from a crackdown begun in 2020 on speculators and indebted developers in a broad push to reduce financial risks.As a result of the crackdown, though, property sales and prices fell, developers defaulted on bonds and suspended construction. The construction halts have angered homeowners who have threatened to stop mortgage payments.The PBOC also plans to provide 100 billion yuan ($14 billion) in M&amp;A financing facilities to state-owned asset managers mainly for their acquisitions of real estate projects from troubled developers, two sources said.Chinese media reported on Monday the central bank planned to provide 200 billion yuan in interest-free relending loans to commercial banks through the end of March for housing completions.Among other recent official support, China's interbank bond market regulator said this month it would widen a programme to support about 250 billion yuan ($35 billion) of debt offerings by private firms.Much of Beijing's previous support targeted state-owned developers.Yi Huiman, chairman of China's securities regulator, said on Monday the country must implement plans to improve the balance sheets of "good quality" developers.Fitch Ratings said on Thursday private Chinese developers face higher liquidity risk, in terms of debt structure with greater short-term maturity pressure, than state-owned peers as banks and other creditors are becoming reluctant to lend.</t>
+          <t>A Star Ferry ship parked in front of the Hong Kong Skyline on October 13, 2022 in Hong Kong, China. (Photo by Vernon Yuen/NurPhoto via Getty Images) Markets in the Asia-Pacific traded higher, carrying on the optimism behind Wall Street's rally as Federal Reserve Chair Jerome Powell confirmed smaller rate hikes could start in December. Hong Kong's Hang Seng index rose 1.6%, with the Hang Seng Tech index trading 2.38% higher. In mainland China, the Shanghai Composite was up 0.65%, while the Shenzhen Component gained 1.56%. The Caixin/Markit Manufacturing Purchasing Managers' Index for China came in at 49.4, higher than expectations while marking a fourth consecutive month of contraction.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HONG KONG | SHANGHAI: China 's central bank will offer cheap loans to financial firms for buying bonds issued by property developers, four people with direct knowledge of the matter said, the strongest policy support yet for the crisis-hit sector. The People's Bank of China (PBOC) hopes the loans will boost market sentiment toward the heavily indebted property sector, which has lurched from crisis to crisis over the past year, and rescue a number of private developers, said the people, who asked not to be named as they were not authorised to speak to the media. Terms such as the interest rate on the loans were not immediately known. As a result of the crackdown, though, property sales and prices fell, developers defaulted on bonds and suspended construction. Chinese media reported on Monday the central bank planned to provide 200 billion yuan in interest-free relending loans to commercial banks through the end of March for housing completions.</t>
+          <t>A Star Ferry ship parked in front of the Hong Kong Skyline on October 13, 2022 in Hong Kong, China. ( Hong Kong's Hang Seng index rose 1.6%, with the Hang Seng Tech index trading 2.38% higher.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -664,148 +664,140 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9977854490280151</v>
+        <v>0.9998688697814941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thanksgiving Air Travel Demand Supported by Remote and Hybrid Work | USGI - U.S. Global Investors</t>
+          <t>Chinese Stocks in Hong Kong Jump, Capping Best Month Since 2003 - Bloomberg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:35:12 GMT</t>
+          <t>Wed, 30 Nov 2022 09:11:14 GMT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Commercial air travel in the U.S. was incredibly robust this week, with passenger volumes close to 2.3 million per day. Thanksgiving was a major driver of demand, of course, but there may be another reason why travelers were able to board planes consistently throughout the week: remote and hybrid work. Even though most offices and businesses have fully reopened following the pandemic, remote and hybrid work remains the norm for millions of American workers, allowing them to save both time and money they would have otherwise spent on commuting. Working off-site has been a huge benefit to not just customers but also airlines, according to Helena Becker, an airlines analyst at Cowen. This type of work “enables [airlines] to be less ‘peaky’” and enables customers “to get better pricing,” Becker says. Robert Isom shares the same idea. Speaking at last week’s Skift Aviation Forum in Dallas, the American Airlines CEO said that “demand is more spread out” due to the rise in remote work, adding that consumers, airlines and airports are no longer “beholden to the structure of the past.” This helps explain why air travel demand was strong throughout the week instead of it being concentrated on the days immediately preceding and following Thanksgiving Day, as has historically been the case. On Sunday and Monday, more people boarded commercial jets than they did on the equivalent days in 2019, according to Transportation Security Administration (TSA) data. What Americans Have Gained by Working Remotely Remote work isn’t the perfect fit for every company or employee, but the potential benefits are easy to see. According to Global Workplace Analytics, people who work remotely, either full-time or part-time, can save between $2,000 and $7,000 annually in transportation and work-related costs. They can also gain back the equivalent of two to three weeks per year in commuting time. An estimated $20 billion could collectively be saved at the pump. With offices now fully open, you might think that remote and hybrid work is disappearing, but the opposite appears to be true. Gallup, the analytics and advisory firm, found that work away from home actually increased in 2022, accounting for 49% of the U.S. labor force in June, up from 42% in February. “Fully on-site work is expected to remain a relic of the past,” the firm says, though you’re welcome to disagree. Will “Workcations” and “Bleisure” Replace Corporate Travel? This week I was in Dubai, attending and speaking at the Alternative Investment Management, or AIM, Summit, and I also had the opportunity to take in the World Cup in Qatar. I suspect there were hundreds more World Cup spectators who were also combining work and vacation (workcation), business and leisure (bleisure). For the past year and a half, analysts and the media have questioned whether corporate business travel will ever return to pre-pandemic levels, as leisure travel has. An October survey of corporate travel managers in the U.S. found that domestic business travel volume has returned to 63% of 2019 levels, while international business travel is still only at 50%. Based on current trends, it may take until 2024 or 2025 before corporate spending on travel has fully recovered to pre-pandemic levels. Thanks to the widespread acceptance of remote work, however, bleisure travel appears to be replacing traditional corporate travel, if not on a revenue basis (business class can cost three to four times as much as economy class) then certainly by volume. Domestic and international load factors, which measure the seat utilization rate on a scheduled flight, have returned to pre-pandemic levels. The same can somewhat be said about airlines’ profitability. As most of you know, EBITDA stands for earnings before interest, taxes, depreciation and amortization. It tells you how much profit a company made before debt and taxes were paid and before non-cash items like depreciation and amortization were factored in. Looking at EBITDA for the Big Four U.S. carriers, we see that profitability is nearing pre-pandemic levels, even as American, United and Delta reported record revenues in the third quarter of 2022. Lower Fuel Costs Would Be a Windfall As you may have noticed, airfares have risen due to inflation, but they haven’t risen enough to compensate for higher fuel expenses. The Organization of Petroleum Exporting Countries (OPEC), along with Russia, agreed to oil production cuts in early October, making it even more challenging for crude prices to fall and give consumers, including airlines, a break. Here in the U.S., however, oil production continues to rise from pandemic lows and is nearing 2019 levels. Looking just at production from U.S. shale projects, which ordinarily require fracking to obtain oil, output has increased for seven straight months through November. This month, some 9.1 million barrels per day (MBPD) are expected to have been recovered from the ground. That’s only 200,000 BPD less than the all-time monthly high of 9.3 MBPD, set in November 2019, soon before the pandemic. Jet fuel accounts for 25% to 35% of an airline’s total expenses, so lower fuel costs would be a nice windfall. According to Bloomberg, a new plane pays for itself in 12 years when jet fuel prices are lower than $4 per gallon, and as of last Friday, a gallon was $3.18. On behalf of our team at U.S. Global Investors, Happy Thanksgiving! Have a safe and relaxing weekend surrounded by family, friends and loved ones! Index Summary The major market indices finished up this week. The Dow Jones Industrial Average gained 1.78%. The S&amp;P 500 Stock Index rose 1.52%, while the Nasdaq Composite climbed 0.72%. The Russell 2000 small capitalization index gained 1.10% this week. The Hang Seng Composite lost 2.33% this week; while Taiwan was up 1.89% and the KOSPI fell 0.27%. The 10-year Treasury bond yield fell 13 basis points to 3.69%. Airlines and Shipping Strengths The best performing airline stock for the week was Jet 2, up 11.9%. China Eastern Airlines announced it would raise ceiling prices, namely no-discount airfare for economy-class for seven domestic routes, together with its wholly-owned subsidiary Shanghai Airlines. This followed the new regulation issued by the Civil Aviation Administration of China (CAAC) in December 2017, which allows Chinese airlines to raise the ceiling price for domestic routes by 10% in each flight season (twice a year), but cannot raise the ceiling price for the same route for three consecutive times. ZTO Express reported adjusted net income attributable to shareholders of 1.9 billion renminbi (+64% year-over-year) in the third quarter, beating the Bloomberg consensus by 24%. Revenue came in 8.9 billion renminbi, up 21% yoy, driven by 12% yoy growth in parcel volume and a 10% yoy increase in prices. Copa Airlines’ third-quarter earnings per share (EPS) of $2.91 exceeded consensus’ $2.74, and its earnings before interest and taxes (EBIT) margin of 17.8% also came in ahead of consensus’ 17.5%. The Panamanian carrier’s beat was driven by stronger non-fuel cost performance. Weaknesses The worst performing airline stock for the week was Finnair, down 9.4%. Star Bulk Carriers reported a third-quarter adjusted EPS of $1.33, slightly below consensus of $1.41. The results were driven by 3Q rates of $24,365 per day, which were in line with consensus of $24,494 per day. Fourth-quarter bookings came in at 66% at $22,772 per day per vessel, which is lower than consensus. Due to the further deterioration of Chinese volume in Guangzhou, domestic passenger volume per seat capacity slightly declined to between 28% and 35% of 2019 levels, according to per Flight Master. Domestic passenger load factor (PLF) edged down to 64% from 66% in the prior week. Daily aircraft utilization for narrow-body aircraft slipped to 2.5 hours from 2.6 hours in the prior week. The air cargo market is oversupplied, possibly by as much as 9.7% as demand has fallen 5.5% when compared with the prior year (January-August). Capacity growth through dedicated freighters and passenger-to-freighter conversions continues with no moderation of supply anticipated in the near term. Air cargo spot rates have tumbled by two thirds since December 2021. Opportunities In its annual survey, the Airports Council International (ACI) found that 86% of respondents are planning to travel by air in the year to come, the highest such score since the start of the pandemic. Further, the most recent Global Business Travel Association (GBTA) survey noted strong expectations of growth in business travel in 2023. Close to 80% of travel managers expect more business trips in 2023 compared to 2022. Among travel suppliers, 85% of respondents expect bookings by corporate clients to be higher or much higher in 2023. More than 65% of travel managers are optimistic that their company will conduct more internal and external travel. The huge need for European natural gas in the wake of the invasion of Ukraine and a severe shortage of ship capacity has sent spot rates on liquid natural gas (LNG) tankers to record highs. Over the course of 2022, rates have increased to between $200,000 and $500,000 a day, and that may last for a few years, participants in a panel debate at the Marine Money conference in New York said on Thursday. Copa’s revenue strength is coming mostly from leisure, but management said that there has been a recent uptick in corporate demand, currently at 75% of 2019 levels, with business now representing 25% of total revenues. On the fleet side, the company expects to receive 13 aircraft next year and has already secured financing for seven of them. Copa will discuss the restoration of dividend payments in the next board meeting, and it highlighted that it has been active on buybacks, with an active repurchase program of $200 million. Threats Capacity in the first fiscal quarter of 2023 has been noticeably reduced for Spirit Airlines (-4.0%) and Allegiant Air (-1.7%). Spirit is adjusting its early 2023 network out of Florida by reducing frequencies to Fort Lauderdale, Tampa and Fort Meyers, as well as Philadelphia and Hartford. This is partially offset by additions to Las Vegas, Atlanta and Detroit. Allegiant’s reductions include Las Vegas, Asheville / Hendersonville, Phoenix and Punta Gorda, with a large addition to Nashville. According to Bank of America, Zim Integrated Shipping Services lowered its 2022 EBITDA (earnings before interest, taxes, depreciation and amortization) guidance by 6%, to between $7.4 billion and $7.7 billion. This decision is driven by a steeper-than-expected decline in freight rates, contract rates being renegotiated lower and weak demand. Zim notes that its contract rates were set above other liners as they were negotiated later in the season, when spot rates were higher. According to J.P Morgan, the environment for aviation in Latin America remains challenging. Oil price increases, high inflation, elevated interest rates and devaluing domestic currencies have been pressuring Latin American carriers, despite record top line trends during the third quarter. Airlines are facing cost increases especially on the fuel consumption side, though demand outlook remains solid for the near term. Emerging Markets Strengths The best performing country in emerging Europe for the week was Turkey, gaining 7.7%. The best performing country in Asia was the Philippines, gaining 2.8%. The Romanian leu was the best performing currency in emerging Europe this week, gaining 1.2%. The Malaysian ringgit was the best performing currency in Asia, gaining 1.6%. Turkish equities continue to outperform, supported by domestic buying and the government’s measures to support the economy before next year’s elections. The central bank of Turkey once again cut its one-week repo rate, despite inflation reaching 85.5% on a year-over-year basis in October. The Istanbul Stock Exchange is the best performing year-to-date, gaining 134% in dollar terms. Weaknesses The worst performing country in emerging Europe for the week was Romania, losing 1.0%. The worst performing country in Asia was Hong Kong, losing 2.2%. The Russian ruble was the worst performing currency in emerging Europe this week, losing 0.2%. The Chinese yuan was the worst performing currency in Asia, losing 0.6%. Nomura analysts cited by Bloomberg calculated nearly 20% of China’s total economy is now affected by movement restrictions due to a growing number of covid cases. For now, China is avoiding widespread city lockdowns; however, if Covid cases continue to grow rapidly, the government may impose stricter measures. Opportunities Reuters reported China is leading global initial public offering (IPO) activity this year, supported by easy monetary policy and a lack of clarity on access to offshore capital markets. Refinitiv data showed China IPOs raised $71.2 billion. Although lower than the $98.5 billion raised a year earlier, the amount is much higher than the U.S. ($17.3 billion) and Europe ($16.4 billion). Chinese offerings have been largely confined to the domestic market as deals in Western markets tumbled. People’s Bank of China (PBOC) adviser Wang Yiming said China’s economy next year could grow above 5%, but only if Covid’s impact ends. He also noted China has limited room to lower rates, but slower Federal Reserve hikes in the U.S. next year will give China more policy room. The recovery in China will depend on the government’s rollout of support measures needed to lift the economy. Preliminary Eurozone PMIs for November were reported stronger than expected. The Manufacturing PMI rose to 47.3 while a reading of 46.0 was expected by Bloomberg Economists. The Service PMI was reported at 48.6, unchanged from the prior month, but above an expected 48.0. Threat The European Union (EU) plans to ban Russian seaborne crude imports starting December 5 and purchase the country’s oil products starting February 5. However, Europe has already cut imports from Russia, losing 90% of its market in the EU’s northern countries. The Netherlands is the only remaining European destination for seaborne deliveries outside of the Mediterranean/Black Sea basin. States like Lithuania, France, Finland, the United Kingdom and Germany halted such imports month ago, while Poland followed suit in September, Blomberg reported. Germany will send Patriot missiles and fighter jests to Poland as part of an air-defense deal following events from last week when two missiles landed in Poland near the border with Ukraine, killing two. Germany’s support for Poland may further escalate tensions between NATO members and Russia. China will release Manufacturing and Service PMIs next week. These economic indicators already fell into contractionary territory, below the 50-mark, but more weakness is expected due to ongoing covid lockdowns in China. Energy and Natural Resources Strengths The best performing commodity for the week was natural gas, up 11.69%. Refining earnings in the third quarter exceeded expectations and showed continued execution to repair balance sheets to better than pre-COVID levels. Management teams indicated that overall fourth-quarter demand remains robust so far. Quarter-to-date, they believe margin capture will be flat to slightly down. Overall, refining continues to work well into 2023 on lower U.S. refining capacity, high international natural gas costs and steady demand, all while several potential catalysts are on the horizon. Refining stocks have continued to attract both generalists and energy-dedicated investors as shareholder returns continue to ramp. According to Trafigura CEO Jeremy Weir, Europe and the U.S. are bigger drivers of metal demand, as opposed to China, as the energy transition boosts usage of materials like copper. It’s a big shift, Weir noted, as there is much more consumption emerging from Europe and the U.S. for electrification. Countries around the world are scrambling to secure shipments of the power plant and heating fuel from major exporters like Qatar and the U.S., but there is little new supply coming online before 2026. Meanwhile, Europe is racing to replace Russian pipeline gas with liquified natural gas (LNG), further exacerbating the global shortage of fuel. This means importers will be forced to depend more on the volatile and expensive spot market, which is currently trading nearly three times higher than long-term contracts. Roughly 30% of all LNG deliveries were via the spot market last year, according to the International Group of Liquefied Natural Gas Importers (GIIGNL). Weaknesses The worst performing commodity for the week was palladium, down 6.21%. The U.S. oil futures curve flipped to contango, a bearish market structure, for the second time this month, spoking traders to exit bullish positions on potential weaker demand going forward. Global urea benchmarks were lower, with Egypt down $55 to $580 per ton and NOLA down $20 to $510 per ton as sellers cut prices to secure sales. Second, phosphate prices were lower with Brazil MAP down $5 to $615 per ton but NOLA DAP down $35 to $645 per ton on average. Third, global potash prices were lower with Brazil down $15 to $570 per ton and SE Asia $50 lower to $700 per ton on average. According to J.P. Morgan, the key takeaways from the October World Steel data are: 1) China’s crude steel output dropped 11% month-over-month to a 939 (million tonnes per annum) Mtpa rate, but is up 11% year-over-year due to the soft 2021 base (YTD is down 2.2%), 2) Rest of World steel output remains down 10% YoY at five-year lows, with the EU and U.S. production decelerating further, and 3) Global steel production is down 4% year-to-date. Opportunities Lithium prices continued to edge higher week-over-week by 1% in the range of $76,000 and $80,000 per ton. According to Benchmark, market participants reported cell manufacturers were limiting their production in November, which weighed on lithium demand sentiment, though this speculation has yet to be confirmed. The market participants noted the limited production could have been driven by the expectation of marginally lower demand in the first fiscal quarter of 2023 due to the cessation of the Chinese electric vehicle (EV) subsidies and Chinese New Year. With that said, demand in 2023 may remain robust on consumer preference and other government-provided EV incentive programs. According to S&amp;P Global in its detailed report “The Future of Copper,” global copper demand is expected to grow from 25 million tons today to 50 million tons in 2035 and 53 million tons by 2050, should the world stay true to its 2050 net-zero targets. While China is forecast to drive this demand and is currently the largest user of copper, growth is closely followed by Europe, the United States and India, which together are expected to represent 70% of the global demand by 2035. S&amp;P Global estimates a $4.18-per-pound copper price as the minimum price required to incentivize new supply. Infrastructure spending is starting to show up in the domestic economy. Deere’s share price surged 4.4% intraday toward a seven-month high on Wednesday, after the agriculture, construction and forestry equipment maker reported fiscal fourth-quarter sales that were well above expectations, and provided an upbeat full-year outlook, citing positive farm fundamentals and fleet dynamics and increased investment in infrastructure. The Inflation Reduction Act of 2022 should continue to drive domestic mining and spending to support an electric energy future. Threats No fuel is more essential to the global economy than diesel, as highlighted by Bloomberg this week. It is essential to move trucks, ships and trains, and for heating homes during the winter. Expectations are that almost every region on the planet will face the danger of a diesel shortage within the next few months. Stockpiles are at their lowest point in four decades in the U.S., and residents in the Northeast can expect to pay 45% higher prices vs. last winter. In Europe, diesel futures are $40 above Brent vs. a five-year seasonal norm of $12. This could lead to a spike in inflation over the winter. At the Group of 20 Summit in Bali this week, Indonesian Investment Minister Bahlil Lahadalia floated the idea of an alliance that he said would help to unite government policies on the in-demand battery metal (lithium) and psush the development of the downstream industry. The plan has been discussed with both Canada and Australia. The idea also fits with Indonesian President Joko Widodo’s strategy of the nation becoming a hub for more refining of metals and even production of electric vehicles. According to Goldman, capping gas prices at the exchange level, as has been proposed this week by the E.C., likely has added detrimental effects, such as (1) further reducing liquidity in an already liquidity-poor market, (2) increasing the risk of a reduction in gas supply, and (3) disrupting commercial risk management. Luxury Goods Strengths One after another, luxury goods companies have reported bumper sales and profits despite inflation, as the world’s wealthy enjoy a “roaring 20s” age of decadence similar to the boom in the postwar period a century ago, writes The Guardian. This week, the company behind Veuve Clicquot and Moet &amp; Chandon said it was “running out of stock on our best champagnes,” as it struggles to meet pent-up demand as parties take off following the full easing of Covid restrictions. In addition, companies like Burberry reported an 11% increase in sales in the three months ended September, and Kering reported a 14% increase in its latest third-quarter sales. Rolex, the biggest Swiss luxury watchmaker, is planning a major new production facility in Bulle, Switzerland, reports public broadcaster RTS (Radio Television of Serbia) and Bloomberg. Rolex could invest 1 billion Swiss francs in the manufacturing operation, creating about 2,000 new jobs. The facility would aim to begin operations in 2029. Ralph Lauren, was the best-performing S&amp;P Global Luxury stock, gaining 6.4%. Over the weekend, Naomi Biden, the eldest granddaughter of President Joe Biden, wed her husband Peter Neal on the South Lawn of the White House. For the big day, she wore a Grace Kelly-inspired lace dress by Ralph Lauren. Weaknesses Due to recent Covid outbreaks in China, luxury car brands are offering up to 20% price discounts. One of them is Mercedes-Benz, which is offering a price cut of up to 130,000 yuan ($18,172) on its high-end models, and at the same time, Audi and BMW have cut the prices by 110,000 ($15,376) and 80,000 yuan ($11,182), respectively. The decline in sales in the third quarter resulted from lower consumer demand; last year, it was because of the auto chip shortage and the high market prices. The Service PMI Index, one of the most important leading indicators of the U.S., decreased in November, coming in at 46.1 vs. 47.8 expected. It represents a stronger-than-expected contraction in North American services activity, pointing to economic slowdown. Chow Tai Fook Jewellery Group was the worst-performing S&amp;P Global Luxury stock, losing 20.3%. Shares dropped on expectations that the latest Covid outbreak in China will weigh on the company’s profits. Opportunities According to an article from Vogue Business, fashion had a limited impact on negotiations at this year’s UN Climate Change Conference (COP27). This makes sense, however, as higher priority items such as the War in Ukraine, protests in Iran and ongoing supply chain delays took precedence. LVMH kicked off the conference, though, by unveiling plans to work with King Charles III’s Circular Bioeconomy Alliance to build a regenerative agroforestry system. This comes with hopes of coupling cotton production with biodiversity restoration in Africa. The company’s environmental director said this builds on the group’s work implementing regenerative agriculture in its Turkish supply chain. According to a Business of Fashion (BoF) report, Gucci is the favorite luxury brand, while Nike is the number one sportswear brand for Gen Z consumers (those born between 1997 and 2010). This particular group of consumers represents 25% of the world´s population and has a purchasing power of about $360 billion, according to Bof. Despite being an important target market for luxury brands, Hen Z presents significant marketing challenges since they are digital natives. Gucci is the only luxury brand in the top 10 for this group of buyers because it has offered different experiences, such as providing NFTs and virtual spaces on Roblox (a leading gaming platform). Luxury brands are looking for different ways and scenarios to reach a new audience and expand their client base, reaching into sports events and targeting sport teams as new clients. One good example of this strategy is the presence of Louis Vuitton and Hublot at the FIFA World Cup, the world´s largest sporting event that is taking place in Qatar. Louis Vuitton launched the campaign “Victory is a State of Mine,” featuring Lionel Messi and Cristiano Ronaldo. Hublot is the official timekeeper for the tournament, reports Jing Daily from China. Threats Based on a new report developed in partnership with Business of Fashion and eBay, which analyzes luxury customer behavior, shoppers now see luxury brands as a currency because they believe their luxury purchases will increase in value over time. According to the report, 62% of luxury shoppers have sold luxury accessories for a profit. E-commerce pioneers like eBay take an essential role in this secondary market, affecting the sales in the physical stores which the luxury brands target to offer customers a memorable experience. Leading luxury brands such as LVMH, Hermès, Swatch Groups, Richemont, Burberry, Gucci and Salvatore Ferragamo, have expressed concerns related to the potential contraction of the luxury Chinese market due to growing number of Covid cases. The latest Covid outbreak in China could result in the government imposing more restrictive measures to bring the outbreak under control. According to Bloomberg, the ISM Manufacturing PMI for the U.S. is expected to decrease from 50.2 in the previous month to 49.8 in November. It could represent a contraction in the general state of the economy, including in the luxury goods industry. The United States is one of the leading luxury goods markets worldwide. Blockchain and Digital Currencies Strengths Of the cryptocurrencies tracked by CoinMarketCap, the best performer for the week was Litecoin, rising 35.76%. Binance CEO Changpeng Zhao, or “CZ,” and several deputies met with investors in Abu Dhabi last week to raise cash for a crypto industry recovery fund. CZ and his team held meetings with potential backers, including entities affiliated with UAE National Security Adviser Sheikh Tahnoon bin Zayed, who oversees a large financial empire, according to an article published by Bloomberg. Crypto markets have steadied as Bitcoin climbed for a second day, trading back above $16,000. Ark Invest’s Cathie Wood is sticking to her bullish forecast of $1 million Bitcoin by 2030, writes Bloomberg. Weaknesses Of the cryptocurrencies tracked by CoinMarketCap, the worst performing for the week was Chiiliz, down 20.57%. Cascading crypto blowups have only exacerbated problems for Grayscale’s $10.5 billion Bitcoin Fund. The Grayscale Bitcoin Trust closed a record 45% below the value of its underlying coins on Friday, according to Bloomberg data, and shares fell another 5% on Monday. The dislocation has widened dramatically in recent weeks as GBTC, which can’t redeem shares unlike traditional ETFs, has fallen to a greater degree than Bitcoin itself. New York Governor Kathy Hochul has signed one of the most restrictive laws in the U.S. on regulating cryptocurrency mining, becoming the first state to impose such a ban. The bill triggers a two-year moratorium on new permits for crypto mining companies that are powered by fossil fuels. Opportunities Wall Street’s waning conviction in Coinbase Global has done little to deter Cathie Wood. Instead, she’s been scooping up shares of the struggling cryptocurrency exchange in the wake of the collapse of Sam Bankman-Fried’s FTX. Wood’s Ark Investment Management funds have bought more than 1.3 million shares of Coinbase since the start of November, worth about $56 million. The Wild West days of crypto are back as the large trading houses that once thrived on arbitraging price gaps pull back in the wake of FTX’s collapse. That’s opening up profitable opportunities for anyone who still dares to trade. The gap between the funding rates of identical Bitcoin futures on Binance and OKX, for instance, has been as wide as an annualized 101 percentage points, writes Bloomberg. Crypto billionaire Mike Novogratz said the “crisis of confidence” in the digital asset world will drive more cryptocurrency users to seek out institutional players like Fidelity Investments. “The big winners in this are going to be people like Fidelity who have just come out with their crypto product,” Novogratz commented. Threats Bitcoin dipped firmly below $16,000 as crypto markets dealt with the FTX shockwaves. The bearish price action also comes in the wake of risk-off trading in the stock market. The global crypto market, which was as high as $3 trillion in November 2021, stood at only $790.3 billion, according to CoinMarketCap data. With increased downward pressure in cryptos, liquidity on centralized exchanges appeared to have also taken a nosedive. Exchange-issued crypto tokens such as bankrupt FTX Group’s FTT can pose “extreme” risk when accepted by their issuers as collateral, Bank of England Deputy Governor Sir Jon Cunliffe said. Cunliffe said the volatility of unbacked crypto assets like exchange tokens makes them vulnerable to runs, exacerbating their price swings, according to an article published by Bloomberg. In a conference call on Tuesday, top partners at the powerful venture capital firm Sequoia Capital apologized to investors by backing FTX, a pair of bankrupt cryptocurrency exchanged that had allegedly been mismanaged by Sam Bankman-Fried. Gold Market This week gold futures closed the week at $1,768.50, down $0.50 per ounce, or -0.03%. Gold stocks, as measured by the NYSE Arca Gold Miners Index, ended the week higher by 3.97%. The S&amp;P/TSX Venture Index came in flat at -0.02%. The U.S. Trade-Weighted Dollar fell 0.83%. Date Event Survey Actual– Prior Nov-23 Durable Goods Orders 0.4% 1.0% 0.4% Nov-23 Initial Jobless Claims 225k 240k 223k Nov-23 New Home Sales 570k 632k 588k Nov-28 Hong Kong Exports YoY — — -9.1% Nov-29 Germany CPI YoY 10.4% — 10.4% Nov-29 Conf. Board Consumer Confidence 100.0 — 102.5 Nov-30 Eurozone CPI Core YoY 5.0% — 5.0% Nov-30 ADP Employment Change 200k — 239k Nov-30 GDP Annualized QoQ 2.8% — 2.6% Nov-30 Caixin China PMI Mfg 48.9 — 49.2 Dec-1 Initial Jobless Claims 233k — 240k Dec-1 ISM Manufacturing 49.8 — 50.2 Dec-2 Change in Nonfarm Payrolls 200k — 261k Strengths The best performing precious metal for the week was silver, up 2.02% largely on improved sentiment across the precious metals space, except for palladium, with the Fed Minutes indicating a more moderate interest rate path ahead. This week, UBS identified three structural reasons in favor of gold: 1) Long-term investors and the official sector are gradually building gold allocations. Central banks have been net buyers of gold for more than a decade now, amid a broader trend of diversifying dollar-denominated reserves. This year, the Russia-Ukraine war and corresponding sanctions reinforced this theme. Net official sector buying to 3Q22 is already higher than previous full-year highs. 2) The proportion of gold holdings relative to overall assets held by institutional investors remains light, in their view, and they think it is likely held more for diversification and portfolio protection rather than expectations of outright material price appreciation. This implies more resilient core positions and scope for allocations to grow. 3) Strong physical demand has also been a key factor affecting the relationship between gold and real rates, in their view. Key physical gold markets India and China have continued to buy large volumes of gold this year, helped by cheaper prices as gold came under pressure from macro forces. Weaknesses The worst performing precious metal for the week was palladium, down 6.47% on little specific news. Harmony Gold’s first fiscal quarter gold produced is down 1%, but gold sold is up 4% and mining revenue is up 5%. Following the restructure of Tshepong, Harmony comments that Tshepong North &amp; South have performed well, due to better recovered grades. Load curtail</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Commercial air travel in the U.S. was incredibly robust this week, with passenger volumes close to 2.3 million per day. An estimated $20 billion could collectively be saved at the pump. Fully on-site work is expected to remain a relic of the past,” the firm says, though you’re welcome to disagree. Looking at EBITDA for the Big Four U.S. carriers, we see that profitability is nearing pre-pandemic levels, even as American, United and Delta reported record revenues in the third quarter of 2022. Lower Fuel Costs Would Be a Windfall As you may have noticed, airfares have risen due to inflation, but they haven’t risen enough to compensate for higher fuel expenses. Have a safe and relaxing weekend surrounded by family, friends and loved ones! Index Summary The major market indices finished up this week. The 10-year Treasury bond yield fell 13 basis points to 3.69%. This followed the new regulation issued by the Civil Aviation Administration of China (CAAC) in December 2017, which allows Chinese airlines to raise the ceiling price for domestic routes by 10% in each flight season (twice a year), but cannot raise the ceiling price for the same route for three consecutive times. Revenue came in 8.9 billion renminbi, up 21% yoy, driven by 12% yoy growth in parcel volume and a 10% yoy increase in prices. Star Bulk Carriers reported a third-quarter adjusted EPS of $1.33, slightly below consensus of $1.41. Due to the further deterioration of Chinese volume in Guangzhou, domestic passenger volume per seat capacity slightly declined to between 28% and 35% of 2019 levels, according to per Flight Master. Daily aircraft utilization for narrow-body aircraft slipped to 2.5 hours from 2.6 hours in the prior week. Close to 80% of travel managers expect more business trips in 2023 compared to 2022. Spirit is adjusting its early 2023 network out of Florida by reducing frequencies to Fort Lauderdale, Tampa and Fort Meyers, as well as Philadelphia and Hartford. The best performing country in Asia was the Philippines, gaining 2.8%. The Malaysian ringgit was the best performing currency in Asia, gaining 1.6%. Preliminary Eurozone PMIs for November were reported stronger than expected. The Netherlands is the only remaining European destination for seaborne deliveries outside of the Mediterranean/Black Sea basin. Germany’s support for Poland may further escalate tensions between NATO members and Russia. These economic indicators already fell into contractionary territory, below the 50-mark, but more weakness is expected due to ongoing covid lockdowns in China. Energy and Natural Resources Strengths The best performing commodity for the week was natural gas, up 11.69%. According to Trafigura CEO Jeremy Weir, Europe and the U.S. are bigger drivers of metal demand, as opposed to China, as the energy transition boosts usage of materials like copper. Second, phosphate prices were lower with Brazil MAP down $5 to $615 per ton but NOLA DAP down $35 to $645 per ton on average. According to J.P. Morgan, the key takeaways from the October World Steel data are: 1) China’s crude steel output dropped 11% month-over-month to a 939 (million tonnes per annum) Mtpa rate, but is up 11% year-over-year due to the soft 2021 base (YTD is down 2.2%), 2) Rest of World steel output remains down 10% YoY at five-year lows, with the EU and U.S. production decelerating further, and 3) Global steel production is down 4% year-to-date. It is essential to move trucks, ships and trains, and for heating homes during the winter. At the Group of 20 Summit in Bali this week, Indonesian Investment Minister Bahlil Lahadalia floated the idea of an alliance that he said would help to unite government policies on the in-demand battery metal (lithium) and psush the development of the downstream industry. According to Goldman, capping gas prices at the exchange level, as has been proposed this week by the E.C., likely has added detrimental effects, such as (1) further reducing liquidity in an already liquidity-poor market, (2) increasing the risk of a reduction in gas supply, and (3) disrupting commercial risk management. This week, the company behind Veuve Clicquot and Moet &amp; Chandon said it was “running out of stock on our best champagnes,” as it struggles to meet pent-up demand as parties take off following the full easing of Covid restrictions. Over the weekend, Naomi Biden, the eldest granddaughter of President Joe Biden, wed her husband Peter Neal on the South Lawn of the White House. The Service PMI Index, one of the most important leading indicators of the U.S., decreased in November, coming in at 46.1 vs. 47.8 expected. Hublot is the official timekeeper for the tournament, reports Jing Daily from China. E-commerce pioneers like eBay take an essential role in this secondary market, affecting the sales in the physical stores which the luxury brands target to offer customers a memorable experience. The latest Covid outbreak in China could result in the government imposing more restrictive measures to bring the outbreak under control. Crypto markets have steadied as Bitcoin climbed for a second day, trading back above $16,000. The bill triggers a two-year moratorium on new permits for crypto mining companies that are powered by fossil fuels. Instead, she’s been scooping up shares of the struggling cryptocurrency exchange in the wake of the collapse of Sam Bankman-Fried’s FTX. Crypto billionaire Mike Novogratz said the “crisis of confidence” in the digital asset world will drive more cryptocurrency users to seek out institutional players like Fidelity Investments. “ Central banks have been net buyers of gold for more than a decade now, amid a broader trend of diversifying dollar-denominated reserves. This implies more resilient core positions and scope for allocations to grow. Weaknesses The worst performing precious metal for the week was palladium, down 6.47% on little specific news. All-in sustaining costs (AISC) of $1,657 per ounce are 2% down year-over-year and 4% down quarter-over-quarter, but 8% up above consensus. The Australian Broadcasting Commission (ABC) reported that Cadia gold mine’s expansion approval was revoked after it failed an air quality audit. It provided an updated five-year outlook indicating gold production growth through 2027. U.S. Global Investors, Inc. is an investment adviser registered with the Securities and Exchange Commission (“SEC”). This does not mean that we are sponsored, recommended, or approved by the SEC, or that our abilities or qualifications in any respect have been passed upon by the SEC or any officer of the SEC. This commentary should not be considered a solicitation or offering of any investment product. Certain materials in this commentary may contain dated information. The information provided was current at the time of publication. All opinions expressed and data provided are subject to change without notice. The Korea Stock Price Index is a capitalization-weighted index of all common shares and preferred shares on the Korean Stock Exchanges. The Philadelphia Stock Exchange Gold and Silver Index (XAU) is a capitalization-weighted index that includes the leading companies involved in the mining of gold and silver. The index is market capitalization weighted and, at its inception, included 531 companies. The S&amp;P 500 Energy Index is a capitalization-weighted index that tracks the companies in the energy sector as a subset of the S&amp;P 500. The Consumer Price Index (CPI) is one of the most widely recognized price measures for tracking the price of a market basket of goods and services purchased by individuals. The weights of components are based on consumer spending patterns. It includes all private and public consumption, government outlays, investments and exports less imports that occur within a defined territory.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9999995231628418</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daily Brief China: ENN Natural Gas, Shanghai United Imaging Healthcare, Trina Solar Co Ltd, Alibaba (ADR), Hong Kong Hang Seng Index, Meituan, JL Mag Rare Earth, Lifestyle International Holdings, Melco Resorts &amp; Entertainment and more - Smartkarma</t>
+          <t>Hong Kong's Hang Seng Index opens 3.26 pct lower - Xinhua</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:02:04 GMT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
-        </is>
-      </c>
+          <t>Mon, 28 Nov 2022 01:32:45 GMT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9998705387115479</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daily Brief Event-Driven: CSI300 Index Rebalance: The Surprises Could Outperform and more - Smartkarma</t>
+          <t>Hang Seng Index Technical Outlook: Signs of Fatigue? - DailyFX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:02:19 GMT</t>
+          <t>Wed, 23 Nov 2022 03:00:00 GMT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Hang Seng Index, Hong Kong Equities, HSI - Technical Outlook: The Hang Seng Index is running into stiff resistance. Chances are that the rally could stall, and the index may retreat a bit. What are the possible scenarios and what are the key levels to watch? Recommended by Manish Jaradi The Fundamentals of Trend Trading Get My Guide HANG SENG INDEX TECHNICAL OUTLOOK - NEUTRAL The Hang Seng Index (HSI) faces quite strong resistance, raising the chances that the three-week rebound could soon run its course. HSI jumped 25% from the October low before retreating in the past couple of sessions from near a stiff hurdle: the 89-day moving average, coinciding with the March low of 18235. The moving average has posed strong resistance since late 2021, so a retreat would by no means be surprising. Hang Seng Index 240-minutes Chart Chart Created Using TradingView However, short-term momentum remains bullish (notwithstanding the recent softness associated with the retreat) and that the index is still holding support on the lower edge of a rising channel from earlier last month. This means that HSI could make one more attempt to retest last week’s high of 18415, and perhaps slightly higher toward the 200-period moving average on the 240-minutes chart, just around the May low of 19180, before it drops toward the November 7 high of 16822 (scenario 1). Hang Seng Index Daily Chart Chart Created Using TradingView An alternate scenario is one where HSI breaks above immediate resistance at 18415, triggering a reverse Head &amp; Shoulders pattern (the left shoulder is the early-October low, the head is the end-October low, and the right shoulder is the November 22 low). A caveat here is that the right shoulder is not confirmed given that price action is still unfolding. Hence it is possible that the scenario may not unfold at all. Any break above 18415 could pave the way toward 21800, the price objective of the pattern. Importantly, it would imply that medium-term downward pressure has faded. A strong hurdle is at the June high of 22450, which would be tough to crack. Recommended by Manish Jaradi Elliott Wave for Beginners Get My Guide --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Hang Seng Index, Hong Kong Equities, HSI - Technical Outlook: The Hang Seng Index is running into stiff resistance. Hang Seng Index Daily Chart Chart Created Using TradingView An alternate scenario is one where HSI breaks above immediate resistance at 18415, triggering a reverse Head &amp; Shoulders pattern (the left shoulder is the early-October low, the head is the end-October low, and the right shoulder is the November 22 low). Hence it is possible that the scenario may not unfold at all.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9998705387115479</v>
+        <v>0.9368618130683899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Daily Brief Financials: King's Town Bank, Jafco Co Ltd and more - Smartkarma</t>
+          <t>Hong Kong's Hang Seng index closes 5% higher on China reopening speculation; Asia markets mixed - CNBC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:02:06 GMT</t>
+          <t>Thu, 03 Nov 2022 23:49:48 GMT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Hong Kong stocks briefly rose 7% on Friday, with tech and consumer cyclical stocks driving the surge amid China reopening rumors and a report that U.S. inspections of Chinese company audits were completed more quickly than expected. The Hang Seng index closed 5.36% up at 16,161.14, while the Hang Seng Tech index soared 7.54%. Stocks in the city have been reacting to speculation about a potential China reopening as zero-Covid policies persist, dragging the economy. In mainland China, the Shanghai Composite Index closed up 2.43% at 3,070.80 and the Shenzhen Component gained 3.20% to stand at 11,187.43 Stefanie Holtze-Jen, APAC CIO at Deutsche Bank, said China's reopening is still an uncertainty, but it's "exciting to see these rumors coming about." "The market seems to think if there's smoke, there must be fire," she said, adding that she is watching for announcements about the upcoming Shanghai marathon and articles in the Chinese Communist Party's newspaper, People's Daily, for changes in tonality. She also told CNBC's "Capital Connection" that she is paying close attention to economic meetings in December.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>Hong Kong stocks briefly rose 7% on Friday, with tech and consumer cyclical stocks driving the surge amid China reopening rumors and a report that U.S. inspections of Chinese company audits were completed more quickly than expected. In mainland China, the Shanghai Composite Index closed up 2.43% at 3,070.80 and the Shenzhen Component gained 3.20% to stand at 11,187.43 Stefanie Holtze-Jen, APAC CIO at Deutsche Bank, said China's reopening is still an uncertainty, but it's "exciting to see these rumors coming about." "</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9998705387115479</v>
+        <v>0.9998774528503418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daily Brief TMT/Internet: Trina Solar Co Ltd, Alibaba (ADR), Socionext, Meituan and more - Smartkarma</t>
+          <t>Hong Kong index soars 7.7 per cent on China’s Covid relaxations - South China Morning Post</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:02:06 GMT</t>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>People wait to cross a street past an electronic sign showing the Hang Seng index in Hong Kong on Friday. Stocks surged as investors bet on the China reopening theme. Photo: AFP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+          <t>People wait to cross a street past an electronic sign showing the Hang Seng index in Hong Kong on Friday.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -814,28 +806,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9998705387115479</v>
+        <v>0.9999947547912598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Investors head north in global shift - 台北時報</t>
+          <t>Hong Kong stocks tumble as new Covid cases undermine China reopening bets - South China Morning Post</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 16:00:00 GMT</t>
+          <t>Mon, 21 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Investors head north in global shift ASIAN REVIVAL: Indonesia has gone from an inflation hedge to underperformer, as Taiwanese and South Korean chip heavyweights lure investors, analysts said Bloomberg The nascent revival in North Asian equities is being touted as the start of a potential bull run as bets for China’s gradual reopening and the bottoming out of the chip industry intensify. Strategists at Goldman Sachs Group Inc said they expect Asia’s equity leadership to shift from Southeast Asia and India to markets such as China and South Korea next year. Meanwhile, Societe Generale SA said Taiwan’s tech-heavy market is also at an inflection point, and Jefferies Financial Group Inc has echoed similar views. People wait to cross a street past an electronic sign showing numbers of the Hang Seng index in Hong Kong on Nov. 11, 2022. Photo: Isaac Lawrence, AFP “Of concern to us is that Southeast Asia is beginning to underperform in the last few weeks, as investors rotate back into North Asia,” CLSA chief equity strategist Alexander Redman said. “Indonesia, as a defensive, domestically oriented commodity exporter, was a logical refuge to ride out the equity storm,” he said, adding that the market would be “less favored as investors re-engage some deep value cyclical exposure in North Asia.” Key equity gauges in Hong Kong have rallied about 20 percent this month, easily topping the rest of Asia and major global peers, as China urged more targeted COVID-19 restrictions and boosted policy support for the real-estate sector. Foreigners have piled US$5.8 billion into Taiwan stocks this month, on track for the first inflows in six months and the biggest in 15 years. Net purchases of South Korean shares are set to exceed US$2 billion for a second straight month. In contrast, Indonesia’s market — once investors’ favorite as an inflation hedge — is flat this month, and poised to see monthly flows turn negative for the first time since July. Investors are also more wary about valuations in India, where benchmarks recently hit record highs, with Goldman Sachs expecting the market to relatively underperform next month. “Any positive catalysts such as a potential China reopening and policy support, lowering of geopolitical tensions or tech cycle bottoming is likely to drive a sharp rerating” of North Asian markets, Jefferies strategists led by Desh Peramunetilleke wrote in a note. The brokerage is overweight on Taiwan, Hong Kong, China and South Korea, neutral on Indonesia and underweight on India. The bullish case for Taiwan and South Korea is also built on their chip dominance, as the markets are home to industry heavyweights such as Samsung Electronics Co and Taiwan Semiconductor Manufacturing Co (TSMC, 台積電). They also have China as their largest trading partner. SocGen and Lombard Odier Private Bank this month joined Morgan Stanley in saying that investors should tip-toe back into Asia’s semiconductor stocks. “Share prices typically bottom out two-to-three quarters ahead of the bottom of the semiconductor cycle,” SocGen strategists led by Alain Bokobza wrote in a note last week. “We may be at this point.” Chinese shares in Hong Kong are poised for their best monthly showing since 2006, as asset managers from M&amp;G Investments and Eastspring Investments to Franklin Templeton Investments buy into the rally. On the mainland, foreign funds have snapped up about 49 billion yuan (US$6.83 billion) worth of stocks via trading links with Hong Kong. That is not to say the road uphill for North Asia will be smooth. With their heavy export dependence, the markets are vulnerable to the risk of a global recession and are often at the center of geopolitical tensions that involve the US and China. Further, a record jump in COVID-19 cases is also tempering positive market momentum. “There are ongoing concerns from the geopolitical side of the consideration,” William Blair Investment Management LLC portfolio manager Vivian Lin Thurston said. Even though the industry cycle is turning, “if the global economy is getting into a slowdown, I think we have to reevaluate the cycle and the thesis,” she added. Nonetheless, with earnings forecasts having fallen deeply across northern economies, markets might have more upside potential. Equity benchmarks in China, South Korea and Taiwan are down more than 15 percent year-on-year, while those in Indonesia and India are up about 7 percent each.</t>
+          <t>A man looks at electronic boards displaying the Hang Seng Index figure in Hong Kong in August 2022. Photo: EPA-EFE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Investors head north in global shift ASIAN REVIVAL: Indonesia has gone from an inflation hedge to underperformer, as Taiwanese and South Korean chip heavyweights lure investors, analysts said Bloomberg The nascent revival in North Asian equities is being touted as the start of a potential bull run as bets for China’s gradual reopening and the bottoming out of the chip industry intensify. People wait to cross a street past an electronic sign showing numbers of the Hang Seng index in Hong Kong on Nov. 11, 2022. Indonesia, as a defensive, domestically oriented commodity exporter, was a logical refuge to ride out the equity storm,” he said, adding that the market would be “less favored as investors re-engage some deep value cyclical exposure in North Asia.” Net purchases of South Korean shares are set to exceed US$2 billion for a second straight month. Chinese shares in Hong Kong are poised for their best monthly showing since 2006, as asset managers from M&amp;G Investments and Eastspring Investments to Franklin Templeton Investments buy into the rally.</t>
+          <t>A man looks at electronic boards displaying the Hang Seng Index figure in Hong Kong in August 2022.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -844,28 +836,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9962993264198303</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Monday Market Minutes: Home Stretch – ShareCafe - ShareCafe</t>
+          <t>Every Hang Seng Component Rises as Hong Kong Market Follows Wall Street's Lead - RealMoney</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 09:01:48 GMT</t>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A month to go for the year and the bottom line for investment markets is that nothing much has changed – short term risks remain high and that could see share markets continuing to trade erratically. The Fed’s thinking still dominates and that means US interest rates will continue to rise and in turn that means the value of the US dollar will impact investor thinking about value – even as the greenback falls slowly amid lingering fears of a US/global recession continue. Markets, though, are now entering a happy time – the seasonally strong end of the year for shares. Strategists want to see shares rally into January, ease going through February and remain above the recent lows and then for the rally to resume as the Fed and other major central banks wind back their tightening moves. That’s the hope but failure to rally through the run up to Christmas and the New Year would be a bad sign and undermine market sentiment which has been wanting to rebound strongly now for two months. Of course there are negatives – led by inflation remaining too high, China’s Covid case numbers continuing to grow and forcing the economy to slow dramatically and for labour markets to drop as jobless numbers start rising sharply. We saw Friday a modest loosening of Chinese monetary policy with the People’s Bank of China announcing a 0.25% cut in the Reserve Requirement Ratio (RRR) – the proportion of money that lenders must hold as reserves. China last cut the RRR in April by the same amount. Apart from Japan, that’s the most significant easing of monetary policy among developed economies for months and is an official acknowledgement the economy is weakening thanks to the impact of the third wave of Covid infections and the growing lockdowns and other control measures. The central bank said on Friday that it would cut the RRR for financial institutions by 0.25% next Monday, which will release about 500 billion yuan ($US69.75 billion) in long-term funds. The RRR cut will be on top of the tens of billions of dollars in bank loans and bond issues approved by the central bank for China’s embattled property companies – especially state-owned developers. More than $US80 billion in loans, bond issues and other financing moves were approved last week. But this week also sees a speech by Fed chair Jay Powell that will have a big impact on the markets, especially as it will be this last before the important two-day Fed meeting in mid-December. His words are likely to help market sentiment, giving the minutes of the last Fed meeting showed a changing attitude to the pace of rate rises. Friday saw the Dow rise 152.97 points, or 0.45% to 34,347.03; the S&amp;P 500 fell 0.03% to end the day at 4,026.12. The Nasdaq Composite slipped 0.52% to 11,226.36, Shares of Apple fell 2% on news of reduced iPhone shipments from a Foxconn assembly plant in China as production was hit by worker unrest over the country’s strict health rules. All three indexes ended the week higher and at five-month highs. The Dow is up 1.78%, and the S&amp;P 500 is up 1.53% during the short week. The tech-heavy Nasdaq is lagging the other two indexes but is still up 0.72% The AMP’s chief economist, Shane Oliver said markets “resumed their rally last week helped by further signs of a slowing in rate hikes from the Fed and a decline in bond yields.” “While the latter may partly reflect recession fears, lower bond yields also make shares more attractive from a valuation perspective.” Besides the rise in the US market, Eurozone rose 1.2% and Japanese shares were up 1.4%, but Chinese shares fell 0.7% on Covid lockdown worries. Hong Kong’s Hang Seng Index fell more than 2.2%, even though the bailout of China’s struggling property sector accelerated. The ASX 200 closed out the week with a fourth straight day of gains on Friday, adding 0.2% higher to 7,259.5 points with only two sectors, energy and mining, posting losses. The Australian dollar surged against the US overnight and was trading at 67.51 US cents early Saturday morning, Sydney time. The positive global lead saw Australian shares rise 1.5% to their highest since May and the market is now down by only 2.5% for the year to date. Bond yields fell further. Oil and iron ore prices fell but copper prices were little changed.</t>
+          <t>It was a stunning day for Hong Kong and China stocks on Friday, with an easing of China's quarantine rules building on Wall Street's rally the day before that was sparked by a hint that inflation may have peaked. The Hang Seng Index in Hong Kong shot up 7.7%, the strongest showing in the region thanks to the Hong Kong dollar peg, although export-oriented and tech stocks did well across the board in Asia. In semiconductor-driven Taiwan, the Taiex advanced 3.7%. Similarly, the Kospi in South Korea rode gains in chipmakers SK Hynix, up 4.9%, and Samsung Electronics (KR:005930), up 4.1%, for the overall market to close with a 3.4% gain. Mainland China shares were again less ebullient than the Hong Kong market. The CSI 300 index of the largest listings in Shanghai and Shenzhen closed up 2.8%. Hong Kong's gains were particularly large in Asia because the city has a Hong Kong dollar currency that is directly pegged to the U.S. dollar, at HK$7.78. Consequently, its monetary policy closely follows that in the United States. Tech stocks in Hong Kong performed particularly well on Friday, with any easing of credit in the form of smaller and/or fewer interest rate hikes perceived as enabling the future growth of companies that borrow to fund expansion. The Hang Seng Tech Index rose 9.5% on Friday. Data center developer GDS Holdings ( (GDS) and HK:9698) was the top tech-index performer, up by one-third of its entire value, or 32.7%, in Hong Kong, building on its 20.3% rise on Wall Street overnight. Ming Yuan Cloud Group Holdings (HK:0909), which provides cloud-based data services for property developers, saw its shares rise 23.2%. The easing inflation read in the United States on Thursday, with the 7.7% figure for October marking the lowest level since January, suggests that the pressure to hike interest rates in Hong Kong will also ease. As a result, the Hang Seng opened with a gain of more than 1,000 points, or 6.5%, and the easier quarantine rules in China added a small increment to the rally in afternoon trading. It also has been interesting to watch the performance of dual-listed Asian companies. The world's largest chipmaker, Taiwan Semiconductor Manufacturing Corp. ( (TSM) and TW:2330), notched an 8.3% advance on Friday in Asia after moving 9.0% higher on Wall Street overnight. Property plays pop Beaten-down property plays once again led the way in Hong Kong. Not only has the Hong Kong stock market suffered Asia's biggest collapse this year, losing one-third of its value in the last 12 months, but tightening financial conditions in China have sapped credit from the real estate industry, causing prices to go into a tailspin and consumers to lose confidence in property purchases. China's largest property developer, Country Garden ( (CTRYY) and HK:2007), was the Hang Seng's top performer, also up by almost one-third ( 31.3%). Its property management arm, CG Services (HK:6098), rose 18.9%, while rival developer Longfor Group (HK:0960) saw its shares shoot up 27.7%. Interest rate increases in Hong Kong have contributed to a dour mood that's also darkened by the loss of civic freedoms in the city and the stalling of the Chinese economy. There was a downbeat update on the state of the Hong Kong economy, with GDP figures out on Friday that show the economy contracted 4.5% in the third quarter. That's the worst of three negative quarters in a row and the poorest showing since the start of the pandemic in early 2020. Still, every one of the 73 constituents of the Hang Seng advanced on Friday, with double-digit percentage gains for 17 companies. On the Hang Seng Tech Index, half its 30 names posted a double-digit percentage advance. Electric carmaker Nio ( (NIO) and HK:9866) saw its shares rise 18.3% after it reported earnings that showed a widening loss but strong sales. It had risen 11.8% on Wall Street. Xpeng ( (XPEV) and HK:9868), up 9.9%, and Li Auto ( (LI) and HK:2015), up 9.6%, moved higher in sympathy. E-commerce platform JD.com ( (JD) and HK:9618) was among the strong performers, up 16.5%, with rival Alibaba Group Holding ( (BABA) and HK:9988) up 12.5%. Today marks the end of their "singles day" promotions revolving around 11/11. Like "Black Friday," Chinese retailers have expanded the event from one day to several weeks of promotions. This year, expectations have been for flat sales or slight growth given the downbeat consumer confidence in China. On Friday, clothing manufacturer Shenzhou International ( (SHZHY) and HK:2313) rose 16.9%, serving as a major supplier to brands such as Nike (NKE) , Adidas (ADDYY) and Uniqlo. Chinese sportswear maker Li Ning ( (LNNGY) and HK:2331) was another noteworthy gainer, up 12.7%, and a beneficiary from any opening up in China. China tweaks its Covid rules The markets seem to be snatching at any positive bit of news about China's zero-Covid policy. While there has been tinkering and slight changes, the overall picture is still one of exceptionally tight control and social restrictions. On Friday, China eased some of its rules, shortening quarantine by two days for close contacts of Covid cases and for inbound travelers. People must now spend five days in centralized government quarantine instead of seven days, still followed by three days of home observation. China also removed a penalty for airlines if they import too many Covid cases. It is also now requiring only one negative lab test for Covid within 48 hours of boarding a flight to China instead of the two tests it was requiring. But all these changes really only serve to remind that a) there are a lot of Covid rules and restrictions and b) lots of testing. The response to even a small outbreak of Covid is to restrict movement, shorten working hours and close businesses. It's all very complex and very disruptive. Chinese President Xi Jinping led a meeting of China's central leadership on Thursday that reaffirmed that China "will unwaveringly stick to its dynamic zero-Covid policy," as explained in the Global Times. There are plenty of buzzwords that this is an "optimized" response that's "dynamic" featuring "precise measures." Translation: if your area has high Covid cases, you'll get locked down. And China posted 10,729 new Covid cases on Thursday, its highest level since April. Guangdong Province, China's most productive, is one center of attention, with parts of the megacity of Guangzhou locked down. Friday's gains were therefore really driven by the U.S. inflation reading more than any optimism that China is truly moving away from zero-Covid. The Hong Kong and China markets are currently a little too desperate for good news on that front. Weak Asian currencies get a boost Asian currencies have also strengthened rapidly after the weaker U.S. inflation figure. If inflation has indeed peaked, as the October readout suggests, the U.S. Federal Reserve may be nearing the end of its rate hike cycle, which has driven an extremely strong U.S. dollar against a whole range of currencies. The Japanese yen is today sitting at ¥140.75 to the U.S. dollar after coming down from ¥151 in late October, its weakest level in 32 years. It has strengthened 3.9% in a day, from above ¥146 on Thursday. The Chinese yuan also advanced to as strong as C¥7.09 to the U.S. dollar during Asian trading on Friday. That's 3.1% stronger than its level of C¥7.32 at the start of this month, most of the gains coming in the last day. The Chinese government closely controls the yuan's exchange rate, as does the Singapore government with the Singapore dollar, which is managed against a basket of currencies and has also gained ground. But the movements of those currencies are less dramatic than the freely trading yen.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A month to go for the year and the bottom line for investment markets is that nothing much has changed – short term risks remain high and that could see share markets continuing to trade erratically. The RRR cut will be on top of the tens of billions of dollars in bank loans and bond issues approved by the central bank for China’s embattled property companies – especially state-owned developers. His words are likely to help market sentiment, giving the minutes of the last Fed meeting showed a changing attitude to the pace of rate rises. The ASX 200 closed out the week with a fourth straight day of gains on Friday, adding 0.2% higher to 7,259.5 points with only two sectors, energy and mining, posting losses. Oil and iron ore prices fell but copper prices were little changed.</t>
+          <t>It was a stunning day for Hong Kong and China stocks on Friday, with an easing of China's quarantine rules building on Wall Street's rally the day before that was sparked by a hint that inflation may have peaked. Similarly, the Kospi in South Korea rode gains in chipmakers SK Hynix, up 4.9%, and Samsung Electronics (KR:005930), up 4.1%, for the overall market to close with a 3.4% gain. Consequently, its monetary policy closely follows that in the United States. Not only has the Hong Kong stock market suffered Asia's biggest collapse this year, losing one-third of its value in the last 12 months, but tightening financial conditions in China have sapped credit from the real estate industry, causing prices to go into a tailspin and consumers to lose confidence in property purchases. Its property management arm, CG Services (HK:6098), rose 18.9%, while rival developer Longfor Group (HK:0960) saw its shares shoot up 27.7%. Today marks the end of their "singles day" promotions revolving around 11/11. This year, expectations have been for flat sales or slight growth given the downbeat consumer confidence in China. It is also now requiring only one negative lab test for Covid within 48 hours of boarding a flight to China instead of the two tests it was requiring. Chinese President Xi Jinping led a meeting of China's central leadership on Thursday that reaffirmed that China "will unwaveringly stick to its dynamic zero-Covid policy," as explained in the Global Times. The Hong Kong and China markets are currently a little too desperate for good news on that front. The Chinese yuan also advanced to as strong as C¥7.09 to the U.S. dollar during Asian trading on Friday.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -874,7 +866,4283 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6582736968994141</v>
+        <v>0.8506938815116882</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3 firms added to Hang Seng gauge, blue-chip membership rises to 76 - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fri, 18 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>An electronic board displays the latest stock transactions outside Exchange Square in Hong Kong’s Central in this file photo from October. Photo: May Tse</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>An electronic board displays the latest stock transactions outside Exchange Square in Hong Kong’s Central in this file photo from October.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9999994039535522</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Technical Outlook: Slide Lower Pauses. Now What? - DailyFX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mon, 07 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index’s rebound from deeply oversold conditions appears to be a pause. The broader trend remains down. To what extent can the index rebound further and what are the key levels to watch? Recommended by Manish Jaradi Building Confidence in Trading Get My Guide HANG SENG INDEX TECHNICAL OUTLOOK - BEARISH The Hang Seng Index (HSI) has run into stiff resistance, raising the risk of a retreat and possibly the resumption of the medium-term downtrend. On intraday charts, the rise on Friday above a minor horizontal trendline from the end of October triggered a minor inverse Head &amp; Shoulders pattern (the left shoulder at the October 25 low, the head at the October 31 low, and the right shoulder at the Thursday low). The price objective of the pattern works out to about 17050. Interim resistance is on the 200-hour moving average, and a stronger barrier is at the March low of 18235. Last week’s rebound comes from deeply oversold conditions and the tentative stabilization in risk sentiment – a possibility that we highlighted at the end of last month. Hang Seng Index Hourly Chart Chart Created Using TradingView So long as HSI holds above the 15300-15800 support area, a move toward the price objective is possible. However, as with all technical patterns, the price objective tends to serve as a guide, and not a rule. That is, when there is a cluster of resistance, then more often than not the market tends to respect the barrier even though the price objective of the pattern is slightly above the hurdle. If the Hang Seng Index falls below the cushion at 15300-15800, then the 200-hour moving average could mark the peak in the current rebound. Hang Seng Index Monthly Chart Chart Created Using TradingView Zooming out, the broader trend remains down, as reflected by the negative Moving Average Convergence Divergence indicator (MACD) on the weekly, monthly, and quarterly charts. A negative reading of the MACD signifies a downtrend and vice versa. The downtrend in the Hang Seng Index has accelerated this year after it fell below an uptrend line from 2016 (that came at about 22600). The break triggered a major Head &amp; Shoulders pattern (the left shoulder is at 2015 high, the head is at 2018 high, and the right shoulder is at 2021 high), implying a potential move towards the Great Financial Crisis low of 10676. --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index’s rebound from deeply oversold conditions appears to be a pause. Last week’s rebound comes from deeply oversold conditions and the tentative stabilization in risk sentiment – a possibility that we highlighted at the end of last month. Hang Seng Index Monthly Chart Chart Created Using TradingView Zooming out, the broader trend remains down, as reflected by the negative Moving Average Convergence Divergence indicator (MACD) on the weekly, monthly, and quarterly charts.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9987926483154297</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stocks in Hong Kong log best week in more than a decade - CNN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>London CNN Business — Global investors have two big questions on their minds: When will the Federal Reserve become less aggressive in its campaign against inflation? And does Beijing plan to ease its strict “zero-Covid” policy any time soon? Markets were disappointed this week when the Fed indicated it could push interest rates even higher than previously expected, weighing on stocks in the United States and Europe. But in Asia, investors have been getting excited over speculation that coronavirus restrictions in China could be eased. Hong Kong’s Hang Seng Index (HSI) soared more than 5% on Friday and finished the week up 8.7%, logging its biggest gain since 2011. China’s Shanghai Composite (SHCOMP) rose 5.3% this week, its best performance in more than two years. The rallies followed steep sell-offs in the wake of China’s Communist Party Congress last month. Investors were disappointed that Chinese leader Xi Jinping did not unveil stronger measures to combat a sharp economic slowdown. He also offered no signs the country would move away from its rigid approach to containing the spread of Covid-19, which has choked off growth. In recent days, lockdowns have caused significant disruption for Apple (AAPL) supplier Foxconn and Disney (DIS), as well as car makers and fast food restaurants. David Chao, global market strategist for Invesco Asia-Pacific, said some of this investor angst appears to have lifted. “There is so much pessimism and negativity surrounding China, surrounding Chinese growth, and I think a lot of that has already been discounted,” Chao said. Getting past the party congress has eliminated a key source of uncertainty, he added. Social media chatter that China could reopen its border with Hong Kong soon fed market optimism on Friday, as did a report from Bloomberg that US auditors had finished an inspection of Chinese firms ahead of schedule. The Hang Seng shot up 5.4%, while the Shanghai Composite gained 2.4%. Health officials in China have scheduled a press conference for Saturday amid growing frustration and resentment toward zero-Covid rules and resulting lockdowns. “The risk, of course, is there could be some disappointment here,” said Mitul Kotecha, head of emerging market strategy at TD Securities, speaking of the potential for looser coronavirus restrictions. “There’s only rumors and speculation at the moment.” Stocks in China and Hong Kong have been battered this year as investors have weighed darkening prospects for China’s economy. The country, a crucial engine of global growth, has been slammed by a crisis in its real estate sector. At the same time, Beijing’s Covid approach continues to hurt businesses and crimp consumer spending. The International Monetary Fund estimates that China’s economy will expand by just 3.2% in 2022 and 4.4% in 2023, a big decline from the 8.1% growth it notched in 2021. The Hang Seng has plummeted 31% year-to-date, compared to a 22% drop in the S&amp;P 500. The Shanghai Composite is 16% lower in 2022. Chao said investors have had to contend with the notion that China could grow much more slowly as it tries to reduce its reliance on debt and as investment declines in the real estate sector, which has recently accounted for as much as 30% of gross domestic product. “We’re not going to see that type of investment-led economic growth over the next 10 years,” Chao said. But, he emphasized, that’s not necessarily a bad thing, as growth starts to look more sustainable. And even if China’s economy is growing just 3% or 4%, that will look much better than Europe and the United States, which are at risk of recession. “From what I see, it’s apparent to me that there is capital on the sidelines,” Chao said. “There are investors waiting to jump back in to the China story.” — Steven Jiang contributed reporting.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>London CNN Business — Global investors have two big questions on their minds: When will the Federal Reserve become less aggressive in its campaign against inflation? Hong Kong’s Hang Seng Index (HSI) soared more than 5% on Friday and finished the week up 8.7%, logging its biggest gain since 2011. Getting past the party congress has eliminated a key source of uncertainty, he added. Social media chatter that China could reopen its border with Hong Kong soon fed market optimism on Friday, as did a report from Bloomberg that US auditors had finished an inspection of Chinese firms ahead of schedule. The risk, of course, is there could be some disappointment here,” said Mitul Kotecha, head of emerging market strategy at TD Securities, speaking of the potential for looser coronavirus restrictions. “ And even if China’s economy is growing just 3% or 4%, that will look much better than Europe and the United States, which are at risk of recession. “</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9786909818649292</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hang Seng Index: China Tech Earnings Beat Fuels Upswing Optimism - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Wed, 23 Nov 2022 14:46:33 GMT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HSI finishes month with best showing in 24 years - Hong Kong Standard</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 19:13:51 GMT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks rebounded 26 percent in November, the best performance in 24 years with analysts saying the market may have bottomed out. The surge included the Hang Seng Index extending its rally by nearly 400 points to 18,597 on the last day of the month based on the hopes for China easing pandemic constraints. For the whole month, the HSI went up by more than 3,000 points, or more than reversing the 2,500-point or 15 percent plunge in October. Wilfred Sit Wing-fai, director of Hang Seng Investment Management, said it certainly seemed the Hong Kong stock market had bottomed out in October. Stocks that benefited from the pickup included airlines, casinos and restaurants. And sentiment in the mainland improved markedly as Beijing provided more support to the property sector. That was a factor in hopes being spurred that Beijing is laying the grounds for an easing of the tough zero Covid stance, prompting traders to place bets even as a spike in infections and nationwide protests suggested the path to a change of tactics will anyway be rocky. Stocks also extended gains yesterday afternoon with announcements that some local governments were lifting lockdown restrictions, though other places continued to face stringent measures. Guangzhou still has a high number of Covid cases, and the move to go ahead with "further optimization of curbs is a signal the city is ready for more relaxation," said Li Changmin, managing director at Snowball Wealth. "More cities may follow suit. This will undoubtedly drive a revaluation in sectors worst hit." And Chinese stocks listed in the United States were also heading for their best-ever month, with the Nasdaq Golden Dragon Index up 30 percent this month - a dramatic turnaround after October's 25-percent plunge. The CSI 300 Index of mainland shares gained nearly 10 percent in November. Meanwhile, the yuan extended gains, jumping to its strongest in nearly two weeks as hopes for a relaxation of anti-pandemic rules in turn stoked optimism about the country's economy and fueled the appetite for riskier assets. The currency surged as much as 1.1 percent to 7.0797 to the US dollar yesterday afternoon. The yuan has been on a roller-coaster ride this week, slumping on Monday after Chinese residents protested against Covid restrictions and then paring losses in the following sessions.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks rebounded 26 percent in November, the best performance in 24 years with analysts saying the market may have bottomed out. Wilfred Sit Wing-fai, director of Hang Seng Investment Management, said it certainly seemed the Hong Kong stock market had bottomed out in October. Guangzhou still has a high number of Covid cases, and the move to go ahead with "further optimization of curbs is a signal the city is ready for more relaxation," said Li Changmin, managing director at Snowball Wealth. "</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9992615580558777</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index falls over 3 pct in morning trading - Xinhua</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mon, 21 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>HONG KONG, Nov. 21 (Xinhua) -- Hong Kong's Hang Seng Index dived over 3 percent during Monday's morning trading to 17,448.60 points, down 543.94 points. ■</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>HONG KONG, Nov. 21 (Xinhua) -- Hong Kong's Hang Seng Index dived over 3 percent during Monday's morning trading to 17,448.60 points, down 543.94 points.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9999675750732422</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>How to Trade or Invest in the Hang Seng Index - IG UK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wed, 02 Nov 2022 11:59:51 GMT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>When you spread bet, you’ll be putting up a certain amount of capital per point of movement in the underlying market. Your profit or loss is calculated by multiplying your bet size by the number of points of movement. You can spread bet on HS50: Cash indices: deal at the current price of the underlying market while receiving tight spreads. Popular among short-term traders Index futures: agree to trade the index at a specific price on a specific date. Popular among longer-term traders Options: buy the right (but not the obligation) to trade the index at a specified price in future. Popular among experienced traders with a long-term view ETFs: speculate on all Hang Seng-related stocks in a single position. Trade on the spot or using forwards (futures) Shares: trade on upward or downward price movements of Hang Seng-listed shares without owning them Let’s look at an example. You decide to trade the cash index and you think the price of the Hong Kong HS50 is going to rise from its current level of 20,000. So, you go long at £10 per point and open your position by clicking ‘buy’ on our platform. If the index’s price increased to 20,100 and you bet £10 per point, you’d earn a profit of £1000 (100 points x £10 per point) excluding any other costs you might incur like overnight funding.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>When you spread bet, you’ll be putting up a certain amount of capital per point of movement in the underlying market. Trade on the spot or using forwards (futures) Shares: trade on upward or downward price movements of Hang Seng-listed shares without owning them Let’s look at an example.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999977350234985</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Technical Outlook: Upside Could Be Capped - DailyFX</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tue, 15 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index’s upward momentum appears to be strong. However, the upside could be capped. What is the short-term outlook and what are the key levels to watch? Recommended by Manish Jaradi The Fundamentals of Range Trading Get My Guide HANG SENG INDEX SHORT-TERM TECHNICAL OUTLOOK - NEUTRAL Strong momentum in recent days raises the possibility of an extended pause in the Hang Seng Index’s multi-month slide. However, the index’s upside could be capped. The rebound has well surpassed the initial price objective of 17050 pointed out in the previous update. The rise earlier this month above a minor horizontal trendline from the end of October (at about 15800) triggered a minor reverse head &amp; shoulders pattern (the left shoulder at the October 25 low, the head at the October 31 low, and the right shoulder at the Thursday low). The price objective of the pattern works out to about 17050. Hang Seng Index Hourly Chart Chart Created Using TradingView The index is now testing a stronger converged barrier at the March low of 18235, coinciding with the early-October low. Strong momentum on intraday charts raises the scope of some more gains in the near term, potentially toward the 200-period moving average on the 240-minute chart, slightly below the May low of 19180. Overall, the area of 18235-19180 appears to be strong resistance and could cap the rebound. The sharp gains this month raises the prospect of a meaningful corrective rally, but probably not enough to suggest a reversal of the downtrend. In this regard, the medium-term downward pressure is unlikely to ease while the index remains below the 200-day moving average (now at about 20300). Hang Seng Index Monthly Chart Chart Created Using TradingView The broader trend remains down as reflected by the negative Moving Average Convergence Divergence indicator (MACD) on the weekly, monthly, and quarterly charts. A negative reading of the MACD signifies a downtrend and vice versa. The downtrend in the Hang Seng Index has accelerated this year after it fell below an uptrend line from 2016 (that came at about 22600). The break triggered a major head &amp; shoulders pattern (the left shoulder is at 2015 high, the head is at 2018 high, and the right shoulder is at 2021 high), implying a potential move towards the Great Financial Crisis low of 10676. The index fell to 14597 at the end of last month before rebounding. Recommended by Manish Jaradi Traits of Successful Traders Get My Guide --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index’s upward momentum appears to be strong. Recommended by Manish Jaradi The Fundamentals of Range Trading Get My Guide HANG SENG INDEX SHORT-TERM TECHNICAL OUTLOOK - NEUTRAL Strong momentum in recent days raises the possibility of an extended pause in the Hang Seng Index’s multi-month slide. The rise earlier this month above a minor horizontal trendline from the end of October (at about 15800) triggered a minor reverse head &amp; shoulders pattern (the left shoulder at the October 25 low, the head at the October 31 low, and the right shoulder at the Thursday low). The index fell to 14597 at the end of last month before rebounding.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.999996542930603</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hong Kong halts trade as typhoon warning issued; Asia markets mixed ahead of Fed decision - CNBC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wed, 02 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>HONG KONG, CHINA - AUGUST 25: A man is seen at the Victoria Harbour waterfront after the storm in Hong Kong, China on August 25, 2022. Hong Kong prepared for the arrival of the severe tropical storm Ma-On, which sustained winds of 63 miles (101 kilometers) per hour and disrupted Thursday businesses and air travel as it reached T8 signal in the morning. (Photo by Miguel Candela/Anadolu Agency via Getty Images) Shares in the Asia-Pacific were mostly higher on Wednesday as investors brace for another likely 75-basis-point rate hike by the Federal Reserve. Hong Kong's Hang Seng index was halted after gaining 2.41% to 15,827.17 in earlier trade, following the issuance of a Tropical Cyclone Warning Signal Number 8. This marked the second day of sharp gains for the index, which Goldman Sachs Strategist Timothy Moe attributed to a combination of two factors. The Shanghai Composite in mainland China also reversed losses to gain 1.15% to 3,003.37 and the Shenzhen Component added 1.335% to 10,877.51. In Japan, the Nikkei 225 and the Topix were about flat at 27,663.39 and 1,940.46, respectively. The Kospi was fractionally higher at 2,336.87. South Korea's inflation inched higher to 5.7% in October, higher than 5.6% forecasted by analysts in a Reuters poll. Australia's S&amp;P/ASX 200 traded 0.14% higher to 6,986.70. The MSCI's broadest index of Asia-Pacific shares outside Japan was up 0.74%.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>HONG KONG, CHINA - AUGUST 25: A man is seen at the Victoria Harbour waterfront after the storm in Hong Kong, China on August 25, 2022. Hong Kong's Hang Seng index was halted after gaining 2.41% to 15,827.17 in earlier trade, following the issuance of a Tropical Cyclone Warning Signal Number 8.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9996926784515381</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hong Kong Banking Summit Goes Better Than Feared as Hang Seng Index Soars - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hong Kong Stocks Surge More Than 3% At Open - Barron's</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 01:42:35 GMT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Early Morning Call: Hang Seng drops on Covid concerns, Europe indices open lower - IG International</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sun, 20 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Equity markets overview Equity markets opened lower this morning, following the path set by Asia-Pacific indices. China kept its benchmark lending rates unchanged for the third straight month. As expected, the one-year loan prime rate (LPR) remained at 3.65%, while the five-year LPR was unchanged at 4.30%. In Germany, producer price index (PPI) unexpectedly fell in October, by 4.2% yeawr-on-year (YoY). Economists anticipated a 0.9% rise. Elsewhere on the equity market, CompassCompass this morning posted an 88% increase in adjusted operating profit to £1.59 billion, beating company-compiled analysts' estimates of £1.54bn. Adjusted operating margin came in at 6.2%, also higher than the company-compiled consensus of 6.1%. The world's largest catering group forecast profit growth to be more than 20% in 2023 and margins to be above 6.5%. In the US we learned overnight the surprise reappointment of Bob Iger as Disney CEO. He will replace Bob Chapek, who struggled to turn Disney's streaming TV services into a profitable business. Bob Iger, who retired last year after 15 years as chief executive, has agreed to serve as CEO for two more years. Chair of Disney's board, Susan Arnold, said it her statement, "The Board has concluded that as Disney embarks on an increasingly complex period of industry transformation, Bob Iger is uniquely situated to lead the company through this pivotal period." Tesla is recalling more than 300,000 vehicles in the US because of potential problems with their rear lights. Meanwhile, analysts say Tesla could undertake its first-ever share buyback within the next year, however this is dependent on the outcome of the pending lawsuit against Musk and Tesla over his near $56bn pay package. Dell is scheduled to post earnings of $1.61 per share tonight after the US closing bell. That would be around a 30% decline on the same quarter a year ago. Revenue is forecast to decline by about 14% to $24.42bn. Dell is expected to have benefited from strong growth in servers and networking revenues. But Client Solutions Group revenues are forecast to have suffered from a declining PC demand. Zoom Video Communications is set to report a drop in earnings for the third quarter (Q3). Analysts expect earnings of 83 cents per share. A year ago, the group posted EPS of $1.11. Revenue is anticipated at $1.09bn, broadly unchanged on last year. The video conferencing provider became a household name nearly three years ago when the Covid 19-pandemic stranded hundreds of millions of people around the world. But now the pandemic is behind us, Zoom has focussed on its $100,000+ customers as they are a relatively reliable source of steady revenue. Last year their number reached just over 2,500. Estimates for this quarter is 3,347.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Equity markets overview Equity markets opened lower this morning, following the path set by Asia-Pacific indices. As expected, the one-year loan prime rate (LPR) remained at 3.65%, while the five-year LPR was unchanged at 4.30%. Meanwhile, analysts say Tesla could undertake its first-ever share buyback within the next year, however this is dependent on the outcome of the pending lawsuit against Musk and Tesla over his near $56bn pay package. That would be around a 30% decline on the same quarter a year ago. But Client Solutions Group revenues are forecast to have suffered from a declining PC demand.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9999954700469971</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index Could Add More Tech and Health-care Stocks in Its Quarterly ... - Latest Tweet - LatestLY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thu, 17 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hong Kong’s Hang Seng Index could add more tech and health-care stocks in its quarterly review https://t.co/n4foBVebUD— Bloomberg (@business) November 18, 2022 (SocialLY brings you all the latest breaking news, viral trends and information from social media world, including Twitter, Instagram and Youtube. The above post is embeded directly from the user's social media account and LatestLY Staff may not have modified or edited the content body. The views and facts appearing in the social media post do not reflect the opinions of LatestLY, also LatestLY does not assume any responsibility or liability for the same.)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hong Kong’s Hang Seng Index could add more tech and health-care stocks in its quarterly review https://t.co/n4foBVebUD— Bloomberg (@business) November 18, 2022 (SocialLY brings you all the latest breaking news, viral trends and information from social media world, including Twitter, Instagram and Youtube. The above post is embeded directly from the user's social media account and LatestLY Staff may not have modified or edited the content body.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9999541044235229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index surges 5% in morning - MintGenie</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A woman wearing a face mask walks past a bank's electronic board showing the Hong Kong share index in Hong Kong, Wednesday, Aug. 3, 2022. Asian stock markets rose Wednesday as traders watched for signs trade might be disrupted by U.S.-Chinese tension over an American lawmaker's visit to Taiwan. (AP Photo/Kin Cheung)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A woman wearing a face mask walks past a bank's electronic board showing the Hong Kong share index in Hong Kong, Wednesday, Aug. 3, 2022. Asian stock markets rose Wednesday as traders watched for signs trade might be disrupted by U.S.-Chinese tension over an American lawmaker's visit to Taiwan. (</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8287853598594666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ChinaAMC launches Hang Seng ESG ETF in Hong Kong - ETF Strategy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mon, 21 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>China Asset Management Company (ChinaAMC) has launched a new ETF in Hong Kong providing socially responsible exposure to the city’s equity market. The ChinaAMC HSI ESG ETF has been listed on the Stock Exchange of Hong Kong where it is available to trade in Hong Kong dollars (3403 HK), Chinese renminbi (83403 HK), and US dollars (9403 HK). The fund has come to market with approximately $100 million in initial assets. The ETF is linked to the HSI ESG Enhanced Index which is based on the parent Hang Seng Index, the city’s main stock market barometer. The Hang Seng Index represents the largest and most liquid Greater China companies trading on the Stock Exchange of Hong Kong. Primary and secondary share listings, as well as real estate investment trusts (REITs), are all eligible for inclusion. Following a recent overhaul in its construction methodology, the Hang Seng Index has expanded its number of constituents, enhanced its sector diversification, and embedded new rules aimed at preserving the representation of local firms in an index that had become increasingly dominated by Mainland-domiciled companies. The HSI ESG Enhanced Index, meanwhile, screens out stocks from the Hang Seng Index universe based on various norms and values-based criteria before reweighting the remaining constituents so as to enhance the overall ESG profile. The process begins by removing known violators of UN Global Compact principles as well as companies with business operations linked to controversial weapons, tobacco, or thermal coal. Companies are also assigned ESG risk ratings from ESG analytics firm Sustainalytics, and firms with ESG risk ratings that rank in the top 10% of the Hang Seng universe are also removed from the selection pool. The remaining constituents are initially weighted by float-adjusted market capitalization and then adjusted to increase the weight of stocks with lower ESG risk ratings and decrease the weight of stocks with higher ESG risk ratings. The index is reconstituted and rebalanced on a quarterly basis. As of the end of October, the index contained 63 constituents compared to 73 for the parent Hang Seng. Just over one-third (35.7%) of the index was allocated to the financials sector which was broadly in line with the parent index; however, there was notably lower exposure to information technology stocks (21.6% vs. 27.1%) and higher exposure to properties &amp; construction (18.2% vs. 6.8%). Notable positions included HSBC (9.2%), AIA (8.7%), Tencent (7.1%), HKEX (7.1%), Ping An Insurance (5.1%), and Link REIT (4.8%). The fund has estimated ongoing charges over a year of 0.15%, making it the cheapest ETF amongst two competing products that also track the same index – the HSI ESG Enhanced Select Index ETF (3136 HK) and E Fund (HK) HSI ESG Enhanced Index ETF (3039 HK) both have ongoing charges of 0.20%.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>China Asset Management Company (ChinaAMC) has launched a new ETF in Hong Kong providing socially responsible exposure to the city’s equity market. The fund has come to market with approximately $100 million in initial assets. The index is reconstituted and rebalanced on a quarterly basis. The fund has estimated ongoing charges over a year of 0.15%, making it the cheapest ETF amongst two competing products that also track the same index – the HSI ESG Enhanced Select Index ETF (3136 HK) and E Fund (HK) HSI ESG Enhanced Index ETF (3039 HK) both have ongoing charges of 0.20%.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9998821020126343</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>US stocks trade mixed while Chinese markets rebound on easing COVID-19 fears - Yahoo News</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tue, 29 Nov 2022 14:33:15 GMT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Thousands of demonstrators erupt in rare protests against COVID-19 restrictions across China AFP/Getty Images US stocks opened mixed on Tuesday while markets in China jumped as COVID-19 fears eased. The Shanghai Composite Index climbed 2.3% and Hong Kong's Hang Seng Index jumped 5.2% after diving on Monday. On Tuesday, China reported lower COVID infections and touted an increase in vaccinations. US stocks were mixed on Tuesday, while markets in China rallied after major protests against stringent zero-COVID restrictions sparked a big decline on Monday. The Shanghai Composite Index climbed 2.3% and Hong Kong's Hang Seng Index jumped 5.2%. On Tuesday, China reported lower COVID infections and touted an increase in vaccinations. Health officials in Beijing also seemingly acknowledged the adverse effects of zero-COVID policies and pledged to "reduce inconvenience" facing the public while moving to lift restrictions as soon as the current outbreak is under control. Here's where US indexes stood as the market opened at 9:30 a.m. on Tuesday: Here's what else is happening: The European Union effort to cap Russian oil prices is stalling as Poland demands a $30-per-barrel limit. Bankrupt crypto firm BlockFi is suing Sam Bankman-Fried to hand over shares of Robinhood. Credit Suisse analysts cautioned that inflation will remain above central banks' targets next year. In commodities, bonds, and crypto: Oil prices climbed, with West Texas Intermediate up 1.68% to $78.55 a barrel. Brent crude, the international benchmark, gained 1.81% to $84.69 a barrel. Gold was higher, adding 0.62% to $1,751.85 an ounce. The 10-year yield ticked up 2.2 basis points to her to 3.724%. Bitcoin fell 0.33% to $16,431.65. Read the original article on Business Insider</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thousands of demonstrators erupt in rare protests against COVID-19 restrictions across China AFP/Getty Images US stocks opened mixed on Tuesday while markets in China jumped as COVID-19 fears eased. On Tuesday, China reported lower COVID infections and touted an increase in vaccinations. In commodities, bonds, and crypto: Oil prices climbed, with West Texas Intermediate up 1.68% to $78.55 a barrel.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9842790961265564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>US stocks record first back-to-back monthly gains since 2021 - Financial Times</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 21:08:03 GMT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>What is included in my trial? During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Standard Digital includes access to a wealth of global news, analysis and expert opinion. Premium Digital includes access to our premier business column, Lex, as well as 15 curated newsletters covering key business themes with original, in-depth reporting. For a full comparison of Standard and Premium Digital, click here. Change the plan you will roll onto at any time during your trial by visiting the “Settings &amp; Account” section. What happens at the end of my trial? If you do nothing, you will be auto-enrolled in our premium digital monthly subscription plan and retain complete access for $69 per month. For cost savings, you can change your plan at any time online in the “Settings &amp; Account” section. If you’d like to retain your premium access and save 20%, you can opt to pay annually at the end of the trial. You may also opt to downgrade to Standard Digital, a robust journalistic offering that fulfils many user’s needs. Compare Standard and Premium Digital here. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9999622106552124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Here's what stock-market investors are getting wrong about China and its zero-COVID policy, economists say - MarketWatch</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 16:11:00 GMT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Investors took some cheer this week from China’s latest COVID policy after massive anti-lockdown protests erupted across the country, rattling global financial markets, but economists think that markets have placed a “too high probability” on restrictions being relaxed soon. China’s National Health Commission said on Tuesday it would ramp up COVID vaccinations for the elderly and pledged to rectify COVID control measures, a move that is seen as allowing the government eventually to relax restrictions and to reduce their impact on people’s lives. After a sharp selloff on Monday driven by worries that China’s civil unrest and full-blown lockdown would stoke global supply chain disruptions, financial markets recovered amid hope of the pandemic policy relief. U.S. stocks finished nearly flat on Tuesday after the Dow Jones Industrial Average DJIA, +2.18% dropped nearly 500 points in the previous session. Hong Kong’s Hang Seng Index HSI, +1.52% jumped 2.2% on Wednesday, booking a monthly gain of over 25%. It is the largest one month percentage gain since 1998, according to Dow Jones Market Data. See: Some markets cheer as China vows to vaccinate more elderly. Analysts see positive movement by officials. However, economists at Capital Economics are concerned that investors are too optimistic about China’s exit from its zero-COVID policy and think it will not happen soon. “I think the markets have taken a half glass full approach to the situation. There’s definitely investors who are looking at the bright side of this and hoping for an end to zero-COVID in the near future,” said Jonas Goltermann, senior markets economist at Capital Economics. “But it is not something we think is justified if we’re right that lockdowns continue and zero-COVID isn’t going anywhere. Eventually that will filter through and that probably will put renewed downward pressure on the Chinese stock market.” For years, the Chinese equity markets had offered both domestic and foreign investors an opportunity to invest in one of the fastest growing economies in the world. However, Chinese equities have tumbled since the start of 2021 with Hang Seng China Enterprises Index 160462, +1.06% down 43.3%. The iShares MSCI China MCHI, +4.65% exchange-traded fund (ETF) slumped 46.3% since February 2021, according to Dow Jones Market Data. The price-to-earning ratios of China-related indexes and ETFs are at their lowest levels compared to their own history and to other financial markets, especially the U.S., where valuations are still very high, Goltermann told clients in a briefing on Tuesday. “I can see where investors are coming from – the Chinese market looks cheap or undervalued relative to the past, (and) relative to peers. There is a turnaround into COVID that does have the scope for a significant rebound. Now, we don’t think that’s justified and based on zero-COVID outlook,” he added. Related: China needs at least a year to end zero-COVID policy, experts say Economists do not think the country is now ready to open up its economy, though recent updates to its COVID policy which simplify various protocols are a step in that direction. Earlier this month, investors applauded as the government announced tweaks to its zero-COVID policy, which include less amount of time international travelers entering the country must spend in quarantine and no more mass testing unless it is unclear how infections are spreading in an area. The changes raised a glimmer of hope that the government was considering easing its draconian pandemic restrictions. In the best case scenario, the country is going to open up in 2023 or 2024, so the rest of the world won’t see any supply chain disruption, said Mark Williams, chief Asia economist at Capital Economics. But there is also a significant downside risk that the pandemic gets out of control and the country needs to impose a nation-wide lockdown across industries, which would feed through to the global supply chains and commodity markets. White House on Monday said demonstrations in China haven’t resulted in supply-chain disruptions.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Investors took some cheer this week from China’s latest COVID policy after massive anti-lockdown protests erupted across the country, rattling global financial markets, but economists think that markets have placed a “too high probability” on restrictions being relaxed soon. After a sharp selloff on Monday driven by worries that China’s civil unrest and full-blown lockdown would stoke global supply chain disruptions, financial markets recovered amid hope of the pandemic policy relief. There’s definitely investors who are looking at the bright side of this and hoping for an end to zero-COVID in the near future,” said Jonas Goltermann, senior markets economist at Capital Economics. “ The price-to-earning ratios of China-related indexes and ETFs are at their lowest levels compared to their own history and to other financial markets, especially the U.S., where valuations are still very high, Goltermann told clients in a briefing on Tuesday. “ Related: China needs at least a year to end zero-COVID policy, experts say Economists do not think the country is now ready to open up its economy, though recent updates to its COVID policy which simplify various protocols are a step in that direction.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9483824968338013</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chinese Stocks Extend Historic Rally as Reopening Signs Grow - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 01:35:00 GMT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Alibaba, Nio Stocks Slide: Hang Seng Index Today - Alibaba Group Holding (NYSE:BABA) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks opened weaker on Thursday, with the benchmark Hang Seng losing 1.84%, as investors eyed Thursday’s inflation data from the U.S. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -3.64% JD.com Inc JD -3.72% Baidu Inc BIDU -2.74% Tencent Holdings Ltd. TCEHY -1.86% Meituan MPNGF -1.52% Nio Inc NIO -9.93% XPeng Inc XPEV -9.66% Li Auto Inc LI -5.43% “We are forecasting core CPI lifted 0.4% m/m in October (vs 0.6% in September) on weakness in goods prices and plateauing in some elements of core service prices ... That is consistent with our view that the Fed will raise rates by 50bp in December,” said ANZ Research in a note. Shares of EV makers Nio and Xpeng fell over 9% in morning trade, while Li Auto shed over 5%. Alibaba shares, too, lost over 3%. Also Read: Best Brokerage And Investment Apps Macro News: Chinese Vice-Premier Liu He has reiterated the importance of boosting domestic demand and making supply-side reforms, while preventing a return to full isolationism, reported the South China Morning Post. China is expanding COVID-19 restrictions in Guangzhou, where it is suspending schools and widening lockdowns, reported Bloomberg. Company News: Apple Inc AAPL supplier and iPhone assembler Foxconn Technology Co Ltd FXCOF is set to update its fourth-quarter outlook on Thursday, after having warned this week of the impact of COVID-19 restrictions at its Zhengzhou plant, reported Reuters. Tesla Inc’s TSLA electric vehicle inventory in Shanghai rose at its fastest pace ever in October, reported Reuters, citing brokerage data. Top Gainers and Losers: Techtronic Industries Company Limited and JD.com are the top losers among Hang Seng constituents on Friday, having shed over 4% each in morning trade. Country Garden Services Holdings Company Limited and Longfor Group Holdings Limited are the top gainers, having risen over 3% each. Global News: U.S. futures traded in the green on Thursday morning Asia session. The Dow Jones futures were up 0.14%, while Nasdaq futures gained 0.35%. The S&amp;P 500 futures were trading higher by 0.19%. Elsewhere in Asia-Pacific, Australia’s ASX 200 was down 0.36%. Japan’s Nikkei 225 traded 1.01% lower, while China’s Shanghai Composite index traded 0.42% lower. South Korea’s Kospi shed 0.58%. Read Next: Tesla Finds Buyer In Cathie Wood As Stock Goes Haywire Amid Elon Musk's Twitter Deal, Share Sale</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shares of EV makers Nio and Xpeng fell over 9% in morning trade, while Li Auto shed over 5%. Company News: Apple Inc AAPL supplier and iPhone assembler Foxconn Technology Co Ltd FXCOF is set to update its fourth-quarter outlook on Thursday, after having warned this week of the impact of COVID-19 restrictions at its Zhengzhou plant, reported Reuters. Top Gainers and Losers: Techtronic Industries Company Limited and JD.com are the top losers among Hang Seng constituents on Friday, having shed over 4% each in morning trade.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9857125282287598</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>China's Lygend Resources shares climb in Hong Kong debut - Nasdaq</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 02:10:00 GMT</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Adds details, updates stock price HONG KONG, Dec 1 (Reuters) - Shares of Chinese nickel producer and trader Lygend Resources &amp; Technology Co Ltd 2245.HK traded as high as HK$16.02 each in their Hong Kong debut on Thursday, up 1.4% from the offering price. That compares to a 2.3% rise in the benchmark Hang Seng Index .HSI. The company priced its shares at HK$15.80 apiece to raise $470 million in an initial public offering (IPO) that is the fourth-largest in the city so far in 2022. The Ningbo-based firm sold 232.54 million shares in the IPO and the final price was towards the bottom of a HK$15.60 to HK$19.96 range flagged when the deal was launched last week. Institutional investors' demand to buy Lygend shares in the IPO was only moderate with those shareholders subscribing for 1.4 times the amount of stock on offer, according to the company's listing documents. Retail demand was around the same mark as the institutional tranches. Volatile financial markets due to the Russia-Ukraine war, China's ongoing COVID-19 lockdown, and higher interest rates have dented investor demand to buy new share sales globally. In Hong Kong, the demand is well down from the peak of the IPO boom of last year when deals were routinely oversubscribed by hundreds or up to thousands of times. Hong Kong IPOs have been worth nearly $6 billion so far in 2022, the lowest level in a decade, according to Refinitiv data. Lygend Resources had said in its prospectus the IPO proceeds will be earmarked for development and construction of nickel product production projects on Indonesia's Obi Island and to fund a joint venture it has with Contemporary Amperex Technology Co Ltd 300750.SZ to develop products on electric vehicle battery value chain. ($1 = 7.8012 Hong Kong dollars) (Reporting by Scott Murdoch and Donny Kwok; Editing by Tom Hogue and Uttaresh.V) ((Scott.Murdoch@thomsonreuters.com;)) The views and opinions expressed herein are the views and opinions of the author and do not necessarily reflect those of Nasdaq, Inc.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Adds details, updates stock price HONG KONG, Dec 1 (Reuters) - Shares of Chinese nickel producer and trader Lygend Resources &amp; Technology Co Ltd 2245.HK traded as high as HK$16.02 each in their Hong Kong debut on Thursday, up 1.4% from the offering price. The Ningbo-based firm sold 232.54 million shares in the IPO and the final price was towards the bottom of a HK$15.60 to HK$19.96 range flagged when the deal was launched last week. $1 = 7.8012 Hong Kong dollars) (Reporting by Scott Murdoch and Donny Kwok; Editing by Tom Hogue and Uttaresh.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9994953870773315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Daily Brief China: Hong Kong Hang Seng Index, Wharf Holdings, Brilliance China Automotive, Alibaba (ADR), C C Land Holdings, Lygend Resources &amp; Technology and more - Smartkarma</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sun, 13 Nov 2022 02:03:38 GMT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9998705387115479</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Stocks slip before Alibaba earnings as NetEase sinks on Blizzard break-up - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Thu, 17 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A pedestrian looks at stock prices of Hang Seng Index constituents outside a bank in Mong Kok, Hong Kong. Photo: Winson Wong</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A pedestrian looks at stock prices of Hang Seng Index constituents outside a bank in Mong Kok, Hong Kong.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9999986886978149</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hang Seng Leads Asia Shares Surge on China Covid Hopes - Asia Financial</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 10:42:15 GMT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Asian stocks scaled a seven-week high with investors upbeat after cooler-than-expected US inflation figures and signs China was about to relax its Covid curbs Asian indexes were on the front foot on Friday, buoyed by better than expected news on US inflation and new hopes that China was planning to rein back on its strict Covid-curbing policies after it eased some quarantine rules. The rally was sparked after US stocks jumped overnight as cooler inflation data suggested the Federal Reserve’s barrage of interest rate hikes are beginning to have their intended effect. All three major US stock indexes notched their biggest one-day percentage gains in about two-and-a-half years and that fed into Asia’s markets where investors were hungry for good news. Also on AF: iPhone Maker Foxconn Set to Quadruple India Plant Workforce The rally then accelerated after it emerged Chinese health authorities had eased some of the country’s heavy Covid-19 curbs, including shortening by two days the quarantine times for close contacts of cases and inbound travellers. Japan’s Nikkei index was the first to surge, ending at a two-month high, led by Tokyo Electron and other growth stocks. The Nikkei jumped 2.98% to end at 28,263.57, its highest close since September 13. The index gained 3.91% this week, marking a third straight weekly gain. The broader Topix climbed nearly 2.12% to 1,977.76 and rose 3.26% for the week. Chip equipment maker Tokyo Electron jumped 8.43% and provided the biggest boost to the Nikkei, despite cutting its annual profit forecast. Chinese stocks rallied hard following that jump on Wall Street and then the Politburo Standing Committee (PSC) revealing its Covid quarantine rules changes. That came just a day after China’s new top leadership body reaffirmed Beijing’s “dynamic-zero” Covid-19 policy on Thursday, as authorities stepped up lockdowns and other curbs to halt clusters from spreading as infections soared to their highest since this year’s Shanghai lockdown. The Hang Seng Index surged 7.74%, or 1,244.62 points, to 17,325.66, while the Shanghai Composite Index rose 1.69%, or 51.16 points, to 3,087.29. The Shenzhen Composite Index on China’s second exchange advanced 1.31%, or 26.13 points, to 2,017.96. Hong Kong Tech Giants Surge Citi analysts said local governments’ response is the next key watch point. “Since Covid prevention is often overdone at local level, a correction in implementation will be a de facto easing,” they said. Tech giants listed in Hong Kong surged roughly 10% at the open and were up 6.5% by midday, tracking a 7.6% overnight jump in the Nasdaq Golden Dragon China Index. Chinese property developers rallied 5.4% in the mainland, and their peers trading in Hong Kong rose nearly 7%, amid the country’s latest measures to support the crisis-ridden sector. MSCI’s broadest index of Asia-Pacific shares outside Japan soared 5.33%, set for its biggest one-day percentage jump since March 2020. The index is down 23% for the year but is heading for a weekly gain of more than 7%, the biggest in more than two years. Elsewhere across the region, Australia’s S&amp;P/ASX 200 index closed up 2.73% while Indian stocks advanced too, with Mumbai’s signature Nifty 50 index up 1.82%, or 328.30 points, to close at 18,356.50. Globally, the dollar wobbled after slowing US inflation data sparked hopes that the Federal Reserve could tone down its aggressive interest rate hikes. European markets were set to extend the exuberant mood, with the pan-region Euro Stoxx 50 futures up 0.62%, German DAX futures 0.70% higher and FTSE futures up 0.11%. FTX Crypto Crisis Continues Data on Thursday showed that the US consumer price index had been 7.7% higher in October than a year earlier. It was the first annual increase of less than 8% since February and the smallest since January. “It’s something the market had been waiting for a long time,” said Shane Oliver, head of investment strategy and chief economist at AMP Capital. “There was a lot of money sitting on the sidelines.” Investors poured into risky assets after the data, sending the dollar tumbling and US Treasury yields to a five-week low. Elsewhere, the crypto world remained gripped by the outlook for the crypto exchange FTX. Regulators froze some assets of FTX and industry peers raced to limit losses amid worsening solvency problems. The firm was scrambling to raise about $9.4 billion from investors and rivals in a bid to save the firm, it was reported. Bitcoin fell 1.44% to $17,295. Meanwhile, oil prices rose on Friday after the US inflation data but were on track for weekly declines of more than 4% due to Covid-related worries in China. Key figures Tokyo – Nikkei 225 &gt; UP 2.98% at 28,263.57 (close) Hong Kong – Hang Seng Index &gt; UP 7.74% at 17,325.66 (close) Shanghai – Composite &gt; UP 1.69% at 3,087.29 (close) London – FTSE 100 &lt; DOWN 0.34% at 7,350.49 (0935 GMT) New York – Dow &gt; UP 3.70% at 33,715.37 (Thursday close) Reuters with additional editing by Sean O’Meara Read more: China Markets Jump After Politburo Eases Covid Rules US Inflation Eases, Federal Reserve Seen Slowing Rate Hikes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Asian stocks scaled a seven-week high with investors upbeat after cooler-than-expected US inflation figures and signs China was about to relax its Covid curbs Asian indexes were on the front foot on Friday, buoyed by better than expected news on US inflation and new hopes that China was planning to rein back on its strict Covid-curbing policies after it eased some quarantine rules. The rally was sparked after US stocks jumped overnight as cooler inflation data suggested the Federal Reserve’s barrage of interest rate hikes are beginning to have their intended effect. Also on AF: iPhone Maker Foxconn Set to Quadruple India Plant Workforce The rally then accelerated after it emerged Chinese health authorities had eased some of the country’s heavy Covid-19 curbs, including shortening by two days the quarantine times for close contacts of cases and inbound travellers. Japan’s Nikkei index was the first to surge, ending at a two-month high, led by Tokyo Electron and other growth stocks. The broader Topix climbed nearly 2.12% to 1,977.76 and rose 3.26% for the week. The index is down 23% for the year but is heading for a weekly gain of more than 7%, the biggest in more than two years. Elsewhere across the region, Australia’s S&amp;P/ASX 200 index closed up 2.73% while Indian stocks advanced too, with Mumbai’s signature Nifty 50 index up 1.82%, or 328.30 points, to close at 18,356.50.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9997923970222473</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chinese tech sector leads Hong Kong market rebound - MarketWatch</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Shares of Chinese technology companies rebounded in Hong Kong after a report that U.S. audit officials have completed the first round of on-site inspection of U.S.-listed Chinese companies. The Hang Seng Tech Index HSXTCHINDXXX, +2.30% , which tracks 30 technology companies listed in the city, jumped as much as 11% in afternoon trading and finished up 7.4%. Index heavyweights Alibaba Group Holding Ltd. BABA, +9.64% 9988, +4.94% advanced 10%, Tencent Holdings Ltd. 700, +3.55% gained 7.7% and JD.com Inc. JD, +7.38% 9618, +0.64% was 12% higher. The tech rebound has helped push the city’s benchmark Hang Seng Index HSI, +1.56% 5.3% higher to 16161.14, recouping all its losses since two weeks ago, when Chinese leader Xi Jinping’s consolidation of power after the party congress spooked investors. Bloomberg reported Friday that U.S. regulatory officials finished on-site inspection of Chinese companies ahead of schedule and may leave Hong Kong as early as this weekend. The possible positive development caused foreign investors to cover their short positions on tech stocks, BNP Paribas Wealth Management chief investment adviser Grace Tam said. “There have been a lot of short positions on the China tech names. If the audit progress is really good, and the [American depositary receipts] are going to stay in U.S. market, then they don’t want to have so many short positions,” Ms. Tam said. But she cautioned that the rebound might be short-lived as “maybe we still need to wait for a few weeks to see the preliminary findings of the auditing.” Investors are also watching for signs that China may be easing its strict zero-Covid policy, which has led to widespread lockdowns and suppressed economic activity. Speculation that Beijing may be looking into reopening options boosted Chinese shares this week. While Ms. Tam thinks the market may already have hit bottom, market upside also appears limited. “We need to wait for the plan of reopening, or any result from the auditing or even for the property sector, which is still very weak for now,” she said. Write to Clarence Leong at clarence.leong@wsj.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shares of Chinese technology companies rebounded in Hong Kong after a report that U.S. audit officials have completed the first round of on-site inspection of U.S.-listed Chinese companies. The Hang Seng Tech Index HSXTCHINDXXX, +2.30% , which tracks 30 technology companies listed in the city, jumped as much as 11% in afternoon trading and finished up 7.4%. We need to wait for the plan of reopening, or any result from the auditing or even for the property sector, which is still very weak for now,” she said.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9498431086540222</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>China, Hong Kong stocks gain on Fed, COVID policy pivots - Devdiscourse</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 05:02:44 GMT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>China and Hong Kong stocks started December on a bullish note, tracking global markets amid expectations that the U.S. Federal Reserve will slow the pace of rate hikes, and signs of some relaxation in China's strict anti-COVID curbs. China's bluechip index CSI300 gained 1.3% by the lunch break, while the Shanghai Composite Index rose 0.7%. Hong Kong's Hang Seng Index rose 1.6, after jumping 27% in November in its best month in 24 years. Asian markets were upbeat following overnight gains on Wall Street, after Federal Reserve Chair Jerome Powell opened the door to a slowdown in the pace of monetary tightening. Investors are also doubling down on bets that China is moving toward a reopening of its economy by relaxing draconian anti-COVID measures that have hit growth, disrupted life and work, and triggered protests. Nuno Fernandes, portfolio manager for GW&amp;K's Emerging Wealth Equity Strategy said the impact of the anti-COVID strategy on the economy was becoming too great for the government to accept. "So our expectation is that they would exit the dynamic zero policy, and that's what we're experiencing now. It's the beginning stages of exiting that policy," he said. Chinese Vice Premier Sun Chunlan called for further efforts to improve COVID-19 prevention and control measures, urging "optimisation" of testing, treatment and quarantine policies, as the virus weakens in pathogenicity, state media reported on Thursday. In Guangdong's provincial capital of Guangzhou, where riots and disturbances recently made headlines, authorities eased restrictions, allowing close contacts of COVID cases to quarantine at home, according to the government and local media. China's consumer stocks jumped on optimism over the signs of a wider re-opening. Spirit maker Kweichow Moutai rose more than 2% to a one-month high. Consumer companies "will greatly benefit from the re-opening of the economy, and so we're going to see an incredible recovery in profitability for these companies," said GW&amp;K's Fernandes. Tech stocks in China and Hong Kong also rose sharply following a nearly 10% surge in Nasdaq-listed Chinese stocks . China's tech-focused STAR Market rose 1.4%, while Hong Kong's Hang Seng Tech Index jumped 2.4%. COVID testing companies, including Wondfo Biotech and Labway, tumbled after the government vowed to respond to public criticism. (This story has not been edited by Devdiscourse staff and is auto-generated from a syndicated feed.)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>China and Hong Kong stocks started December on a bullish note, tracking global markets amid expectations that the U.S. Federal Reserve will slow the pace of rate hikes, and signs of some relaxation in China's strict anti-COVID curbs. Investors are also doubling down on bets that China is moving toward a reopening of its economy by relaxing draconian anti-COVID measures that have hit growth, disrupted life and work, and triggered protests. China's tech-focused STAR Market rose 1.4%, while Hong Kong's Hang Seng Tech Index jumped 2.4%. This story has not been edited by Devdiscourse staff and is auto-generated from a syndicated feed.)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9993547797203064</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nikkei and Hang Seng fall over 1% ahead of US CPI data, crypto worries mount - CNBCTV18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Thu, 10 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MSCI's broadest index of Asia-Pacific shares outside Japan dropped 0.6 percent in early trade, dragged lower by outsized declines in China's bluechips and Hong Kong's Hang Seng index. Asian share markets were tense on Thursday and the dollar held on to its overnight gains before the big test of a US consumer inflation report, while market sentiment took a dive as the likely collapse of a major crypto exchange spooked investors. With no final results available from the US mid-term elections, investors were turning to the upcoming inflation data later in the day, which are likely to show a decline in both the monthly and yearly core numbers for October to 0.5 percent and 6.5 percent, respectively, according to a Reuters poll. MSCI's broadest index of Asia-Pacific shares outside Japan dropped 0.6 percent in early trade, dragged lower by outsized declines in China's bluechips and Hong Kong's Hang Seng index. Japan's Nikkei lost 1 percent. China is again grappling with a COVID surge, with the southern metropolis of Guangzhou reporting thousands of cases. Apple Inc supplier Foxconn plans to update its fourth-quarter outlook on Thursday, after strict COVID curbs remained in place at its major plant in China despite the lifting of a lockdown. Elsewhere, focus remained squarely on inflation. "While inflation globally has peaked, the cooling is not sufficiently large or broad-based to bring rate hiking cycles to a convincing conclusion, in our view," said analysts at J.P. Morgan. Still, some central banks in both developed and emerging markets had become dovish as they worried about monetary tightening pushing down economic growth, the analysts noted. The futures market currently shows investors believe the target US federal funds rate will peak around 5.1 percent by next June, and the chances of a rise of 50 or 75 basis points are tilted in favour of a half-point increase next month. Overnight on Wall Street, shares ended lower as Republican gains in midterm elections appeared more modest than some had expected. Republicans were still favoured to win control of the House of Representatives but key races were too close to call. In the crypto world, bitcoin clawed back some ground in early trade on Thursday, after tumbling for two straight sessions to its lowest level since late 2020. Binance, the world's biggest crypto exchange, said late on Wednesday that it had decided not to acquire smaller rival FTX, which has grappled with a severe liquidity crunch and faced bankruptcy without more capital. "You can't deny the growing correlation between bitcoin and risk assets. The FTX news is having an outsized effect on asset prices," said Stephen Innes, managing partner at SPI Asset Management. "Bitcoin spillovers are not negligible, and given how widely crypto coins are held, it could mean more forced liquidation of other assets to cover margin calls as long position investors were massively wrong-footed." The US dollar on Thursday held onto its most of its gains overnight against a basket of currencies. The sterling rose 0.2 percent against the greenback, after tumbling 1.6 percent in the previous session. US Treasury yields were lower on Thursday. The yield on benchmark 10-year notes eased 6 basis points to 4.08 percent while the yield on two-year notes edged 5 basis points lower to 4.57 percent. In commodities, oil prices continued to retreat on Thursday, after tumbling about 3 percent in the previous session on fears of demand from China and rising US crude stocks. US crude oil futures eased 0.3 percent to $85.59 per barrel, while Brent crude futures fell by a similar margin to $92.37. Gold was little changed, with the spot price at $1705.92 per ounce.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MSCI's broadest index of Asia-Pacific shares outside Japan dropped 0.6 percent in early trade, dragged lower by outsized declines in China's bluechips and Hong Kong's Hang Seng index. With no final results available from the US mid-term elections, investors were turning to the upcoming inflation data later in the day, which are likely to show a decline in both the monthly and yearly core numbers for October to 0.5 percent and 6.5 percent, respectively, according to a Reuters poll. Bitcoin spillovers are not negligible, and given how widely crypto coins are held, it could mean more forced liquidation of other assets to cover margin calls as long position investors were massively wrong-footed." In commodities, oil prices continued to retreat on Thursday, after tumbling about 3 percent in the previous session on fears of demand from China and rising US crude stocks. US crude oil futures eased 0.3 percent to $85.59 per barrel, while Brent crude futures fell by a similar margin to $92.37.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9974875450134277</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>China Stock Investors Snap Up $15 Billion of Hong Kong Tech Shares - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tue, 08 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hong Kong Hang Seng Up 7.7% After US Inflation Report; Property, Tech Issues Soar - Marketscreener.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>WORKDAY INC. +17.17% Workday Up Over 13%, Best Performer in the Nasdaq 100 So Far Today -- Data Talk</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>+17.17% Workday Up Over 13%, Best Performer in the Nasdaq 100 So Far Today -- Data Talk</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mainland stocks jump as local governments adopt flexible COVID-19 measures - Global Times</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 05:13:00 GMT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Shanghai Stock Exchange Photo:CFP China’s benchmark Shanghai Composite Index jumped 1.16 percent in a big rally at opening of trade on Thursday, as investors felt encouraged by a shift in local governments’ coronavirus management measures with a focus on a more scientific and flexible approach.The rally was strong and almost across the board. At around 9:50 am, the tech-heavy ChiNext board climbed back above 2,400 points with a 2.33 percent rise. The Shenzhen market was also up more than 2 percent by the time.Consumerand tourism stocks, which have been burdened by the coronavirus situation for an extended period, both jumped on Thursday. Liquor stocks jumped 3.47 percent with two companies seeing share trading touch the trade limit of 10 percent as of 9:54 am, while the tourism and hotel shares rose 1.41 percent at the same period.Hong Kong’s benchmark Hang Seng Index had also climbed by 1.53 percent as of 10: 11 am.The leap on the stock markets came as officials signaled a new approach to coronavirus prevention methods that are more precise and flexible instead of large-scale lockdowns in accordance with the newly released "20 measures."On Wednesday, Guangzhou in South China's Guangdong Province, which has been hit by a severe resurge of coronavirus cases recently, refined its COVID-19 prevention measures by announcing it will lift temporary restrictions in some regions and officially allow qualified close contacts to undergo home based quarantined.Many other cities including Beijing, Chongqing and Zhengzhou also issued optimized measures based on the epidemic situation, allowing people to resume their daily lives in a structured way.Multiple shopping malls in Beijing, including Beijing Raffles City, said that they were reopening to the public as of Thursday, the Beijing Daily reported.Some shopping malls in Guangzhou’s Tianhe district also announced that they would no longer require patrons to present a 48-hour negative nucleic acid test reports upon entry to malls.Another reason behind the rebound is the signal sent by US Federal Reserves that the US might soon slow efforts to raise interest rates for combating inflation, market observers said.US Federal Reserve Chairman Jerome Powell confirmed on Wednesday that he sees the central bank is in position to reduce the size of rate hikes as soon as next month, CNBC reported.The yuan’s central parity rate against the US dollar rose 544 basis points to stand at 7.1225 on Thursday.Global Times</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Shanghai Stock Exchange Photo:CFP China’s benchmark Shanghai Composite Index jumped 1.16 percent in a big rally at opening of trade on Thursday, as investors felt encouraged by a shift in local governments’ coronavirus management measures with a focus on a more scientific and flexible approach. "On Wednesday, Guangzhou in South China's Guangdong Province, which has been hit by a severe resurge of coronavirus cases recently, refined its COVID-19 prevention measures by announcing it will lift temporary restrictions in some regions and officially allow qualified close contacts to undergo home based quarantined. The yuan’s central parity rate against the US dollar rose 544 basis points to stand at 7.1225 on Thursday.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4925080537796021</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Asia Shares Lifted by Covid Jabs Vow But Factory Data Weighs - Asia Financial</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 10:31:12 GMT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor factory output numbers out of Japan and China dampened the mood on trading floors despite hopes Beijing might ease its Covid curbs Asian stock indexes were pulled in all directions on Wednesday with poor factory data and China’s Covid woes weighing on one side and hopes of a vaccination rollout and more economic support from Beijing tugging on the other. Investors remain cautious about China’s path to reopening its economy after it released disappointing manufacturing data, with China and Hong Kong stocks wiping out strong gains from the previous day early on before staging a mini-recovery. There was also weak factory output data out of Japan where the Nikkei index fell for a fourth straight session on concerns of a global economic slowdown, with investors also awaiting US Federal Reserve Chair Jerome Powell’s latest speech for policy clues. Read more: China Factory, Service Sectors Drop to Seven Month Lows Fed Chair Powell will speak at a Brookings Institution event later in the day about the outlook for the US economy and the labour market. The Nikkei share average ended 0.21% lower at 27,968.99, after hitting its lowest since November 16. The broader Topix slipped 0.37% to 1,985.57. Japan’s factory output fell for a second consecutive month in October, as stalling global demand and lingering supply bottlenecks put a lid on Japanese manufacturers’ production plans. And China’s factory activity contracted at a faster pace in November, weighed down by softening global demand and Covid-19 restrictions. But it’s China’s Covid situation, which has seen unprecedented social unrest break out in recent days over Beijing’s uncompromising zero-Covid policy, that has been investors’ main focus. After early losses in Hong Kong and mainland China, its indexes enjoyed a bump with traders banking on Chinese officials’ promise that the country would speed up Covid-19 vaccinations for the elderly. China’s Vaccination Push The vaccination push is seen as crucial to unwinding nearly three years of strict curbs in the world’s second-largest economy that have eroded economic growth, disrupted the lives of millions and sparked unprecedented protests this past weekend. “Headlines from China regarding Covid restrictions and protests are causing jitters among investors. Although some Covid easing measures are being considered, it may not be enough to prevent further economic disruption,” said Anderson Alves, global macro analyst at ActivTrades. “Expectations are that as Covid cases continue to rise, restrictions will be re-tightened before year-end, bringing with it more uncertainty over the impact on the economy,” he said in a research note on Wednesday. The Hang Seng Index gained 2.16%, or 392.55 points, to 18,597.23. The Shanghai Composite Index rose 0.05%, or 1.59 points, to 3,151.34, while the Shenzhen Composite Index on China’s second exchange was up 0.12%, or 2.47 points, to 2,018.69. MSCI’s gauge of Asia Pacific stocks outside Japan was up 0.02% at 0201 GMT, paring earlier losses. At current levels, the index is set to post its biggest monthly gain since April 1999. US Labour Market Data Elsewhere across the region, Australia’s S&amp;P/ASX 200 gained 0.43% while Indian stocks rose with Mumbai’s signature Nifty 50 index up 0.75%, or 140.30 points, at 18,758.35. Globally, the S&amp;P 500 closed lower on Tuesday as investors wait for hints on the US Federal Reserve’s path of interest rate hikes. Investors are also waiting for US labour market data for November and gross domestic product numbers for the third quarter. “This week will offer an interesting test for markets as we have a look at the next important data macro data points out of the US, especially the PCE inflation data and the Friday November jobs report,” said Redmond Wong, Greater China market strategist at Saxo Markets in Hong Kong. The US ISM manufacturing survey for the month on Thursday is also expected to slip into contraction, Wong said. Oil prices continued to rise after a buoyant Tuesday, with US crude up 0.873% to $78.87 a barrel and Brent up 0.76% to $83.66 a barrel. Spot gold rose 0.13%. Key figures Tokyo – Nikkei 225 &lt; DOWN 0.21% at 27,968.99 (close) Hong Kong – Hang Seng Index &gt; UP 2.16% at 18,597.23 (close) Shanghai – Composite &gt; UP 0.05% at 3,151.34 (close) London – FTSE 100 &gt; UP 0.66% at 7,561.35 (0940 GMT) New York – Dow &gt; UP 0.01% at 33,852.53 (Tuesday close) Reuters with additional editing by Sean O’Meara Read more: Bitfront Becomes Latest Crypto Exchange to Cease Trading Yuan-Rouble Dealings Skyrocket as Russia Embraces the Redback</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Poor factory output numbers out of Japan and China dampened the mood on trading floors despite hopes Beijing might ease its Covid curbs Asian stock indexes were pulled in all directions on Wednesday with poor factory data and China’s Covid woes weighing on one side and hopes of a vaccination rollout and more economic support from Beijing tugging on the other. Investors remain cautious about China’s path to reopening its economy after it released disappointing manufacturing data, with China and Hong Kong stocks wiping out strong gains from the previous day early on before staging a mini-recovery. After early losses in Hong Kong and mainland China, its indexes enjoyed a bump with traders banking on Chinese officials’ promise that the country would speed up Covid-19 vaccinations for the elderly. This week will offer an interesting test for markets as we have a look at the next important data macro data points out of the US, especially the PCE inflation data and the Friday November jobs report,” said Redmond Wong, Greater China market strategist at Saxo Markets in Hong Kong. Key figures Tokyo – Nikkei 225 &lt; DOWN 0.21% at 27,968.99 (close) Hong Kong – Hang Seng Index &gt; UP 2.16% at 18,597.23 (close) Shanghai – Composite &gt; UP 0.05% at 3,151.34 (close) London – FTSE 100 &gt; UP 0.66% at 7,561.35 (0940 GMT) New York – Dow &gt; UP 0.01% at 33,852.53 (Tuesday close) Reuters with additional editing by Sean O’Meara Read more: Bitfront Becomes Latest Crypto Exchange to Cease Trading Yuan-Rouble Dealings Skyrocket as Russia Embraces the Redback</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.999228835105896</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The Hang Seng reacts to new Covid measures - IG UK</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tue, 15 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>China’s state media finally confirmed that China will ease some of its strict Covid measures but was not yet in the position to change the Covid-Zero policy. Even so, the announcement still bolstered investor's confidence. The Hang Seng index in Hong Kong jumped more than 7% last Friday and kicked off the new week with a 3% gain. China’s new Covid policy China has been committing to "Covid-Zero" policy measures to control the outbreak of the virus since the early days of the pandemic. The country has now become one of the few destinations that still require centralized quarantine when travellers arrive. According to the new policy, China will change the duration of compulsory quarantine at a centralized facility from seven days to five days, followed by three days of self-quarantine or "home observation". China's contact tracing policy change In the previous model, all close connections, including people who were connected to travellers are viewed as “tracking targets”. Starting from November, “close contact” only applies to people interacting with individuals with confirmed Covid infections.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>China’s state media finally confirmed that China will ease some of its strict Covid measures but was not yet in the position to change the Covid-Zero policy. China's contact tracing policy change In the previous model, all close connections, including people who were connected to travellers are viewed as “tracking targets”.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9471750855445862</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Daily Brief China: ENN Natural Gas, Shanghai United Imaging Healthcare, Trina Solar Co Ltd, Alibaba (ADR), Hong Kong Hang Seng Index, Meituan, JL Mag Rare Earth, Lifestyle International Holdings, Melco Resorts &amp; Entertainment and more - Smartkarma</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sun, 27 Nov 2022 02:02:04 GMT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>💡 Before it’s here, it’s on Smartkarma Sign Up for Free The Smartkarma Preview Pass is your entry to the Independent Investment Research Network ✓ Unlimited Research Summaries ✓ Personalised Alerts ✓ Custom Watchlists ✓ Company Data and News ✓ Events &amp; Webinars Sign Up for Free</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9998705387115479</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Daily Brief Financials: Hang Seng China Enterprises Index, Sunshine Insurance, SBI Holdings, Home First Finance, Kawasan Industri Jababeka and more - Smartkarma</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 02:09:58 GMT</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>By Charles Macgregor Lucror Analytics Morning Views comprise our fundamental credit analysis, opinions and trade recommendations on high yield issuers in the region, based on key company-specific developments in the past 24 hours. Our Morning Views include a section with a brief market commentary, key market indicators and a macroeconomic and corporate event calendar.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>By Charles Macgregor Lucror Analytics Morning Views comprise our fundamental credit analysis, opinions and trade recommendations on high yield issuers in the region, based on key company-specific developments in the past 24 hours. Our Morning Views include a section with a brief market commentary, key market indicators and a macroeconomic and corporate event calendar.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.999998927116394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index Closes at New 11-Year Low - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Thu, 20 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>China Stock Traders Are Clinging to Every Sign of Hope They See - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng down around 6% in mixed Asia trade; Japan's yen weakens despite reports of intervention - CNBC</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mon, 24 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>People wearing face masks walks in front of the Hong Kong skyline on October 17, 2022 in Hong Kong, China. Hong Kong stocks and mainland China markets fell sharply Monday while other major Asia-Pacific markets rose. Hong Kong's Hang Seng index spiraled down 6.36% to 15,180.69, its lowest levels since April 2009, with the Hang Seng Tech index down more than 9%. Tai Hui, JPMorgan Asset Management's APAC chief market strategist, said a combination of factors has been driving the Hong Kong market recently, including higher U.S. Treasury yields. Investors may also have expected policy measures to be announced during the Communist Party of China's 20th National Congress, which closed over the weekend with President Xi Jinping loyalists tapped to form a core leadership group. "Since the meeting is mostly about personnel changes, the economic recovery might not come as soon as we have hoped," Tai told CNBC in an email. Mainland China markets briefly entered positive territory on better-than-expected economic data before falling again. The Shanghai Composite in mainland China was 2.02% lower at 2,977.56, and the Shenzhen Component lost 2.055% to 10,694.61. In Australia, the S&amp;P/ASX 200 was 1.54% higher at 6,779.40. The Kospi in South Korea gained 1.04% to 2,236.16, and the Kosdaq added 2.08% to 688.50. Japan's Nikkei 225 climbed 0.31% to 26,974.90 and the Topix was up 0.28% to 1,887.19. MSCI's broadest index of Asia-Pacific shares outside Japan was 1.94% lower. Authorities in Japan reportedly intervened in the forex market on Friday, causing the yen to strengthen sharply. But the currency continued to seesaw. On Monday in Asia, the currency briefly strengthened to 145-levels but was last at 149.25 per dollar.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>People wearing face masks walks in front of the Hong Kong skyline on October 17, 2022 in Hong Kong, China. The Kospi in South Korea gained 1.04% to 2,236.16, and the Kosdaq added 2.08% to 688.50. Authorities in Japan reportedly intervened in the forex market on Friday, causing the yen to strengthen sharply.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9994329810142517</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>D-St's Opening As SGX Nifty in Red: Gloomy Global Cues, Hang Seng Index Dives - Investing.com India</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Thu, 17 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>By Malvika Gurung Investing.com -- The listed on the Singapore-based Exchange SGX, an early indicator for , traded 0.47% or 86.5 points lower at 8:55 am on Thursday, indicating a negative opening on Dalal Street amid weak global cues. Further, the and traded flat. Major indices on Wall Street ended lower on Wednesday, following an over 13% plunge in the leading big-box retailer Target due to a grim outlook, raising concerts ahead of the year-end busy holiday season. Consequently, retail stocks slumped too. tanked 1.54%, declined 0.83% and slipped 0.12%. Despite a gloomy forecast of a drop in holiday-quarter sales by Target, US retail sales rose more than expected in Oct, clouding the inflation outlook and Fed’s move to raise interest rates. Stocks across Asian markets traded mostly lower on Thursday ahead of multiple economic data scheduled to be released, while investors remained concerned about the US Fed’s rate hike after stronger-than-expected retail sales data. At 9 am, South Korea’s fell 1.06%, Japan’s slipped 0.4%, Hong Kong’s tumbled 2.84%, China’s declined 1% and Australia's traded flat. Oil fell sharply on Thursday as rising Covid cases in China rose concerns about curtailing demand despite US inventories falling significantly more than expected and supply appearing to tighten. fell 1.15% to $91.8/barrel and plunged 1.4% to $84.4/barrel while writing. Futures rose 0.35%.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>By Malvika Gurung Investing.com -- The listed on the Singapore-based Exchange SGX, an early indicator for , traded 0.47% or 86.5 points lower at 8:55 am on Thursday, indicating a negative opening on Dalal Street amid weak global cues. Despite a gloomy forecast of a drop in holiday-quarter sales by Target, US retail sales rose more than expected in Oct, clouding the inflation outlook and Fed’s move to raise interest rates.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9999960660934448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index Had a Makeover—Then the Market Got Ugly - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sat, 15 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Protests in China Bring Hong Kong Stocks to a Slump - Marketscreener.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mon, 28 Nov 2022 08:35:04 GMT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Or log in with</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CNBC: Hong Kong’s Hang Seng pops 5% on return to trade; Asia markets rise after US stocks rallied - theloadstar.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tue, 10 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>By LoadstarEditorial 05/10/2022 CNBC reports: Shares in the Asia-Pacific traded higher on Wednesday after U.S. stocks rallied for a second day. Hong Kong’s Hang Seng index surged 5.47% on its return to trade after a holiday Tuesday. The Hang Seng Tech index soared 7.4% higher. The Nikkei 225 in Japan rose 0.45%, pushing above the 27,000 level, while the Topix added 0.37%. In South Korea, the Kospi was up 0.15% and the Kosdaq gave up early gains to fall 1.5%. Australia’s S&amp;P/ASX 200 was up 1.72%. MSCI’s broadest index of Asia-Pacific shares outside ... Subscription required for Premium stories In order to view the entire article please login with a valid subscription below or register an account and subscribe to Premium Premium subscriber LOGIN New Premium subscriber REGISTER Please Login Please either REGISTER or login below to continue Forgotten your password? Please click here Email * Password * LOGIN</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>By LoadstarEditorial 05/10/2022 CNBC reports: Shares in the Asia-Pacific traded higher on Wednesday after U.S. stocks rallied for a second day. In South Korea, the Kospi was up 0.15% and the Kosdaq gave up early gains to fall 1.5%.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9999978542327881</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hong Kong's Stocks Suffer Worst Week Since 2018 - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fri, 28 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index Falls to Lowest Close in More Than a Decade - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Thu, 22 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index drops to lowest close since February 2016; oil prices fall around 6% - CNBC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mon, 14 Mar 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in China lagged among Asia-Pacific markets on Tuesday, with the release of much better-than-expected Chinese economic data offering little respite. Hong Kong's Hang Seng index fell more than 6% in afternoon trade before seeing a slight recovery from those losses, falling 5.72% to 18,415.08 — its lowest close since Feb. 2016, according to data from Refinitiv Eikon. Chinese tech stocks in Hong Kong were volatile in trading through the day. The Hang Seng Tech index tumbled more than 7% in morning trade, then briefly crossed into positive territory before erasing those gains, falling 8.1% on the day to 3,472.42. As investors continued to assess the prospect of potential delistings from U.S. exchanges, dual-listed Chinese tech stocks in Hong Kong plunged: Alibaba was 11.93% lower while JD.com fell 10.06% and NetEase shed 7.68%. Electric vehicle maker Nio , another dual-listed stock, fell 12.81% after its U.S. listed-shares plunged overnight on renewed delisting fears. Sentiment on Chinese tech shares had taken a hit on Monday following a report that Tencent could face a record fine for violating anti-money laundering rules. "Prospects of a hefty record fine on Tencent on money laundering regulatory breaches sent ripples of fears that Beijing's opaque crackdown on the tech space may not quite all be in the rear-view mirror just yet," Mizuho Bank's Vishnu Varathan wrote in a Tuesday note. Stocks in mainland China saw heavily losses on the day, as the Shanghai composite slipped 4.95% to 3,063.97 while the Shenzhen component declined 4.363% to 11,537.24. Data released Tuesday showed Chinese industrial output rising 7.5% year-on-year in January and February as compared with a year earlier, higher than the 3.9% increase predicted by analysts in a Reuters poll. Retail sales in China for the first two months of the year also beat expectations, gaining 6.7% in January and February as compared with expectations for a 3% rise by analysts in a Reuters poll. However, China is currently facing its worst Covid-19 outbreak since the height of the pandemic in 2020, with major cities including Shenzhen rushing to limit business activity.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in China lagged among Asia-Pacific markets on Tuesday, with the release of much better-than-expected Chinese economic data offering little respite. Hong Kong's Hang Seng index fell more than 6% in afternoon trade before seeing a slight recovery from those losses, falling 5.72% to 18,415.08 — its lowest close since Feb. 2016, according to data from Refinitiv Eikon. Electric vehicle maker Nio , another dual-listed stock, fell 12.81% after its U.S. listed-shares plunged overnight on renewed delisting fears.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.997897744178772</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hong Kong Stocks Surge Most in Asia After Return From Holiday - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Wed, 05 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng rises 2%, leads Asia markets higher after Powell's inflation comments - CNBC</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Fri, 09 Sep 2022 00:03:48 GMT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A stock broker at the Prudential Brokerage office follows the Hang Seng Index results in Hong Kong in March 2020. Markets in Asia-Pacific rose Friday as investors digested Federal Reserve Chair Jerome Powell's latest comments as he vowed to raise rates to tackle inflation "until the job is done." In Japan, the Nikkei 225 gained 0.53% to close at 28,214.75 and the Topix ticked up 0.4% to 1,965.53. In Australia, the S&amp;P/ASX 200 also rose 0.66%. In Hong Kong, the Hang Seng Index closed 2.69% higher at 19,362.25 and its tech index also climbed 2.6%. In mainland China, the Shanghai Composite rose 0.82% to close at 3,262.05 and the Shenzhen Component advanced 1.11% to 11,877.79.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A stock broker at the Prudential Brokerage office follows the Hang Seng Index results in Hong Kong in March 2020. In Hong Kong, the Hang Seng Index closed 2.69% higher at 19,362.25 and its tech index also climbed 2.6%.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9997227787971497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Share Market News Live: Sensex tops 63,500, Nifty eyes 18,900 as indices hit record highs; TCS, Infosys, Wipro gain up to 2% - Business Today</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 02:21:07 GMT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Share Market Updates Today: Indian equity benchmarks traded at record high levels in early deals on Thursday, extending their gains for the eighth straight session amid positive cues from the global markets. Although, gains in domestic indices could be capped on slower economic growth concerns. India posted annual economic growth of 6.3 per cent in its July-September quarter, less than half the 13.5 per cent growth in the previous three months. Asian shares traded higher in early deals, tracking an overnight surge in Wall Street after US Federal Reserve chairman Jerome Powell said the central bank could slow its pace of interest rate hikes as soon as December. Japan's Nikkei gained 1.06 per cent, while South Korea's Kospi rose 0.49 per cent, China's Shanghai Composite moved 0.91 per cent higher and Hong Kong's Hang Seng index jumped 1.74 per cent. All three major US stock indexes settled sharply higher. Back home, foreign institutional investors bought net of Rs 9,010.41 crore equities on Wednesday, while domestic investors sold Rs 4,056.40 crore worth of shares, as per provisional NSE data. Here are the share market Live Updates:</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Share Market Updates Today: Indian equity benchmarks traded at record high levels in early deals on Thursday, extending their gains for the eighth straight session amid positive cues from the global markets. Asian shares traded higher in early deals, tracking an overnight surge in Wall Street after US Federal Reserve chairman Jerome Powell said the central bank could slow its pace of interest rate hikes as soon as December.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9999912977218628</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>How A Trader With One Of The Biggest Volumes In Singapore Accurately Predicted The Last 3 Market Crashes – And How He Trades DLCs - DollarsAndSense.sg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 23:30:31 GMT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>This article is sponsored by Société Générale, Singapore Branch. All views expressed in this article are the independent opinion of DollarsAndSense.sg based on our research. DollarsAndSense.sg is not liable for any financial losses that may arise from any transactions and readers are encouraged to do their own due diligence. You can view our full editorial policy here. After a 23-year career in the Royal Singapore Navy (RSN) as the Commanding Officer (CO) of a warship, Robin left his iron rice bowl job in 2002 to pursue a career in trading. Within a year, he amassed over S$300,000 in trading profits. Brimming with confidence, he began doubling down on his trades. This left him on the brink of bankruptcy as he lost over half a million dollars within a 2-week period in the financial markets in 1990. With his back against the wall and, not to mention, how it would affect his wife and children, he poured his entire time and energy into creating a trend trading system that works. Armed with his trading system and a capital of S$30,000, he managed to turn around his losses within the year. After reaping the benefits of his trend trading system, he began teaching others about it – but not in the traditional classroom setting. He went a step further than most trading mentors by doing live trading demonstrations for those under his tutelage. His battle-tested trading strategy enabled him to accurately predict and profit from trading the markets, including making over S$2 million over 15 months in 2008 (during the Global Financial Crisis). He had also predicted the 2020 (pandemic-led crash) and called an end to the 20-year bull-run in 2022. Source: Robin Ho As the multi-millionaire trader today puts it, “it’s all about supply and demand. That’s the essence of my proprietary trading strategy. Imagine studying the candlesticks in a similar manner, but overlaid with volume data”. I had the opportunity to chat with Robin to learn why he decided to become a full-time trader in the first place, how he navigated the ups and downs, as well as how he trades newer products in the marketplace, such as the Daily Leverage Certificates (DLCs). Read Also: TerraSeeds’ Binni Ong Shares Why Trading Multiple Instruments Is Important – And How DLC Helps Her Navigate Market Volatility Dinesh Dayani (Dinesh): Thanks for agreeing to share your trading journey. I understand you were a relatively active trader while still in your Navy stint. What made you want to start trading? Robin Ho (Robin): The Navy usually retires their officers in their 50s. Despite learning a great deal, I always knew that my skill set would not be relevant after I left. Source: Robin Ho I started snooping around for a second career. I was first introduced to trading in 1997 – amid the best-ever Singapore and Malaysia bull markets. Even the housewives were punting the market, including my mom and aunties, who were making big money trading every day. Seeing them earn easy profits from their trades, I joined foray and got a taste of how easy money can be made. I didn’t even have to put up any cash. I just had a credit line provided by my broker, and the “contra phenomenon” allowed me to hold my positions for as long as 2 weeks. I bought all the “hot stocks” and kept rolling them. Back then, I only had guts, but I traded without any trading strategies or understanding of how the market worked. Long story short, I made S$300,000 in 12 months only to lose S$500,000 in 2 weeks in 1990. That was my harsh introduction to trading. Read Also: Using Daily Leverage Certificates (DLCs) In Volatile Stock Markets Dinesh: That must have hurt, and it must have been a very difficult time for you. How did you turn it around? Robin: Being the sole breadwinner with seven mouths to still feed, I had no choice but to put my heart and soul into really learning how to trade. Was there a holy grail to trading? I began reading every trading book I could find. I also tested almost all the trading strategies you can think of – from candlesticks to Fibonacci to Bollinger bands, and more. Nothing worked, and I was still losing money in the markets. That’s how I realised I had to think of it differently. I discovered my proprietary RHO Price Action strategy – combining price action with volume. Dinesh: I understand your RHO Price Action strategy was able to accurately predict the last 3 market crashes – in 2008, 2020 and 2022. Can you give us a sneak peek into how you’re able to make such precise calls? Robin: The RHO Price Action trading strategy uses trend trading. The technique of trend trading is not new. My strategy uses price action with volumes – finding a synergy between them, similar to finding a relationship between supply and demand. The simplest example is seeing two stocks that break out of a support or resistance. One breaks out with volume, while the other breaks out without volume. Obviously, the one with volume is more credible and gives you conviction in the direction that its price is headed. I’ve actually been demonstrating my strategies already, with live trading at the trading courses I run. In fact, I got into the teaching and training business only after Phillips (where Robin used to be a prop trader) saw how consistently I was performing and asked me to run a course to train all their professional full-time traders. After that, around 2015, I was also commissioned by SGX to train existing remisiers/full-time traders. So, I went to most of the broking houses in Singapore to train their full-time traders – there would be around 30 to 40 traders, and I would also do live trading with them. Dinesh: Today, you’ve been a full-time trader for over 20 years. While you are an experienced trader, you have also been responsible for one of the biggest trading volumes in Singapore over the years. Can you share how you keep up with newer products to trade, like the Daily Leverage Certificates (DLCs). Robin: I was very excited when I got to know that DLCs were going to be launched in Singapore. To me, it has the potential to revive the Singapore market’s trading volume. I saw it as a door to trade foreign mega caps stocks on the Singapore Exchange (SGX). Through DLCs we can trade foreign blue chips like Alibaba, Tencent and PetroChina, and even indices in Hong Kong and US – like the Hang Seng Index (HSI) and NASDAQ and S&amp;P 500. Personally, I hope the list keeps getting longer so that investors here can enjoy the range and rewards of trading on the movements of these stocks and indices. What I like about DLCs is that it requires a low capital outlay, allowing traders to participate in the price performance of an underlying asset at a fraction of the underlying asset price. As a trader, you get to free up your cash, which is important for capturing other trading opportunities. Your transaction costs is also reduced due to the lower capital however holding the DLCs overnight do have costs involved as with most leverage products. As with all derivatives, there are risks and complexities involved. The main one is the in-built Air Bag Mechanism. While the air bag can cushion your losses if the underlying asset continues to move against the DLC after it is triggered, the ability to recover losses is also reduced should the underlying asset rebound and move back in favor of the DLC. Single stock DLCs are typically more vulnerable to air bag triggers as opposed to Index DLCs as indices are generally less vulnerable to wide fluctuations compared to single stocks. Read Also: Straits Times Index | Hang Seng Index | S&amp;P 500 Index: How To Gain Both Long &amp; Short Exposure To These Indices On SGX Dinesh: You put it nicely: as with any financial product we trade, we must be aware of its characteristics. To end off, I thought we could do something fun. Since you regularly trade DLCs, can you share your biggest gain (and biggest lost)? Robin: First, we must have a trading plan before making any trading decisions. For me, the moment I spot a trend reversal, I stop buying or selling (depending on the direction of the trend). Then you have to decide when to enter the market. I usually start small once my conviction in the trade increases. When prices start moving (in the direction that my trading plan predicted), then I will build up my trade. For the biggest gain: I remember making close to S$100,000 in a single trade once. I bought the 7x short SIMSCI (SIMSCI MSCI Singapore Free Index) DLC for S$1.00, and it rose to S$9.00 within 3 weeks! I also lost about S$30,000 when a 5x SIA Long DLC. This happened when the Air Bag Mechanism was triggered. Gaining Exposure To Overseas Blue Chip Stocks Directly On SGX In the more than 25 years that Robin has been trading in Singapore, he has seen many investors lured to foreign markets. The reasons vary, from limited opportunities on the SGX to higher volumes and more interesting companies in overseas markets. When DLCs were introduced in 2017, Robin felt it was a product that could reinvigorate the investment and trading scene here. One of the biggest draws of investing in DLCs is that we can gain exposure to some of the biggest foreign companies and indices directly on the SGX. Through the DLCs, we can trade Chinese tech giants such as Alibaba, Tencent, JD.com, Xiaomi, Ping An, and Baidu among others. At the same time, we also have access to other large cap Chinese stocks, including China Construction Bank (CCB), China Merchants Bank, China Mobile, Geely Auto, PetroChina and more. As Robin also mentions, buying single stock DLCs can carry greater risks, as they may swing in value much faster. Of course, this can also play out in our favour. For traders looking for less volatility, we can also look at foreign indices that DLCs give us exposure to. These include the Hang Seng Index (HSI) and the Hang Seng China Enterprises Index (HSCEI) in Hong Kong, as well as the S&amp;P500 Index (SPX), NASDAQ (NDX) and Dow Jones Industrial Index (DJI) in the US. Besides access, we are also able to leverage DLCs to magnify our exposure to both foreign and Singapore-listed counters. This led to the 6-figure gain that Robin realised when trading the 7x short SIMSCI DLC. For individual stocks, we can gain up to 5x leverage, while we can gain up to 7x leverage for indices. To get started on our DLC trading journey, we can preview the full list of Société Générale’s over 200 DLC listings on its website. We can also learn more about the product features, including the associated risks and applicable costs and fees of trading the DLCs on the website. Read Also: How You Can Start Trading Hong Kong Stocks On The SGX Disclaimer This advertisement has not been reviewed by the Monetary Authority of Singapore. The views expressed under this article represent the personal and independent views of the author and do not constitute investment advice. The content of this article does not form part of any offer or invitation to buy or sell any daily leverage certificates (the “DLCs”), and nothing herein should be considered as financial advice or recommendation. The price may rise and fall in value rapidly and holders may lose all of their investment. Any past performance is not indicative of future performance. Investments in DLCs carry significant risks, please see dlc.socgen.com for further information and relevant risks. The DLCs are for specified investment products (SIP) qualified investors only. Advertiser Message Looking to gain exposure to the Hong Kong Stocks here on SGX? You can do so via Daily Leverage Certificates (DLCs) that allows you to gain leveraged exposure of up 7x on key Hang Seng Indices and 5x on Hong Kong Stocks for both Long and Short direction. DLCs are listed on SGX Securities Market and can be traded through a regular stock brokerage account. Learn more about the product features and associated risks on the Societe Generale DLC website. Check out the latest Broker Promotion - Trade the DLCs and get S$200* cash credit (T&amp;Cs apply) Check out the latest Broker Promotion - Be rewarded when you trade SGX Listed DLCs. Claim your S$150 Now! (T&amp;Cs apply) This advertisement has not been reviewed by the Monetary Authority of Singapore. The DLCs are for specified investment products (SIP) qualified investors only.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>This article is sponsored by Société Générale, Singapore Branch. After a 23-year career in the Royal Singapore Navy (RSN) as the Commanding Officer (CO) of a warship, Robin left his iron rice bowl job in 2002 to pursue a career in trading. Source: Robin Ho I started snooping around for a second career. Dinesh: I understand your RHO Price Action strategy was able to accurately predict the last 3 market crashes – in 2008, 2020 and 2022. Can you give us a sneak peek into how you’re able to make such precise calls? My strategy uses price action with volumes – finding a synergy between them, similar to finding a relationship between supply and demand. One breaks out with volume, while the other breaks out without volume. In fact, I got into the teaching and training business only after Phillips (where Robin used to be a prop trader) saw how consistently I was performing and asked me to run a course to train all their professional full-time traders. Can you share how you keep up with newer products to trade, like the Daily Leverage Certificates (DLCs). Your transaction costs is also reduced due to the lower capital however holding the DLCs overnight do have costs involved as with most leverage products. Read Also: Straits Times Index | Hang Seng Index | S&amp;P 500 Index: How To Gain Both Long &amp; Short Exposure To These Indices On SGX Dinesh: You put it nicely: as with any financial product we trade, we must be aware of its characteristics. For me, the moment I spot a trend reversal, I stop buying or selling (depending on the direction of the trend). For the biggest gain: I remember making close to S$100,000 in a single trade once. Gaining Exposure To Overseas Blue Chip Stocks Directly On SGX In the more than 25 years that Robin has been trading in Singapore, he has seen many investors lured to foreign markets. At the same time, we also have access to other large cap Chinese stocks, including China Construction Bank (CCB), China Merchants Bank, China Mobile, Geely Auto, PetroChina and more. Read Also: How You Can Start Trading Hong Kong Stocks On The SGX Disclaimer This advertisement has not been reviewed by the Monetary Authority of Singapore. The views expressed under this article represent the personal and independent views of the author and do not constitute investment advice. Investments in DLCs carry significant risks, please see dlc.socgen.com for further information and relevant risks. The DLCs are for specified investment products (SIP) qualified investors only.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9997738003730774</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index drops more than 3% following Wall Street tumble - CNBC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Thu, 05 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific largely declined on Friday after an overnight drop on Wall Street sent the Dow Jones Industrial Average to its worst day since 2020. Hong Kong's Hang Seng index led losses regionally as it fell 3.81% to close at 20,001.96. In mainland China, the Shanghai Composite slipped 2.16% to end the trading day at 3,001.56 while the Shenzhen Component shed 2.141% to 10,809.88. "In Asia of course we're very much influenced by what the U.S. Fed does and the U.S. economy but now we face the zero-Covid problem from China," Richard Martin, a business consultant and managing director at IMA Asia, told CNBC's "Street Signs Asia" on Friday. Data shows China's recent Covid lockdowns are hitting more than just Beijing and Shanghai, where the bulk of new infections have been found. "A lot of the components and materials come out of China, so in addition to weak demand from China, we're going to have a shortage of components from China which on the supply side into the markets across Asia will stop factories running," Martin said.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific largely declined on Friday after an overnight drop on Wall Street sent the Dow Jones Industrial Average to its worst day since 2020. In Asia of course we're very much influenced by what the U.S. Fed does and the U.S. economy but now we face the zero-Covid problem from China," Richard Martin, a business consultant and managing director at IMA Asia, told CNBC's "Street Signs Asia" on Friday.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9982919096946716</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index rises after resuming trade; Asia markets are higher ahead of Jackson Hole - CNBC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Wed, 24 Aug 2022 23:43:54 GMT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A restaurant's windows at The Peak are taped up in Hong Kong on August 24, 2022, as Hong Kong Observatory issued a Typhoon Signal No. 8 earlier in the morning. HKEX canceled its morning session accordingly to the T8 issuance. (Photo by ISAAC LAWRENCE / AFP) (Photo by ISAAC LAWRENCE/AFP via Getty Images) Markets in the Asia-Pacific traded mostly higher ahead of the Jackson Hole symposium in the United States, while Hong Kong's session resumed in the afternoon after trading was halted due to a typhoon warning. The Hang Seng index was up 3.63% to 19,968.38 at the close, pumped higher by tech stocks. Alibaba jumped 8.75%, Tencent was up 4.84%, and JD.com rose 11%. The Hang Seng Tech index closed up 6.01%. In mainland China, the Shanghai Composite was up 0.97% at 3,246.25 at the close, while the Shenzhen Component edged higher to 12,104.03. Japan's Nikkei 225 ended the session 0.58% higher at 28,479.01, while the Topix was up 0.48% at 1,976.6. Australia's S&amp;P/ASX was also up by 0.71% at 7,048.1. In South Korea, the Kospi rose 1.22% to 2,477.26 and the Kosdaq was up 1.79% at 807.37 as the Bank of Korea raised its benchmark interest rate by 25 basis points.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A restaurant's windows at The Peak are taped up in Hong Kong on August 24, 2022, as Hong Kong Observatory issued a Typhoon Signal No. In South Korea, the Kospi rose 1.22% to 2,477.26 and the Kosdaq was up 1.79% at 807.37 as the Bank of Korea raised its benchmark interest rate by 25 basis points.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9998829364776611</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng drops more than 2% with tech stocks under pressure; yen strengthens - CNBC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Thu, 28 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng index fell more than 2% on Friday as tech stocks came under pressure. The benchmark index slipped 2.64% in the final hour of trade, while the Hang Seng Tech index dropped 5.41%. Hang Seng heavyweights Alibaba and Meituan dropped 7.01% and 7.18% respectively. Alibaba is on track for a third straight session of losses following news earlier this week that several Ant Group executives have stepped down as Alibaba partners. Meituan shares plunged after the company was summoned by Hangzhou's market regulator over food safety and price competition. Shares of Standard Chartered initially popped more 2% after the bank reported a 19% jump in profits for the first half of the year and announced a $500 million share buyback. The stock later pared gains, but was still up 0.72% in afternoon trade. Real estate stocks in Hong Kong fell Friday. This hints that the government is not going to overly spend on infrastructure projects to achieve that target. Our view is that this is not such a bad thing. ING Chinese leaders on Thursday signaled Beijing is unlikely to try to boost the economy, and downplayed the country's GDP target of "around 5.5%." "This hints that the government is not going to overly spend on infrastructure projects to achieve that target. Our view is that this is not such a bad thing," ING said in a Friday note. "This would give more room for the central government to solve the problem of uncompleted construction projects," the authors added. In mainland China, the Shanghai Composite was 0.89% lower at 3,253.24 and the Shenzhen Component dropped 1.3% to 12,266.92. Additionally, Beijing seems committed to its zero-Covid policy. "It appears to us that any change in the zero-Covid policy will only happen when authorities are convinced that mutations are less virulent and vaccines/medicines are proven to be more effective," wrote ANZ Research's Betty Wang, a senior China economist, and Zhaopeng Xing, a senior China strategist. Yen, Aussie strength The Japanese yen strengthened sharply against the greenback on Friday, after weakening for months as central bank policy in Japan diverged from the Fed's. "What we've seen certainly over the second half of this week is a big rally in U.S. rates markets," said Andrew Ticehurst, a rate strategist at Nomura Australia. "Those interest rate differentials against Japan are narrowing and that's causing dollar-yen to come off," he said. Treasury yields fell after the negative U.S. GDP print. The yen last traded hands at 132.81 per dollar. The risk-sensitive Australian dollar also strengthened, and last stood at $0.7022. "The improvement in global risk sentiment over the past 48 hours, and the slight weakening we've seen in the U.S. dollar have both been positive factors for Aussie," Ticehurst said. The U.S. dollar index , which tracks the greenback against a basket of its peers, was at 105.625. Japan's Nikkei 225 struggled for direction and closed fractionally lower at 27,801.64 while the Topix index dipped 0.44% to 1,940.31. The country's industrial output jumped 8.9% in June from the previous month, the ministry of economy, trade and industry said Friday. The print surprised to the upside after falling in May. Elsewhere, South Korea's Kospi rose 0.67% to 2,451.5 and the Kosdaq advanced 0.66% to 803.62. The S&amp;P/ASX 200 in Australia was up 0.81% to close at 6,945.2. Thailand's market is closed for a holiday Friday. MSCI's broadest index of Asia-Pacific shares outside of Japan lost 0.4%. U.S. moves</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng index fell more than 2% on Friday as tech stocks came under pressure. Hang Seng heavyweights Alibaba and Meituan dropped 7.01% and 7.18% respectively. Shares of Standard Chartered initially popped more 2% after the bank reported a 19% jump in profits for the first half of the year and announced a $500 million share buyback. This hints that the government is not going to overly spend on infrastructure projects to achieve that target. The improvement in global risk sentiment over the past 48 hours, and the slight weakening we've seen in the U.S. dollar have both been positive factors for Aussie," Ticehurst said. Japan's Nikkei 225 struggled for direction and closed fractionally lower at 27,801.64 while the Topix index dipped 0.44% to 1,940.31.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9970582723617554</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The Hang Seng Index Breaks a Long-Term Key Level: Don't Ignore This - RealMoney</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Tue, 11 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The Hang Seng Index is a "freefloat-adjusted market-capitalization-weighted stock-market index" in Hong Kong. It tracks the largest companies of the Hong Kong stock market and is the main indicator of the overall market performance there. On Tuesday, the Hang Seng Index plunged to below 17,000 points for the first time in 11 years, as Beijing tightened Covid curbs, according to reports. Let's check out the charts. In the monthly bar chart of the Index we can see that prices broke their long-term uptrend (higher highs and higher lows) and started a downtrend by breaking the prior lows in early 2020 and early 2016 and a lower high was made in early 2021. Prices trade below the bearish 12-month moving average line and the trend-following Moving Average Convergence Divergence (MACD) oscillator is bearish. In this weekly Point and Figure chart of the Hang Seng, below, we can see a price target in the 15,184 area. Bottom-line strategy: Investors in the United States tend to have a parochial view of the markets and ignore key developments overseas. I would not ignore this change of trend.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>The Hang Seng Index is a "freefloat-adjusted market-capitalization-weighted stock-market index" in Hong Kong. In this weekly Point and Figure chart of the Hang Seng, below, we can see a price target in the 15,184 area.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9999960660934448</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index falls around 3% as heavyweights Tencent, Alibaba plunge - CNBC</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sun, 10 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mainland China markets traded lower. The Shanghai Composite shed 1.27% to 3,313.58, while the Shenzhen Component lost 1.87% to 12,617.23. The CSI 300 index, which tracks the largest mainland-listed stocks, declined 1.67% to 4,354.62. Covid concerns are growing in China as Shanghai reportedly discovered a new omicron subvariant. Chinese producer inflation rose 6.1% in June compared with the same period a year ago, official data released on Saturday showed. That was slightly above the expected rate of 6%, according to a Reuters poll, but slower than May's print of 6.4%. Consumer inflation increased 2.5% from a year earlier, also slightly higher than the 2.4% predicted in a Reuters poll. Asia-Pacific markets Currencies and oil</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>The Shanghai Composite shed 1.27% to 3,313.58, while the Shenzhen Component lost 1.87% to 12,617.23. The CSI 300 index, which tracks the largest mainland-listed stocks, declined 1.67% to 4,354.62.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9981755018234253</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Things Keep Getting Worse for Hong Kong's Embattled Stock Market - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Thu, 29 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>China and Asean to put meme stocks and crypto punts in the dust as bear enters new year - The Edge Singapore</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 04:17:50 GMT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index slips more than 2% as China tech stocks drop; dollar-yen goes above 128 level - CNBC</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mon, 18 Apr 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed in Tuesday trade, as investors watched for market reaction to China's central bank announcing financial support for Covid-hit sectors. Hong Kong's Hang Seng index led losses among the region's major markets as it dropped 2.28% to close at 21,027.76 in its return to trade following holidays on Friday and Monday. Chinese tech stocks in the city tumbled after authorities in China announced Friday a ban on the livestreaming of unauthorized video games. Shares of Bilibili plunged 10.92% while NetEase shed 2.99%. Tencent also fell 2.78% and Alibaba dropped 4.19%. The Hang Seng Tech index declined 3.79% to 4,156.42. The Hong Kong market is expected to remain volatile as earnings "continue to face downward pressure," Bank of America Securities' Winnie Wu told CNBC's "Street Signs Asia" on Tuesday. Hong Kong's economy is also closely tied to mainland China, said Wu, China equity strategist at the firm. "We're very concerned about China's economy under this zero-Covid policy," she said. Mainland China has for weeks been battling its most severe Covid outbreak since the initial phase of the pandemic in 2020.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed in Tuesday trade, as investors watched for market reaction to China's central bank announcing financial support for Covid-hit sectors. The Hong Kong market is expected to remain volatile as earnings "continue to face downward pressure," Bank of America Securities' Winnie Wu told CNBC's "Street Signs Asia" on Tuesday.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9998922348022461</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index jumps 3%, leading gains as Asia-Pacific stocks rise - CNBC</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mon, 16 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Tuesday as Hong Kong stocks led gains regionally. The Hang Seng index surged 3.27% on Tuesday to close at 20,602.52 as Chinese tech stocks jumped. Tencent rose 5.26% while Alibaba soared 7.03% and Meituan gained 6.24%. The Hang Seng Tech index climbed 5.78% to 4,272.95. Mainland Chinese stocks edged higher on the day, with the Shanghai Composite up 0.65% to 3,093.70 while the Shenzhen Component rose 1.233% to 11,230.16. As is often the case with equity markets, when the news simply looks like it can't get any worse, that is when market participants start seeing less bad as the new good. David Wong senior investment strategist, AllianceBernstein The Nikkei 225 in Japan climbed 0.42% to close at 26,659.75 while the Topix index rose 0.19% to 1,866.71. South Korea's Kospi gained 0.92% to end the trading day at 2,620.44 while the S&amp;P/ASX 200 in Australia closed 0.27% higher at 7,112.50. MSCI's broadest index of Asia-Pacific shares outside Japan jumped 2.16%. "As is often the case with equity markets, when the news simply looks like it can't get any worse, that is when market participants start seeing less bad as the new good," David Wong, senior investment strategist at AllianceBernstein, told CNBC's "Street Signs Asia" on Tuesday. "When we're looking at China, the fundamental data has been so poor and there has been so much bad news that there is I think a growing sentiment that there is going to be more policy support for the economy, for companies and for markets," Wong said. Wong's comments come as global investors have for weeks been grappling with a range of concerns from the economic impact of mainland China's strict zero-Covid policy to fears of a potential recession in the U.S. RBA meeting minutes released The Reserve Bank of Australia could further increase interest rates to ensure that inflation in the country "returns to the target over time,." minutes from the central bank's May meeting showed Tuesday. The country had announced its first rate hike in more than a decade. "Inflation was now above the target and was not forecast to return to the target range until mid-to-late 2024," the minutes said. "While the significant rise in inflation had been largely the result of global factors, which were likely to have a more temporary effect on inflation, the flow of information on inflation and wages over the preceding month had been consistent with more persistent inflationary pressures arising from limited spare capacity in the domestic economy." Currencies and oil</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Tuesday as Hong Kong stocks led gains regionally. David Wong senior investment strategist, AllianceBernstein The Nikkei 225 in Japan climbed 0.42% to close at 26,659.75 while the Topix index rose 0.19% to 1,866.71. As is often the case with equity markets, when the news simply looks like it can't get any worse, that is when market participants start seeing less bad as the new good," David Wong, senior investment strategist at AllianceBernstein, told CNBC's "Street Signs Asia" on Tuesday. "</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9990870952606201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chinese tech stocks in Hong Kong jump as Hang Seng index rises 2% - CNBC</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sun, 03 Apr 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng index led gains among the major Asia-Pacific markets on Monday as Chinese tech stocks in the city jumped. The Hang Seng index gained 2.1% to close at 22,502.31 as shares of Tencent surged 2.96%. Other Chinese tech stocks also rose — Alibaba was up 3.65% while NetEase soared 6.62%. Investor sentiment may have been buoyed by a recent signal by Chinese authorities of progress toward resolving an audit dispute that's threatened U.S.-listed Chinese firms with delisting. Meanwhile, the city's chief executive Carrie Lam announced Monday she will not be pursuing a second term in office. Markets in mainland China are closed on Monday and Tuesday this week for holidays. The Nikkei 225 in Japan swung between positive and negative territory in Monday trading before closing 0.25% higher at 27,736.47. The Topix index climbed 0.48% to 1,953.63. South Korea's Kospi climbed 0.66% on the day to 2,757.90.Elsewhere in Australia, the S&amp;P/ASX 200 rose 0.27%, closing at 7,513.70. Over in Sri Lanka, the S&amp;P SL20 index closed 1.48% lower at 2,788.97 as the country continues to see economic and political turmoil. Sri Lanka's central bank governor announced in a Monday tweet that he had submitted his resignation to the country's president. The country's Youth and Sports Minister Namal Rajapaksa also announced his resignation on Twitter. MSCI's broadest index of Asia-Pacific shares outside Japan gained 1.1%.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng index led gains among the major Asia-Pacific markets on Monday as Chinese tech stocks in the city jumped. Over in Sri Lanka, the S&amp;P SL20 index closed 1.48% lower at 2,788.97 as the country continues to see economic and political turmoil. Sri Lanka's central bank governor announced in a Monday tweet that he had submitted his resignation to the country's president.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.989096462726593</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng closes 4% higher, as Chinese stocks gain on hopes of more policy support - CNBC</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Thu, 28 Apr 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Friday, with technology stocks in the region jumping following big gains on Wall Street that saw the Nasdaq Composite surging 3%. Hong Kong's Hang Seng index closed 4.01% higher at 21,089.39, leading gains among the region's major markets. Mainland Chinese stocks also saw sizable gains, with the Shanghai Composite closing 2.41% higher at 3,047.06 while the Shenzhen Component soared 3.693% to around 11,021.44. The surge in the China markets came after Chinese state media on Friday reported details of a Politburo meeting where officials promised more policy support to meet the country's economic growth target for the year. "The most important message is a change of policy priority. In the past few weeks the top priority seems to be containing Omicron outbreaks. Now the goal is to balance containing outbreaks and economic growth. This suggests the government may fine-tune the 'zero tolerance' policy to allow some flexibility," Zhang Zhiwei, chief economist at Pinpoint Asset Management, wrote in a note. Mainland China has in recent weeks been battling its worst Covid outbreak since the initial shock of the pandemic in early 2020, with concerns surrounding the country's economic outlook as authorities continues to stick with a strict "zero-Covid" strategy.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Friday, with technology stocks in the region jumping following big gains on Wall Street that saw the Nasdaq Composite surging 3%. Mainland China has in recent weeks been battling its worst Covid outbreak since the initial shock of the pandemic in early 2020, with concerns surrounding the country's economic outlook as authorities continues to stick with a strict "zero-Covid" strategy.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9997296929359436</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Technical Outlook: Downward Momentum Is Accelerating - DailyFX</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mon, 24 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index is on the verge of another technical break down. The index risks a drop towards the Great Financial Crisis low. What are the key levels to watch? Recommended by Manish Jaradi Get Your Free Equities Forecast Get My Guide HANG SENG INDEX TECHNICAL OUTLOOK - BEARISH Accelerating downward momentum in the Hang Seng Index (HSI) raises the risk of a retest of the Great Financial Crisis (GFC) low. The index is now attempting to break below vital converged support, including the 2011 low of 16170, roughly coinciding with 15900 (the 78.6% retracement of the 2008-2018 rally) – the last significant support ahead of the 2008 low of 10676. The 14-month Relative Strength Index, a measure of momentum, is the lowest in decades, heightening the odds of a drop towards 10676 in coming months. Hang Seng Index Monthly Chart Chart Created Using TradingView A buoyant mood on Wall Street Friday failed to spill over to stocks in Hong Kong and China– the Hang Seng Index fell over 4% on Monday morning, while the Shanghai Composite Index fell 1%. Investors were hoping for some economic growth-boosting measures to be announced at the Communist Party of China’s 20th National Congress that closed over the weekend. However, the meeting was mostly about personnel changes. In reaction, Hong Kong stocks plunged to a new 13-year low on Monday. In recent months, the Hong Kong benchmark index has broken one support after another, with the most significant one being the break below an uptrend line from 2016 (that came at about 22600). That breach triggered a major Head &amp; Shoulders pattern (the left shoulder is at the 2015 high, the head is at the 2018 high, and the right shoulder is at the 2021 high), implying a potential move towards the GFC low of 10676. Importantly, the fall below 22600 has also cracked Hong Kong stocks’ long-term, structural uptrend. On the upside, for the immediate downward pressure to fade, HSI would need to clear the early-October high of 18164 and the March low of 18235. HSI would need to regain the 200-day moving average (now at about 20935) to neutralize medium-term bearish positioning. Until then, the path of least resistance remains sideways/down. Recommended by Manish Jaradi The Fundamentals of Trend Trading Get My Guide --- Written by Manish Jaradi, Strategist for DailyFX.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>HANG SENG, HK Equities, HSI - Technical Outlook: The Hang Seng Index is on the verge of another technical break down. Recommended by Manish Jaradi Get Your Free Equities Forecast Get My Guide HANG SENG INDEX TECHNICAL OUTLOOK - BEARISH Accelerating downward momentum in the Hang Seng Index (HSI) raises the risk of a retest of the Great Financial Crisis (GFC) low. Investors were hoping for some economic growth-boosting measures to be announced at the Communist Party of China’s 20th National Congress that closed over the weekend.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9993672966957092</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng up 2% as Asia markets gain; logistics firm GoGoX falls below offer price - CNBC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Thu, 23 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in the Asia-Pacific were higher on Friday, led by tech stocks on the Hong Kong market. Hong Kong's Hang Seng index jumped 2.09% to close at 21,719.06, with the Hang Seng Tech index rising 4.05%. SenseTime was up 4.74% and Xpeng rose 7.32%. Logistics company GoGoX fell in afternoon trade to close at 16.72 Hong Kong dollars ($2.13) after reaching 23.15 Hong Kong dollars earlier in its debut session. The stock's offer price was 21.50 Hong Kong dollars. In Japan markets, the Nikkei 225 advanced 1.23% to close at 26,491.97, while the Topix climbed 0.81% to 1,866.72. SoftBank Group's chief executive, Masayoshi Son, said on Friday that chip designer Arm was mostly likely to be listed on the Nasdaq, though the decision is not final, Reuters reported. "Most of Arm's clients are based in Silicon Valley and … stock markets in the U.S. would love to have Arm," Son said at the company's annual general meeting, according to Reuters. Softbank shares rose 2.37%. Mainland Chinese markets rose. The Shanghai Composite gained 0.89% in the afternoon to close at 3,349.75, and the Shenzhen Component was 1.369% higher at 12,686.03. South Korea's Kospi gained 2.26% to end the session at 2,366.6, and the Kosdaq advanced around 5% to 750.3. The S&amp;P/ASX 200 in Australia rose 0.77% to close at 6,578.7. The New Zealand market is closed for a holiday on Friday. MSCI's broadest index of Asia-Pacific shares was up 1.32%.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in the Asia-Pacific were higher on Friday, led by tech stocks on the Hong Kong market. The Shanghai Composite gained 0.89% in the afternoon to close at 3,349.75, and the Shenzhen Component was 1.369% higher at 12,686.03.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9999929666519165</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Asia markets sell off as Hong Kong's Hang Seng falls more than 2% and Tencent shares plunge - CNBC</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wed, 18 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Most Asia-Pacific markets fell sharply in Thursday trade after heavy losses on Wall Street overnight. Hong Kong's Hang Seng index was among the biggest losers regionally, falling 2.54% to close at 20,120.68. Shares of Chinese tech behemoth Tencent plunged 6.51% after reporting that its quarterly profit halved. Other Chinese tech stocks in Hong Kong also saw heavy losses, with Alibaba falling 7.39% while Meituan shed 3.78%. The Hang Seng Tech index slipped 3.98% to 4,090.72. On one hand, investors are sort of worried that inflation is going to take hold and hurt earnings ... which is obviously very damaging for investors. But on the other hand, they're equally as concerned about growth opportunities. Mark Konyn group chief investment officer, AIA Shares in India also saw sizable losses, with the Nifty 50 and BSE Sensex both falling more than 2% each, as of 1:48 p.m. local time. The Nikkei 225 in Japan fell 1.89% to close at 26,402.84 while the Topix index shed 1.31% to 1,860.08. Japan's exports rose 12.5% year-on-year in April, data from the country's Ministry of Finance showed Thursday. That was lower than expectations for a 13.8% increase, according to Reuters. South Korea's Kospi dropped 1.28% on the day to 2,592.34, while the S&amp;P/ASX 200 in Australia slipped 1.65% to close at 7,064.50. Mainland Chinese stocks bucked the overall trend regionally as they closed higher, with the Shanghai Composite climbing 0.36% to 3,096.96 while the Shenzhen Component gained 0.375% to 11,250.06. MSCI's broadest index of Asia-Pacific shares outside Japan declined 2.17%. There's currently a "bifurcation" in market sentiment, said AIA's Mark Konyn. "On one hand, investors are sort of worried that inflation is going to take hold and hurt earnings, and change the rating on equity markets, which is obviously very damaging for investors. But on the other hand, they're equally as concerned about growth opportunities," Konyn, group chief investment officer at the firm, told CNBC's "Squawk Box Asia" on Thursday. watch now "As we saw last night, we saw guidance from Target, we've seen guidance from Walmart suggesting that margins are under pressure and immediately investors ran for the hills," he said. UOB Private Bank Investment Strategist, Francis Tan, said sentiment is likely playing a much bigger role than fundamentals in the markets currently. "We have seen that the markets consistently have been looking for things to be negative on," Tan told CNBC's "Street Signs Asia" on Thursday. He added that fundamentals in Asia — much stronger today as compared with two or three decades ago — are likely to eventually prevail. Major indexes on Wall Street tumbled, with the Dow Jones Industrial Average closing at its lowest since March 2021. The Dow dropped 1,164.52 points, or 3.57%, to 31,490.07. The S&amp;P 500 slipped 4.04% to 4,923.68, while the tech-heavy Nasdaq Composite fell 4.73% to 11,418.15. Australia's seasonally adjusted unemployment rate for April was at 3.9%, data from the Australian Bureau of Statistics showed Thursday. "3.9 per cent is the lowest the unemployment rate has been in the monthly survey. The last time the unemployment rate was lower than this was in August 1974, when the survey was quarterly," Bjorn Jarvis, head of labor statistics at the ABS, said in a release. Currencies and oil</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Most Asia-Pacific markets fell sharply in Thursday trade after heavy losses on Wall Street overnight. On one hand, investors are sort of worried that inflation is going to take hold and hurt earnings ... which is obviously very damaging for investors. Mark Konyn group chief investment officer, AIA Shares in India also saw sizable losses, with the Nifty 50 and BSE Sensex both falling more than 2% each, as of 1:48 p.m. local time. Japan's exports rose 12.5% year-on-year in April, data from the country's Ministry of Finance showed Thursday. Mainland Chinese stocks bucked the overall trend regionally as they closed higher, with the Shanghai Composite climbing 0.36% to 3,096.96 while the Shenzhen Component gained 0.375% to 11,250.06.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9999955892562866</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nifty to head towards 18800 or correction on cards? 7 key things to know before share market opens - The Financial Express</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 02:11:34 GMT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Indian benchmark indices are expected to open in the green amid positive global cues. Trends in the SGX Nifty hinted at a positive opening for domestic equities as Nifty futures traded 77 pts higher at 18994 on the Singapore Exchange. In the previous session, the BSE Sensex rose 418 points to 63,100, while NSE Nifty 50 jumped 140 points to 18,758. “India is currently seen as a green shoot in an otherwise weak global economic scenario because of its strong macroeconomic performance in recent months. Technically, the Nifty holds the uptrend continuation formation. However, intraday texture is mildly overbought hence we could expect some profit booking at higher levels,” said Shrikant Chouhan, Head of Equity Research (Retail), Kotak Securities. Key things to know before share market opening bell Global market watch: Markets in Asia traded higher, tracking the optimism behind Wall Street’s rally as US Federal Reserve Chair Jerome Powell confirmed smaller rate hikes could start in December. Hong Kong’s Hang Seng index led gains in the region, rising 2.5% in its first hour of trade. In mainland China, the Shanghai Composite was up 1.29%, while Japan’s Nikkei 225 rose 1.13%. In South Korea, the Kospi gained 0.77% in morning trade. Overnight in the US, all three major indexes ended the session higher, with the S&amp;P ending its 3-day losing streak and the Dow Jones jumping 700 points after Powell’s comments. Also Read: Zomato, PNB, KPI Green Energy, TVS Motor, TCS, Apollo Hospitals, Wipro stocks in focus on F&amp;O expiry Nifty technical view: A long bull candle was formed on the daily chart with minor upper shadow. “Technically, this pattern indicates a continuation of upside momentum in the market. After showing a choppy movement in the last couple of sessions the market displayed a strong upside momentum towards the later part of the session. This is a positive indication. The positive chart pattern of higher tops and bottoms continued on the daily chart. Though Nifty placed near the higher top around 18800 levels, still there is no indication of reversal pattern forming at the highs,” said Nagaraj Shetti, Technical Research Analyst, HDFC Securities. Levels to watch for: “The Nifty made a new all-time during the day as the Nifty bulls remained at the helm during the day. The crucial short-term moving averages are sitting below the index value, confirming the positive trend. The trend is likely to remain bullish as long as it remains above 18,600 as the support level shifts higher. On the higher end, resistance is visible at 18,800/19,000,” said Rupak De, Senior Technical Analyst at LKP Securities. “The Bank Nifty index continued to trade in a narrow range between 43,000-43,500 where both the bulls and the bears are sitting on the lines. The undertone remains bullish and one should keep a buy-on-dip approach as long as it maintains the support of 42,800 on the downside. The index on the upside to resume the momentum must surpass the hurdle of 43,500 on a closing basis,” said Kunal Shah, Senior Technical Analyst at LKP Securities. FII and DII data: Foreign institutional investors (FIIs) net bought shares worth Rs 9,010.41 crore, while domestic institutional investors (DIIs) net offloaded shares worth Rs 4,056.40 crore on 30 November, according to the provisional data available on the NSE. Stocks under F&amp;O ban on NSE: Punjab National Bank, BHEL, Delta Corp and Indiabulls Housing Finance are the four securities under the NSE F&amp;O ban list for 1 December. Securities thus banned under the F&amp;O segment include companies where derivative contracts have crossed 95% of the market-wide position limit. GDP growth falls to 6.3%: India’s GDP growth more than halved to 6.3% in July-September from 13.5% in April-June, data released on 30 November by the Ministry of Statistics and Programme Implementation showed. At 6.3%, the latest quarterly growth number is in line with the Reserve Bank of India’s (RBI) own forecast of 6.3%. In nominal terms, India’s GDP grew by 16.2% last quarter. Also Read: India’s fiscal deficit widens to Rs 7.58 lakh cr in Apr-Oct FY23; hits 45% of FY23 target Fiscal deficit widens: The central government’s fiscal deficit widened to Rs 7.58 lakh crore in April-October, accounting for 45.6% of the full-year target. The fiscal deficit for April-October 2021 had accounted for 36.3% of the FY22 target. The fiscal deficit in the first seven months of the last financial year was Rs 5.47 lakh crore. As such, the fiscal deficit in April-October of the current financial year is 39% higher on an on-year basis. The government is targeting a fiscal deficit of Rs 16.61 lakh crore for FY23, or 6.4% of GDP.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Indian benchmark indices are expected to open in the green amid positive global cues. Overnight in the US, all three major indexes ended the session higher, with the S&amp;P ending its 3-day losing streak and the Dow Jones jumping 700 points after Powell’s comments. Technically, this pattern indicates a continuation of upside momentum in the market. The Bank Nifty index continued to trade in a narrow range between 43,000-43,500 where both the bulls and the bears are sitting on the lines. The index on the upside to resume the momentum must surpass the hurdle of 43,500 on a closing basis,” said Kunal Shah, Senior Technical Analyst at LKP Securities. Also Read: India’s fiscal deficit widens to Rs 7.58 lakh cr in Apr-Oct FY23; hits 45% of FY23 target Fiscal deficit widens: The central government’s fiscal deficit widened to Rs 7.58 lakh crore in April-October, accounting for 45.6% of the full-year target. The fiscal deficit in the first seven months of the last financial year was Rs 5.47 lakh crore.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.6501870155334473</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nikkei Index In 4-day Slump, Sensex Surges On Foreign Flows - 123Jump</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 18:15:30 GMT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng leads gains, Asia stocks rise after better-than-expected U.S. inflation report - CNBC</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wed, 10 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Asia-Pacific markets climbed on Thursday after a better-than-expected inflation report in the U.S. sent stocks spiraling higher. Hong Kong's Hang Seng index advanced 2.4% to 20,082.43, with the Hang Seng Tech index rising 3.67%. Mainland China markets also ticked up. The Shanghai Composite gained 1.6% to close at 3,281.67 and the Shenzhen Component climbed 2.05% to 12,474.03. We doubt very much that one monthly data point will be sufficient to get the Fed to drop its hawkish guard. Brian Martin, Daniel Hynes ANZ Research Australia's S&amp;P/ASX 200 rose 1.12% to end the session at 7,071. The Kospi in South Korea was 1.73% higher at 2,523.78 and the Kosdaq jumped 1.45% to 832.15. MSCI's broadest index of Asia-Pacific shares outside of Japan increased 1.76%. Japan's market is closed for a holiday Thursday. Consumer prices rose 8.5% in July compared to the same period a year ago, a slightly better result than the 8.7% increase that economists polled by Dow Jones were expecting. The Dow Jones Industrial Average leapt 535.10 points, or 1.63%, to close at 33,309.51. The S&amp;P 500 jumped 2.13% to 4,210.24, and the Nasdaq Composite soared 2.89% to 12,854.80. "It's understandable that markets were pleased to see better inflation headlines overnight. But while the change matters, central banks care more about the level of inflation and there's a long and uncertain path down that mountain," Brian Martin and Daniel Hynes of ANZ Research wrote in a Thursday note. "We doubt very much that one monthly data point will be sufficient to get the Fed to drop its hawkish guard," the note said. PBOC report The People's Bank of China, in its monetary policy report released Wednesday, highlighted the inflation risk that lies ahead. Official data on Wednesday showed China's consumer price index hit a two-year high in July. "The [PBOC monetary policy report] proposed three drivers for elevated inflation pivot ahead: i) the consumption recovery post Omicron wave; ii) the spillover effect from global energy price fluctuation; iii) the swift turnaround of pork cycle," according to a Citi research report. "We see evidently a rising concern on inflation risk from the PBoC, which may be reflected in easing decisions ahead," the analysts wrote. In company news, SoftBank Group said it would reduce its stake in Chinese tech giant Alibaba through an early physical settlement of prepaid forward contracts for around 242 million American Depository Receipts. The move would add 4.6 trillion yen ($34.6 billion) to its pre-tax gains, SoftBank estimated. "By settling these contracts early, SBG will be able to eliminate concerns about future cash outflows, and furthermore, reduce costs associated with these prepaid forward contracts," the company said in a press release. "These will further strengthen our defense against the severe market environment." Separately, Apple supplier Foxconn on Wednesday posted results that beat expectations, but was cautious on the outlook. Foxconn shares rose 2.73% on Thursday. Property developer Longfor Group's shares added 4.31% on Wednesday after the company confirmed in an announcement that it did not defer a debt payment. The stock plunged sharply in the previous session. Currencies and oil</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Asia-Pacific markets climbed on Thursday after a better-than-expected inflation report in the U.S. sent stocks spiraling higher. We doubt very much that one monthly data point will be sufficient to get the Fed to drop its hawkish guard. The Kospi in South Korea was 1.73% higher at 2,523.78 and the Kosdaq jumped 1.45% to 832.15. We see evidently a rising concern on inflation risk from the PBoC, which may be reflected in easing decisions ahead," the analysts wrote. Property developer Longfor Group's shares added 4.31% on Wednesday after the company confirmed in an announcement that it did not defer a debt payment.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9958153367042542</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Macau Casinos Head for Worst Year on Record Due to Covid Squeeze - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 04:55:00 GMT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Alibaba Health Shares Rise After Swinging to Profit in First Half - Morningstar</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Tue, 29 Nov 2022 03:25:00 GMT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>By Clarence Leong Shares of Alibaba Health Information Technology Ltd. rose strongly after it swung to a profit in its fiscal first half. Alibaba Health's Hong Kong-listed stock gained 9.2% to 6.07 Hong Kong dollars (US$0.78) on Tuesday, paring year-to-date losses to 7.9%. The stock outperformed the Hang Seng Tech index's 4.7% rise and the benchmark Hang Seng Index's 3.5% increase. The company said late Monday that it achieved a turnaround in its first half ended Sept. 30, posting a net profit of 160.7 million yuan (US$22.3 million), compared with a net loss of CNY231.8 million a year earlier. Revenue for the period increased 23% from the year-earlier period to CNY11.50 billion, driven by its pharmaceutical direct sales business, which grew 24%, it said. Gross profit margin for that segment improved, thanks to stronger bargaining and digital-marketing capabilities, although overall gross profit margin was flat at 20%, Alibaba Health said. The company said its pharmaceutical e-commerce platform served 27,000 merchants at the end of the period, up by 2,000 from a year earlier, while annual active consumers of its direct online stores rose more than 30 million to above 120 million over the same period. Write to Clarence Leong at clarence.leong@wsj.com (END) Dow Jones Newswires November 28, 2022 22:25 ET (03:25 GMT) Copyright (c) 2022 Dow Jones &amp; Company, Inc.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>By Clarence Leong Shares of Alibaba Health Information Technology Ltd. rose strongly after it swung to a profit in its fiscal first half. The company said late Monday that it achieved a turnaround in its first half ended Sept. 30, posting a net profit of 160.7 million yuan (US$22.3 million), compared with a net loss of CNY231.8 million a year earlier.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9999958276748657</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Alibaba, XPeng Stocks Slip: Hang Seng Index Weakens, American Firms's China Optimism Hits Record Low - Al - Benzinga</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mon, 29 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>The Hang Seng Index opened 1.5% lower on Tuesday, as investors factored in the possibility of an aggressive rate hike in the U.S. when the Federal Open Market Committee meets in September. Market participants also weighed the results of a survey that showed American firms’ optimism about China hit a record low. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -0.63% JD.com Inc JD -0.16% Baidu Inc BIDU -1.78% Tencent Holdings Ltd. TCEHY -0.74% Meituan MPNGF -0.91% Nio Inc NIO 0.46% XPeng Inc XPEV -1.16% Li Auto Inc LI -2.05% Key Support Level Breached: The Hang Seng index has broken a key short-term support level of 19,898 on Tuesday morning. The next support level lies at 19,195. Macro News: According to a new survey from a U.S. business group, American firms’ optimism about China has declined to a record low, with President Xi Jinping’s "Covid Zero" policy forcing more than half of companies to delay or cancel investment, reported Bloomberg. Only 51% of respondents showed some degree of optimism about their five-year business outlook in China, down from 69% last year. Also Read: Warren Buffett-backed BYD's H1 Profit More Than Triples Despite Inflation Pressures In a rare move, China has sent high-ranking officials, including cabinet ministers, across the nation to demand local governments do more to stabilize growth, the South China Morning Post reported. Company News: Warren Buffett-backed BYD’s BYDDF first half gross profits more than tripled to 3.595 billion yuan. Tencent-backed Tuhu Car shifted its listing plan from the U.S. to Hong Kong while aiming to raise close to $400 million, reported the South China Morning Post, citing sources. Top Gainers and Losers: Techtronic Industries Company Ltd and ENN Energy Holdings Ltd led gains among the top 30 Hang Seng constituents, rising over 2%. China Mengniu Dairy Company Ltd and Alibaba Health Information Technology Ltd were the top losers, down over 1.5%. Global News: U.S. futures traded in the green on Tuesday morning Asia session. The Dow Jones futures were up 0.17%, while the Nasdaq futures gained 0.25%. The S&amp;P 500 futures were up 0.18%. Elsewhere in Asia, Australia’s ASX 200 gained 0.46%. Japan’s Nikkei 225 was up 0.87%, while China’s Shanghai Composite index was trading flat. South Korea’s Kospi gained 0.49%.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>The Hang Seng Index opened 1.5% lower on Tuesday, as investors factored in the possibility of an aggressive rate hike in the U.S. when the Federal Open Market Committee meets in September. Macro News: According to a new survey from a U.S. business group, American firms’ optimism about China has declined to a record low, with President Xi Jinping’s "Covid Zero" policy forcing more than half of companies to delay or cancel investment, reported Bloomberg. Company News: Warren Buffett-backed BYD’s BYDDF first half gross profits more than tripled to 3.595 billion yuan.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9599141478538513</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hang Seng slumps to 68-month closing low; hopes on Sino-U.S. talks lift A-shares - Reuters</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Fri, 11 Mar 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Summary Summary Companies Hang Seng -1.6% CSI300 +0.3%, SSEC +0.4% China, U.S. regulators expected to reach consensus soon -source Hang Seng Tech index turns around from nearly 9% drop Hong Kong dollar, yuan weaken SHANGHAI, March 11 (Reuters) - Hong Kong's Hang Seng index slipped to its lowest close in over five-and-a-half years on Friday, but trimmed earlier losses as investors' hopes rose for an agreement between Chinese and U.S. regulators over securities supervision. Hong Kong-listed tech giants had led a broad slump in Chinese stocks early on Friday after the U.S. Securities Exchange Commission (SEC) identified Chinese companies that will be delisted if they do not provide access to audit documents. But by the end of the day, the Hang Seng Index (.HSI) narrowed a 3.9% drop to finish 1.6% lower - still its lowest close since July 6, 2016. The Hang Seng Tech Index (.HSTECH), down nearly 9% at one point, finished 4.28% down, at its lowest-ever close. In mainland markets, China's CSI300 Index (.CSI300) closed 0.3% higher, reversing an earlier 2.7% drop. The Shanghai Composite index finished 0.4% higher. The reversal onshore was sparked by renewed hopes for consultations between China and the U.S. on audit and regulatory cooperation. Those talks are moving "relatively smoothly", and consensus is expected to be reached soon, sources told Reuters. read more Earlier on Friday, the China Securities Regulatory Commission (CSRC) said in a post on its official WeChat page that it has continued to communicate with U.S. counterparts and has made "positive progress". read more The CSRC's statement came amid a concerted effort by major Chinese companies and state media this week to reassure investors the country's economic and market fundamentals are strong, as the CSI300 has dropped to more than 20-month lows. read more It also followed the SEC's naming of five New York-listed Chinese stocks that could be delisted sparked a selloff in their shares. The Nasdaq Golden Dragon China Index (.HXC) tumbled 10% on Thursday to its lowest level in nearly six years. "Wall Street has always been skeptical toward Chinese companies, and it's getting more so. And such worries are being taken into investors' consideration," said Michael Qian, a banker at Bundstone Capital Partners. Companies on the SEC list led the slump on Friday. Yum China Holdings (9987.HK), Zai Lab , HUTCHMED (China) Ltd (0013.HK) and Beigene Ltd (6160.HK) falling between 11% and 17% before closing between 4.9% and 9.5% lower. In Shanghai, shares of ACM Research Shanghai Inc (688082.SS) were down as much as 10%, but closed 5.4% lower. In response to the SEC statement, Yum China, which owns KFC, Taco Bell and Pizza Hut restaurants in China, said it may have to delist from the New York stock exchange by 2024. read more The SEC's naming of the firms added to pressure on already shaky Chinese equity markets, reeling from factors including economic concerns, the Ukraine conflict and the announcement this week by Norway's sovereign wealth fund that it was excluding Chinese sportswear maker Li Ning (2331.HK) over human rights concerns. read more The fresh worries on Friday even weighed on Hong Kong's currency amid heavy outflows from Hong Kong-listed shares, traders said. The Hong Kong dollar at one point slipped nearly 0.1% to 7.8296 per U.S. dollar, its weakest since Dec. 9, 2019. China's yuan was also softer, trading at 6.3255 per dollar and reflecting broad strength in the greenback following a strong U.S. inflation report. Linus Yip, chief strategist at First Shanghai Group, said that although the SEC move was not totally unexpected, investors were interpreting it negatively given heightened geopolitical tensions. "The atmosphere now is bad. We have Sino-U.S. frictions, the Ukraine crisis, prospects of rate hikes and more," Yip said. "So it's natural for investors to look on the dark side." However, he said oversold stocks that will be little-affected by the SEC rules, such as Tencent, would provide buying opportunities. Reporting by Jason Xue, Samuel Shen and Andrew Galbraith in Shanghai, and Donny Kwok in Hong Kong; Editing by Lincoln Feast, Bernard Orr, Kenneth Maxwell and Krishna Chandra Eluri Our Standards: The Thomson Reuters Trust Principles.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Summary Summary Companies Hang Seng -1.6% CSI300 +0.3%, SSEC +0.4% China, U.S. regulators expected to reach consensus soon -source Hang Seng Tech index turns around from nearly 9% drop Hong Kong dollar, yuan weaken SHANGHAI, March 11 (Reuters) - Hong Kong's Hang Seng index slipped to its lowest close in over five-and-a-half years on Friday, but trimmed earlier losses as investors' hopes rose for an agreement between Chinese and U.S. regulators over securities supervision. The Hang Seng Tech Index (.HSTECH), down nearly 9% at one point, finished 4.28% down, at its lowest-ever close. And such worries are being taken into investors' consideration," said Michael Qian, a banker at Bundstone Capital Partners. read more The SEC's naming of the firms added to pressure on already shaky Chinese equity markets, reeling from factors including economic concerns, the Ukraine conflict and the announcement this week by Norway's sovereign wealth fund that it was excluding Chinese sportswear maker Li Ning (2331.HK) over human rights concerns. Reporting by Jason Xue, Samuel Shen and Andrew Galbraith in Shanghai, and Donny Kwok in Hong Kong; Editing by Lincoln Feast, Bernard Orr, Kenneth Maxwell and Krishna Chandra Eluri Our Standards: The Thomson Reuters Trust Principles.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7333495616912842</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng slips nearly 1% in mixed Asia trading day; oil jumps 4% - CNBC</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sun, 20 Mar 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed on Monday as investors reacted to the release of China's latest benchmark lending rate, while oil prices surged 4%. Hong Kong's Hang Seng index , which rose more than 1% in early trade, erased gains and closed 0.89% lower at 21,221.34. The city's benchmark index finished more than 4% higher last week following a volatile week which swung between big gains and losses. Trading in the Hong Kong-listed shares of China Evergrande and its property services and new energy vehicle unit was halted on Monday, according to exchange notices. Evergrande said the trading halt was related to the pending release of an announcement containing inside information. Meanwhile, Hong Kong-listed shares of Russia's Rusal dropped 5.4%. The firm said Monday it was evaluating the impact of a ban announced Sunday by the Australian government on exports of alumina and aluminum ores to Russia. Mainland Chinese stocks, on the other hand, closed in positive territory. The Shanghai composite rose fractionally to 3,253.69 and the Shenzhen component advanced 0.414% to 12,379.64. China's one-year loan prime rate was kept unchanged at 3.7% on Monday, largely in line with expectations from a Reuters survey. Investors have been watching for hints of policy support from Beijing following a Chinese state media report last week that signaled support for Chinese stocks. UBS Global Wealth Management's Eva Lee said policy easing measures by Chinese authorities — including one to two rounds of cuts in the reserve requirement ratio for banks — are expected ahead. She added the earliest of any actions may be in early April, based on past practices. "We got to be patient on this, but we do believe that it's coming," Lee, head of Greater China equities at the firm's chief investment office, told CNBC's "Street Signs Asia" on Monday.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed on Monday as investors reacted to the release of China's latest benchmark lending rate, while oil prices surged 4%. Meanwhile, Hong Kong-listed shares of Russia's Rusal dropped 5.4%. Investors have been watching for hints of policy support from Beijing following a Chinese state media report last week that signaled support for Chinese stocks.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.829538881778717</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Evergrande among six Chinese developers booted from Hang Seng Index - The Real Deal</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sat, 16 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A key Hong Kong Stock Exchange index removed six Chinese property developers, including Evergrande’s property management unit, that either sought debt payment extensions or defaulted and failed to release 2021 financial results. Evergrande, Sunac, Kaisa Group, China Aoyuan and Shimao Group were dropped last week from the Hang Seng Composite Index, according to Chinese business news outlet Caixin Global. The index, which measures 95 percent of the value of all companies listed in Hong Kong, took the move after their shares had been suspended from trading. Chinese developers have struggled since 2020, when regulators rolled out deleveraging measures. Shimao, one of China’s largest developers, recently defaulted on a $1 billion bond payment after failing to pay interest and principal. About 60 Chinese developers have more than $13 billion in debt coming due before the end of the year, according to data from Dealogic. The distressed firms are expected to ask for extensions on this debt, though investors are becoming hesitant to refinance or pour more money into the property market. “Banks will continue to be selective about financing developers through loans, bonds and asset management products, while investors will likely remain cautious about investing in developers,” Moody’s said in a report cited by Caixin. None of the six have projects in the U.S., where Chinese developers have faced financial woes in recent months. Oceanwide, once an owner of properties and land coast-to-coast, recently lost control of its Manhattan development site after failing to pay back $165 million of a $175 million loan from Midtown-based DW Partners. The company had planned to build a 1,500-foot skyscraper on the land. The Chinese parent company of Pacific Park co-developer Greenland USA was downgraded last month by S&amp;P Global Ratings, which said it was at risk of defaulting on its debt payments. – Isabella Farr</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A key Hong Kong Stock Exchange index removed six Chinese property developers, including Evergrande’s property management unit, that either sought debt payment extensions or defaulted and failed to release 2021 financial results. Shimao, one of China’s largest developers, recently defaulted on a $1 billion bond payment after failing to pay interest and principal. The company had planned to build a 1,500-foot skyscraper on the land.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9986456036567688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks fall 2%, leading losses in mixed Asia trade after John Lee's speech - CNBC</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Tue, 18 Oct 2022 23:41:17 GMT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A pedestrian looks at Japanese companies' share prices of the Tokyo Stock Exchange displayed on an electronic board in Tokyo on April 30, 2021. South Korea's Kospi declined 0.56% to close at 2,237.44. The Nikkei 225 in Japan added 0.37% to 27,257.38 and the Topix gained 0.19% to 1,905.06. The Japanese yen remained above 149 against the U.S. dollar, touching a new 32-year high of 149.48 per dollar. Shares in the Asia-Pacific were mixed on Wednesday following a second day of gains in major U.S. indexes. In Australia, the S&amp;P/ASX 200 gained 0.31% to 6,800.10. MSCI's broadest index of Asia-Pacific shares outside Japan was around 1% lower. China was due to release home prices data Wednesday, but the release has been delayed. Indonesia's central bank starts a two-day board of governors meeting Wednesday. Overnight in the U.S., strong earnings reports fueled stock gains for a second session. The Dow Jones Industrial Average added 337.98 points, or 1.12%, to close at 30,523.80. The S&amp;P 500 advanced 1.14% to 3,719.98. The Nasdaq Composite gained 0.90%, finishing at 10,772.40. "Equities rallied for a second day in a somewhat choppy session as investors weigh up the earnings outlook against rising interest rates," ANZ Research analysts wrote in a note. — CNBC's Jesse Pound and Carmen Reinicke contributed to this report.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A pedestrian looks at Japanese companies' share prices of the Tokyo Stock Exchange displayed on an electronic board in Tokyo on April 30, 2021. Indonesia's central bank starts a two-day board of governors meeting Wednesday. The Dow Jones Industrial Average added 337.98 points, or 1.12%, to close at 30,523.80.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sirnaomics Becoming A Constituent of Hang Seng Family of Indexes - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sun, 21 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HONG KONG, Aug. 21, 2022 /PRNewswire/ -- Sirnaomics Ltd. (the "Company" or "Sirnaomics", stock code: 2257.HK), a leading biopharmaceutical company in discovery and development of RNAi therapeutics, announced that the Company has been selected as a constituent stock of eight index series including Hang Seng Composite Index ("HSCI"), Hang Seng Stock Connect Hong Kong Index ("HSHKI"), Hang Seng Stock Connect Hong Kong MidCap &amp; SmallCap Index, Hang Seng Stock Connect Hong Kong SmallCap Index, Hang Seng SCHK Mainland China Companies Index, Hang Seng SCHK ex-AH Companies Index, Hang Seng Healthcare Index and Hang Seng Small Cap (Investable) Index by Hang Seng Indexes Company Limited, with effect from 5 September 2022. HSCI offers a comprehensive Hong Kong market benchmark that covers about the top 95th percentile of the total market capitalization of companies listed on the Main Board of The Stock Exchange of Hong Kong Limited. HSCI can be used as a basis for index funds, mutual funds as well as performance benchmarks, and assists international and local investors in formulating investment strategies. Inclusion into the HSCI will allow the Company's stock to be eligible for trading on the Hong Kong Stock Connect, a channel for stock trading between investors in Hong Kong and those in mainland China. HSHKI serves as a benchmark to reflect the overall performance of the securities listed in Hong Kong that are eligible for trading via the southbound trading link of Stock Connect. It covers equities eligible for trading via such scheme, with additional liquidity screening to make the covered equities a more investable reference set for mainland China investors. The selection of the Company as a constituent stock of the above-mentioned index series of Hang Seng Indexes Company Limited is expected to be conducive in introducing more diversified investors for the Company, improving stock liquidity and promoting the Company's reputation in the capital market. Looking forward, the Company will continuously devote to the exploration and development of RNAi therapeutics to bring benefits to patients and create value for its shareholders. Story continues About Sirnaomics Sirnaomics is an RNA therapeutics biopharmaceutical company with product candidates in preclinical and clinical stages that focuses on the discovery and development of innovative drugs for indications with medical needs and large market opportunities. Sirnaomics is the first clinical-stage RNA therapeutics company to have a strong presence in both China and the United States, and also the first company to achieve positive Phase IIa clinical outcomes in oncology for an RNAi therapeutic for its core product, STP705. Learn more at www.sirnaomics.com. Investor Relations: Nigel Yip Chief Financial Officer, China, Sirnaomics Email: NigelYip@sirnaomics.com US Media Contact: Alexis Feinberg Tel: +1 203 939 2225 Email: Alexis.Feinberg@westwicke.com Asia Media Contact: Bunny Lee Tel: +852 3150 6707 Email: sirnaomics.hk@pordahavas.com Cision View original content:https://www.prnewswire.com/news-releases/sirnaomics-becoming-a-constituent-of-hang-seng-family-of-indexes-301609360.html SOURCE Sirnaomics Ltd.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>HSCI offers a comprehensive Hong Kong market benchmark that covers about the top 95th percentile of the total market capitalization of companies listed on the Main Board of The Stock Exchange of Hong Kong Limited. Inclusion into the HSCI will allow the Company's stock to be eligible for trading on the Hong Kong Stock Connect, a channel for stock trading between investors in Hong Kong and those in mainland China.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9995580315589905</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Nears Lowest Point in More Than Five Years - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wed, 21 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index soars more than 3% in Friday return to trade as Asia-Pacific stocks rise - CNBC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Thu, 03 Feb 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were higher on Friday as investors in the region shrugged heavy losses overnight on Wall Street that saw the tech-heavy Nasdaq Composite plunging nearly 4%. Hong Kong's Hang Seng index led gains among the region's major markets, rising 3.24% to close at 24,573.29. Financial stocks in Hong Kong surged on Friday, with shares of HSBC soaring 4.99% while Standard Chartered jumped 4.83% after the Bank of England on Thursday announced its second straight rate hike. "We think what the dominant theme, at least for the first half of this year, is going to be around interest rates," Kieran Calder, head of equity research for Asia at UBP, told CNBC's "Street Signs Asia" on Friday. Financials are set to be the "main beneficiary" of this trend due to factors such as higher net interest income and yields, he explained. Markets in Hong Kong returned to trade on Friday after being closed for most of this week due to the Lunar New Year holidays. Over in mainland China, markets remain closed on Friday for the holidays. South Korea's Kospi jumped 1.57% to close at 2,750.26. Elsewhere, the Nikkei 225 in Japan recovered from earlier losses, closing 0.73% higher at 27,439.99 while the Topix index climbed 0.55% to 1,930.56. The S&amp;P/ASX 200 in Australia advanced 0.6% on the day to 7,120.20. MSCI's broadest index of Asia-Pacific shares outside Japan rose 1.07%.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were higher on Friday as investors in the region shrugged heavy losses overnight on Wall Street that saw the tech-heavy Nasdaq Composite plunging nearly 4%. Elsewhere, the Nikkei 225 in Japan recovered from earlier losses, closing 0.73% higher at 27,439.99 while the Topix index climbed 0.55% to 1,930.56.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9991728663444519</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hang Seng Index: a mirror image of Corporate China’s rise, market dominance - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Thu, 16 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A giant electronic screen displays prices of major Chinese tech stocks outside the Exchange Sequare in Central, Hong Kong on March 23, 2021. Photo: Bloomberg</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A giant electronic screen displays prices of major Chinese tech stocks outside the Exchange Sequare in Central, Hong Kong on March 23, 2021.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9999990463256836</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hang Seng Index - Barron's</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mon, 24 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hong Kong Stock Index's Revamp May Drag On to 2023, Analysts Say - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Thu, 18 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Today: Alibaba, Baidu Slide Over 3% As Wall Street Horror Spreads To Hong Kong Stocks - A - Benzinga</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tue, 13 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Hong Kong shares plunged on Wednesday, taking cues from a heavy sell-off on Wall Street triggered by higher-than-expected U.S. inflation for August. Shares of Alibaba, Baidu, and JD.com fell over 3%, with the benchmark Hang Seng Index losing over 2.3%. A report of the United States considering sanctions against China to ward off any potential attack on Taiwan further soured market sentiment. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -3.56% JD.com Inc JD -3.26% Baidu Inc BIDU -4.48% Tencent Holdings Ltd. TCEHY -1.31% Meituan MPNGF -1.63% Nio Inc NIO 1.61% XPeng Inc XPEV -1.01% Li Auto Inc LI 1.74% Despite the sell-off, shares of EV makers Nio and Li Auto held up with gains of over 1%. Also Read: It's The Worst Day Of 2022 For The Major Indexes Macro News: Chinese Premier Li Keqiang has called for more policies to boost consumption in the economy as the latest data indicate a further slump in travel and spending over a three-day public holiday amid COVID-19 controls, reported Bloomberg. The United States is looking at options for a sanctions package against China to prevent it from invading Taiwan, with the European Union coming under diplomatic pressure from Taipei to do the same, Reuters reported, citing sources. Company News: Starbucks Corporation SBUX has said it is planning to have about 9,000 stores in China by 2025, which is a 56% rise from the present count, reported Reuters. Tencent Holdings received approval for a new game for the first time since Chinese authorities froze all licensing in 2021, according to media reports. Top Gainers and Losers: Techtronic Industries Company Limited and WuXi Biologics (Cayman) Inc. are the top losers among Hang Seng's top 30 constituents, shedding over 6% and 4%, respectively. CNOOC Limited is the only gainer, up 0.6% on Wednesday morning. Global News: U.S. futures traded mixed on Tuesday morning Asia session. The Dow Jones futures were up 0.08%, while Nasdaq futures lost 0.07%. The S&amp;P 500 futures rose 0.04%. Elsewhere in Asia, Australia’s ASX 200 plunged 2.76%. Japan’s Nikkei 225 was down 2.29% while China’s Shanghai Composite index fell 0.74%. South Korea’s Kospi, too, was down 1.62%.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Hong Kong shares plunged on Wednesday, taking cues from a heavy sell-off on Wall Street triggered by higher-than-expected U.S. inflation for August. Shares of Alibaba, Baidu, and JD.com fell over 3%, with the benchmark Hang Seng Index losing over 2.3%. Also Read: It's The Worst Day Of 2022 For The Major Indexes Macro News: Chinese Premier Li Keqiang has called for more policies to boost consumption in the economy as the latest data indicate a further slump in travel and spending over a three-day public holiday amid COVID-19 controls, reported Bloomberg.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9999947547912598</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hang Seng: Tech Stocks Jump in Hong Kong as Traders Rethink Fed Hawkish Bet - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Thu, 25 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lenovo selected as a Constituent Stock of the Hang Seng Index - Lenovo StoryHub</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sat, 19 Feb 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HONG KONG, February 19, 2022 – The Hang Seng Indexes Company Limited has announced that effective 7th March 2022, Lenovo Group (HKSE: 992) (ADR: LNVGY) will be included as a constituent stock on the Hang Seng Index – Hong Kong’s benchmark stock gauge. This selection means Lenovo is included alongside other “blue chip” companies listed on the Hong Kong Stock Exchange such as HSBC, Tencent, and Meituan. Lenovo’s addition to the Index follows the review of the Hang Seng Family of Indexes for the quarter ending 31st December 2021. Inclusion in the index is a clear recognition by the market of the company’s consistent performance over recent years. As well as consistently stellar financial results, Lenovo has carved out a clear strategy for its transformation from a PC/devices company to a global technology powerhouse that includes solutions and services. This Index inclusion broadens the Group’s potential shareholder pool to include those investments funds and pension funds that look for index inclusion as one of their investment criteria. Lenovo has been a member of the Hang Seng sub-index – Hang Seng Tech Index – since July 2020, where it was one of the original members when it launched. Lenovo will file its FY2021/22 Q3 earnings on Wednesday 23rd February. The Group delivered a record second quarter performance as announced 4th November 2021, with historic highs for both revenue and profit, and with profitability on track to double in three years. More information on Lenovo’s financial performance can be found here.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>HONG KONG, February 19, 2022 – The Hang Seng Indexes Company Limited has announced that effective 7th March 2022, Lenovo Group (HKSE: 992) (ADR: LNVGY) will be included as a constituent stock on the Hang Seng Index – Hong Kong’s benchmark stock gauge. This Index inclusion broadens the Group’s potential shareholder pool to include those investments funds and pension funds that look for index inclusion as one of their investment criteria.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9924306273460388</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Markets: Bitcoin, Ether slip; XRP slumps; Hang Seng Index touches 11-year low in Hong Kong - Forkast News</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mon, 03 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Bitcoin and Ether prices fell in Monday evening trading in Hong Kong amid widespread losses among the top 10 cryptocurrencies by market capitalization, with BNB being the sole gainer. In equity markets, Hong Kong’s Hang Seng Index at one stage fell to the lowest level in 11 years. See related article: Markets: Bitcoin price falls below US$19,000, XRP down, BNB only gainer in crypto top 10 Fast facts Bitcoin lost 0.46% in the past 24 hours to US$19,205.45 at 4 p.m. in Hong Kong, though still up 1.61% over the previous 7 days, while Ether fell 1.50% to trade at US$1,292.31, according to data from CoinMarketCap. XRP slumped 7.08% to change hands at US$0.4423. However, the slide slowed amid reports that two companies, I-Remit Inc. and TapJets Inc., submitted requests to be amicus curiae (“friend of the court”) in support of Ripple Labs Inc. – who’s payment network is powered by XRP – in its court case against the Securities and Exchange Commission. Solana fell 1.80% to US$32.25 and Cardano lost 2.02% to trade at US$0.422. BNB, the native cryptocurrency of the Binance exchange, was the sole gainer among the top 10, rising 1.52% to $285.86 Asia equity markets were mixed following lows on Wall Street on Friday. The Hong Kong Hang Seng Index fell at one stage to its lowest since October 2011, before rallying slightly to close off 0.83%. This gain followed the announcement that the stock exchange plans to launch yuan-denominated stock trading by the first half of 2023. Japan’s Nikkei 255 gained 1.07%, while the Shanghai Composite Index was closed along with all other China markets for the Golden Week holiday. Worries over inflation mounted in international markets as a string of record lows were recorded, with the S&amp;P 500 having closed out September with a 9.3% loss, the worst monthly decline since March 2020. This slump was also reflected in European markets, with Credit Suisse leading losses after shares tanked 10% in morning trading, raising questions about a potential “Lehman moment.” See related article: Two firms seek to weigh in on XRP lawsuit between SEC, Ripple</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Bitcoin and Ether prices fell in Monday evening trading in Hong Kong amid widespread losses among the top 10 cryptocurrencies by market capitalization, with BNB being the sole gainer. See related article: Markets: Bitcoin price falls below US$19,000, XRP down, BNB only gainer in crypto top 10 Fast facts Bitcoin lost 0.46% in the past 24 hours to US$19,205.45 at 4 p.m. in Hong Kong, though still up 1.61% over the previous 7 days, while Ether fell 1.50% to trade at US$1,292.31, according to data from CoinMarketCap. This slump was also reflected in European markets, with Credit Suisse leading losses after shares tanked 10% in morning trading, raising questions about a potential “Lehman moment.”</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9997550845146179</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng rises nearly 3%; Alibaba shares soar after earnings report - CNBC</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Thu, 26 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific largely rose on Friday, with investors monitoring shares of Alibaba in Hong Kong after the Chinese tech giant posted better-than-expected fourth-quarter earnings on Thursday. Shares of Alibaba listed in the city surged 12.21% after it reported Thursday fourth-quarter earnings of 7.95 yuan ($1.18) per share, excluding items, on revenues of 204.05 billion yuan ($30.28 billion). That was higher than analyst expectations for earnings of 7.31 yuan a share on CNY199.25 billion in revenue, according to StreetAccount. Other Chinese tech stocks in the city also had sizable gains, with Tencent rising 2.27% while Netease surged 4.43%. The broader Hang Seng index in Hong Kong climbed 2.89% to close at 20,697.36. Mainland Chinese stocks were mixed, with the Shanghai Composite up 0.23% to 3,130.24 while the Shenzhen Component declined 0.118% to 11,193.59. Chinese authorities held an unprecedented nationwide meeting via teleconference on Wednesday in a bid to bolster an economy battered by Covid, with Premier Li Keqiang warning of difficulties "even greater than the severe shock of the pandemic in 2020." "Premier Li's directive for local [officials] to better balance COVID controls against economic growth, which has been cited as key to solving all problems, (from employment to livelihood and COVID containment), paves a path to a promising turnaround," said Mizuho Bank's Vishnu Varathan in a Friday note. "Trouble is, this is an attempt at pain relief from, but not quite a panacea for, self-inflicted harm," said Vishnu, who is head of economics and strategy at the firm.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific largely rose on Friday, with investors monitoring shares of Alibaba in Hong Kong after the Chinese tech giant posted better-than-expected fourth-quarter earnings on Thursday. That was higher than analyst expectations for earnings of 7.31 yuan a share on CNY199.25 billion in revenue, according to StreetAccount.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Major Stock Market Indices Worldwide - UrduPoint News</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 09:40:32 GMT</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BEIJING, Nov. 30 (UrduPoint / Pakistan Point News - 30th Nov, 2022 ) --:The following are the indices of major stock markets worldwide on Wednesday. IN ASIA The Shanghai Composite Index opened at 3,141.40 points, down 8.35 points, or 0.27 percent. The Shenzhen Component Index opened at 11,071.31 points, down 17.70 points, or 0.16 percent. The Hang Seng Index opened at 18,141.56 points, down 63.12 points, or 0.35 percent. The S&amp;P/ASX 200 index opened at 7,275.80 points, up 22.50 points, or 0.31 percent. The 225-issue Nikkei Stock Average opened at 27,886.67 points, down 141.17 points, or 0.50 percent. The Straits Times Index opened at 3,279.86 points, up 3.50 points, or 0.11 percent. The Korea Composite Stock price Index op</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BEIJING, Nov. 30 (UrduPoint / Pakistan Point News - 30th Nov, 2022 ) --:The following are the indices of major stock markets worldwide on Wednesday. The Shenzhen Component Index opened at 11,071.31 points, down 17.70 points, or 0.16 percent.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9801463484764099</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Chinese health officials defend zero-Covid policy but pledge to rectify some measures amid protests - CNN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Tue, 29 Nov 2022 14:29:00 GMT</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CNN — China’s top health officials have pledged to rectify Covid-19 control measures to reduce their impact on people’s lives, while deflecting blame for public frustration away from the policy itself, in their first press briefing since protests erupted against the government’s stringent zero-Covid policy over the weekend. Lockdowns to suppress the spread of the virus should be lifted “as quickly as possible” following outbreaks, said health officials at a National Health Commission press briefing in Beijing on Tuesday, as they defended the country’s overall policy direction – which aims to stamp out the spread of the virus through hefty controls. Cheng Youquan, a director at the China Center for Disease Control and Prevention, said “some issues” reported recently by the public are not due to the measures, but their application by local officials taking a “one-size-fits-all approach.” He said some controls had been implemented “excessively,” with disregard for the people’s demands. Protests against the country’s zero-Covid policy, which includes a combination of lockdowns, forced quarantines and tight border controls, flared across China over the weekend, with citizens taking to city streets and college campuses to call for an end to the restrictive measures. While protests in several parts of China appear to have largely dispersed peacefully over the weekend, some met a stronger response from authorities – and security has been tightened across cities with police deployed to key protest sites in the wake of the demonstrations. Plan to boost elderly vaccination rates Officials at Tuesday’s press briefing did not directly address the protests, but commission spokesperson Mi Feng said governments should “respond to and resolve the reasonable demands of the masses” in a timely manner. When asked if the government is reconsidering its Covid policies, Mi said authorities “have been studying and adjusting our pandemic containment measures to protect the people’s interest to the largest extent and limit the impact on people as much as possible.” Earlier this month, China announced 20 measures that were meant to streamline Covid-19 controls and reign in “excessive policy steps” taken by local authorities – who are under pressure from Beijing to control the number of cases in their regions. The protests – and the pledges to refine the policy implementation – come as the country faces its most significant surge of cases. China identified 38,421 locally transmitted cases on Monday, according to the National Health Commission, ending six consecutive days of record infections. Low vaccination rates among the elderly have long been cited by authorities as a reason why China must maintain tight controls over the virus. On Tuesday, officials also announced an “action plan” to boost vaccination rates among this high-risk group. Raising that rate is seen as necessary to eventually reopening the country and relaxing tough measures. As of November 28, around 90% of China’s total population had received two doses of a Covid-19 vaccination, but only roughly 66% of people over 80 had completed two doses, officials said Tuesday. China defends Covid-19 measures Reactions to the officials’ statements on Chinese social media suggested they had done little to assuage frustration and anger over the zero-Covid policy. On a state media livestream of the press conference, many users called for an end to Covid testing, lockdown and centralized quarantine. “We’ve cooperated with you for three years, now it’s time to give our freedom back,” said one top comment on the livestream, which was run by state media on the Weibo social media platform. “Can you stop filtering our comments? Listen to the people, the sky won’t fall,” wrote another, referring to censorship on the platform. In a separate briefing on Tuesday, China’s Foreign Ministry defended the Covid-19 control measures and civil rights in the country – where authorities regularly use far-reaching surveillance and security capabilities to quash dissent. “China is a country under the rule of law, Chinese citizens enjoy various legal rights and freedoms that are fully protected by law,” spokesperson Zhao Lijian said, when asked about the protests in a regular briefing on Tuesday. “At the same time, any rights and freedoms should be exercised within the framework of the law.” Asian shares rallied on Tuesday on signs that authorities had managed to contain protests, and then on hopes the health commission would announce an easing of Covid restrictions. Hong Kong’s benchmark Hang Seng Index ended the day more than 5% higher. In mainland China, the Shanghai Composite Index and the Shenzhen Component Index both finished more than 2% higher, while the CSI300 Index, which tracks the largest listed stocks, closed more than 3% higher.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CNN — China’s top health officials have pledged to rectify Covid-19 control measures to reduce their impact on people’s lives, while deflecting blame for public frustration away from the policy itself, in their first press briefing since protests erupted against the government’s stringent zero-Covid policy over the weekend. Plan to boost elderly vaccination rates Officials at Tuesday’s press briefing did not directly address the protests, but commission spokesperson Mi Feng said governments should “respond to and resolve the reasonable demands of the masses” in a timely manner. Raising that rate is seen as necessary to eventually reopening the country and relaxing tough measures. Asian shares rallied on Tuesday on signs that authorities had managed to contain protests, and then on hopes the health commission would announce an easing of Covid restrictions. Hong Kong’s benchmark Hang Seng Index ended the day more than 5% higher.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9320118427276611</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng slumps more than 3%, leading sharp falls in Asia session - CNBC</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wed, 28 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The logo of the Tokyo Stock Exchange (TSE), operated by Japan Exchange Group Inc. (JPX), is displayed at the bourse in Tokyo, Japan, on Friday, Oct. 2, 2020. Hong Kong stocks led sharp losses in Asia-Pacific markets after the S&amp;P 500 set a new 2022 low overnight on Wall Street. The offshore and onshore Chinese yuan reached weakest levels since 2008 and the Indian rupee also marked a record low. Hong Kong's Hang Seng index dropped 3.45% in the final hour of trade, with the Hang Seng Tech index down 3.88%. In mainland China, the Shanghai Composite was 1.58% lower at 3,045.07, and the Shenzhen Component fell 2.465% to 10,899.70. The Kospi in South Korea shed 2.45% to 2,169.29. Japan's Nikkei 225 fell more than 2% at session lows but closed 1.5% lower at 26,173.98, while the Topix index slipped 0.95% to 1,855.15. MSCI's broadest index of Asia-Pacific shares outside Japan dropped 2.32%, reaching lowest levels since March 2020. In Australia, the S&amp;P/ASX 200 was 0.53% lower.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>The logo of the Tokyo Stock Exchange (TSE), operated by Japan Exchange Group Inc. (JPX), is displayed at the bourse in Tokyo, Japan, on Friday, Oct. 2, 2020. Japan's Nikkei 225 fell more than 2% at session lows but closed 1.5% lower at 26,173.98, while the Topix index slipped 0.95% to 1,855.15.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.7532440423965454</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng had its best month since 1998, but remains in bear market territory - CNBC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 06:25:45 GMT</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>In this article .HSI Follow your favorite stocks CREATE FREE ACCOUNT Red lanterns are hung up on the street in Wan Chai, Hong Kong. (Photo by Zhang Wei/China News Service via Getty Images) China News Service | China News Service | Getty Images Hong Kong's benchmark index soared 26.6% in November – the Hang Seng index's highest monthly gain since October 1998, or near the end of the Asian financial crisis 24 years ago. But the index still sits in bear market territory, which is defined as down 20% from a recent high, standing at a loss of 20.45% loss year-to-date as of Dec. 2. Loading chart... Hong Kong's economy, including its stock market, has been battered by Beijing's prolonged zero-Covid policy that has shut out travelers from mainland China and dampened consumer confidence. Shares listed in Hong Kong have whipsawed between sell-offs and rallies within a single trading day on unconfirmed rumors that hinted at a shift in China's policies. The volatility in the Hong Kong stock market, however, dates back even further than this year. Strategists at Goldman Sachs said from February 2021 to October 2022, the Hang Seng index saw a "systemic correction," which the firm defines as a fall of 40% or more. This is the most significant market sell-off since the dislocation during the Global Financial Crisis Kinger Lau, Si Fu Goldman Sachs China equity strategists During that period, the HSI plunged 53% from peak-to-trough, Goldman strategists noted. "This is the most significant market sell-off since the dislocation during the Global Financial Crisis, also putting the drawdown into the Systemic category per our classification," the firm's China equity strategists Kinger Lau and Si Fu told CNBC in an email. The team added that it's "impossible to call the market bottom" for the index, based on its trading patterns, which has shown major volatility in the past two years. Next key levels Analysts at Weiss Multi-Strategy Advisers said, "November may, in hindsight, be viewed as a key turning point for Chinese equities," noting the Hang Seng China Enterprise index and the property sector saw significant gains. "Property stocks were boosted by relaxed collateral and equity issuance standards, and tech stocks have been strong on earnings and reopening hopes," the analysts said in a report. After its November gains, the Hang Seng index hovered around 18,600 – a level of resistance according to market watchers. "With the 18,600 level of resistance being overcome for the Hang Seng Index, that could seem to place the key psychological 20,000 level on watch," IG market strategist Yeap Jun Rong said in a Thursday note. He added the latest messaging from the Chinese government, including health officials encouraging elderly vaccination and broader signs of shifting away from its zero-Covid policies, has lifted the region's stock market. "Recent events have been supportive of the worst-is-over stance for Chinese markets," he said, adding that the events have led to a "much-needed calm" to Chinese equities that continue to push higher on reopening hopes. The HSI last fell below the 20,000 level in August, and analysts expect to see a continued rebound in the equity market on further signs that the nation will shift away from zero-Covid. watch now</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>In this article .HSI Follow your favorite stocks CREATE FREE ACCOUNT Red lanterns are hung up on the street in Wan Chai, Hong Kong. ( Photo by Zhang Wei/China News Service via Getty Images) China News Service | China News Service | Getty Images Hong Kong's benchmark index soared 26.6% in November – the Hang Seng index's highest monthly gain since October 1998, or near the end of the Asian financial crisis 24 years ago. Strategists at Goldman Sachs said from February 2021 to October 2022, the Hang Seng index saw a "systemic correction," which the firm defines as a fall of 40% or more. With the 18,600 level of resistance being overcome for the Hang Seng Index, that could seem to place the key psychological 20,000 level on watch," IG market strategist Yeap Jun Rong said in a Thursday note.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9285342693328857</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Alibaba, Nio Stocks Fall: Hang Seng Index Today - Alibaba Group Holding (NYSE:BABA) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mon, 21 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks opened in the red on Tuesday as investors and traders began considering the near-term risks weighing on the market, including the rising COVID-19 cases in China and the Federal Reserve’s minutes scheduled to be released on Wednesday. The benchmark Hang Seng lost close to 1% in morning trade. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -3.09% JD.com Inc JD -2.71% Baidu Inc BIDU -0.22% Tencent Holdings Ltd. TCEHY -1.77% Meituan MPNGF -4.2% Nio Inc NIO -3.52% XPeng Inc XPEV -4.86% Li Auto Inc LI -2.69% “November PMI data will be closely watched this week for the latest readings on economic momentum as central banks deliberate the appropriate magnitude of future interest rate hikes. Composite PMI data for the US, UK and Europe are all expected to show that economies are slowing further below the 50 expansion/contraction line,” ANZ Research said in a note. Xpeng and Meituan stocks lost over 4%, while shares of Alibaba and Nio shed over 3%. Also Read: Investing For Beginners Macro News: Beijing has warned it was facing its most severe test of COVID as it tightened rules for entering the city, reported Reuters. Guangzhou, a city of about 19 million people is battling the largest of recent outbreaks and has ordered a five-day lockdown for its most populous district Baiyun, according to the report. Chinese financial regulators have asked banks to stabilize lending to property developers and construction companies, reflecting Beijing’s latest effort to turn around the real-estate crisis and boost economic growth, reported Bloomberg. The U.S. and Chinese defense heads are likely to meet for the first time since Beijing suspended talks with Washington over Nancy Pelosi’s visit to Taiwan, reported Bloomberg. China Petroleum &amp; Chemical Corporation SNPMF has signed one of the biggest-ever liquefied natural gas deals -- a 27-year agreement to purchase 4 million tonnes a year of the fuel from QatarEnergy, reported FT. NIO has started offering ET7, EL7 and ET5 purchase options in Germany, reported CnEVPost. Top Gainers and Losers: Meituan and Alibaba Group Holding Limited were the top losers among Hang Seng constituents, having shed over 2.5%. Longfor Group Holdings Limited and Hengan International Group Company Limited were the top gainers, having risen over 3% and 1.5%, respectively. Global News: U.S. futures traded in the green on Tuesday morning Asia session. The Dow Jones futures were up 0.08% while the Nasdaq futures rose 0.14%. The S&amp;P 500 futures were trading higher by 0.11%. Elsewhere in Asia-Pacific, Australia’s ASX 200 was up 0.59%. Japan’s Nikkei 225 traded 0.73% higher, while China’s Shanghai Composite index was trading flat. South Korea’s Kospi lost 0.23%. Read Next: Cramer Analyzes Legendary Trader Larry Williams's S&amp;P 500 Forecast: 'Santa Claus Rally Coming To Town Next Month'</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks opened in the red on Tuesday as investors and traders began considering the near-term risks weighing on the market, including the rising COVID-19 cases in China and the Federal Reserve’s minutes scheduled to be released on Wednesday. China Petroleum &amp; Chemical Corporation SNPMF has signed one of the biggest-ever liquefied natural gas deals -- a 27-year agreement to purchase 4 million tonnes a year of the fuel from QatarEnergy, reported FT. Longfor Group Holdings Limited and Hengan International Group Company Limited were the top gainers, having risen over 3% and 1.5%, respectively. Global News: U.S. futures traded in the green on Tuesday morning Asia session.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9987956285476685</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks rise in mixed Asia-Pacific session, Softbank shares drop 14% - CNBC</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mon, 14 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>The U.S.-China relationship is the "world's most important bilateral" one, and it is fraught with tension — but Washington can change that, according to Jeffrey Sachs, professor at Columbia University. "I think the U.S. should start by saying we want to have normal relations. We're not trying to stop the Chinese economy," he said. His comments come hours before a face-to-face meeting between U.S. President Joe Biden and Chinese leader Xi Jinping in Bali, Indonesia, where the G-20 Summit is set to take place. "It's been too much sound bites in each direction and a lot of tension and, to my mind, too much U.S. unilateralism, rather than bilateral negotiation and diplomacy," he added. "The U.S. and China should ease up, stop this friction, stop this Cold War for the benefit of both of the economies and for the rest of the world," Sachs said. — Abigail Ng</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>The U.S.-China relationship is the "world's most important bilateral" one, and it is fraught with tension — but Washington can change that, according to Jeffrey Sachs, professor at Columbia University. " It's been too much sound bites in each direction and a lot of tension and, to my mind, too much U.S. unilateralism, rather than bilateral negotiation and diplomacy," he added. "</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.999312162399292</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Super-Rare Signal Suggests Hong Kong Stock Market Has Hit Rock Bottom - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fri, 25 Nov 2022 05:42:00 GMT</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Asia-Pacific markets fall as investors seek clarity on China's Covid rule changes - CNBC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 07:41:00 GMT</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Stocks were unable to continue Wednesday's rally because investors were awaiting a key jobs report coming Friday, said Edward Moya, senior market analyst at Oanda. He said investors were purposefully pulling back ahead of non-farm payroll data coming in the morning. Investors will also be watching for data on hourly pay and the unemployment rate. "US stocks were unable to hold onto earlier gains as Wall Street digested a swathe of economic data that showed inflation is easing and the labor market is cooling," Moya said. "It's been a nice rally but no one wants to be aggressively bullish heading into the NFP report." Investors will be looking for the right, middle-ground data, said Megan Horneman, chief investing officer at Verdence Capital Advisors. That means it's weak enough to show interest rate hikes are having the intended impact of economic contracting, while being strong enough to signal a recession could be avoided. "A big number will spook the markets further that the Fed's not going to be able to slow down their pace of rate hikes," said Megan Horneman, chief investing officer at Verdence Capital Advisors, of Friday's jobs data. With "a so-so number, I think the markets can maybe rally on that," she added. "But if you get a really weak number, it's just going to spook investors after such a strong rally we've seen in November." — Alex Harring</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Stocks were unable to continue Wednesday's rally because investors were awaiting a key jobs report coming Friday, said Edward Moya, senior market analyst at Oanda. A big number will spook the markets further that the Fed's not going to be able to slow down their pace of rate hikes," said Megan Horneman, chief investing officer at Verdence Capital Advisors, of Friday's jobs data.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.999921441078186</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index soars over 5 pct in morning trading - Xinhua</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>HONG KONG, Nov. 11 (Xinhua) -- Hong Kong's Hang Seng Index gained over 5 percent during Friday's morning trading to 16,887.05 points, up 806.01 points. ■</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>HONG KONG, Nov. 11 (Xinhua) -- Hong Kong's Hang Seng Index gained over 5 percent during Friday's morning trading to 16,887.05 points, up 806.01 points.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9999728202819824</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Asia-Pacific stocks mostly lower, Tokyo inflation at highest in 40 years; U.S. markets closed - CNBC</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Fri, 25 Nov 2022 08:32:00 GMT</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>The Group of Seven (G7) nations' proposed price cap for Russian oil of between $65 and $70 a barrel may not be a significant deterrent for Moscow, according to Wood Mackenzie. The planned cap is not expected to make a dent on Russia's oil revenues as the oil prices that Asian markets like China and India are currently paying for are already at a "big discount," said Wood Mackenzie's vice president of gas and LNG research, Massimo Di Odoardo. "Those levels of discounts are certainly in line with what the discounts already are in the market … It's something that doesn't seem, as it is placed, going to have any effect [on Moscow] whatsoever if the price is so high," he said. — Lee Ying Shan</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>The Group of Seven (G7) nations' proposed price cap for Russian oil of between $65 and $70 a barrel may not be a significant deterrent for Moscow, according to Wood Mackenzie. The planned cap is not expected to make a dent on Russia's oil revenues as the oil prices that Asian markets like China and India are currently paying for are already at a "big discount," said Wood Mackenzie's vice president of gas and LNG research, Massimo Di Odoardo. "</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9998310804367065</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks gain on tech boost while Covid spike clouds China outlook - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Wed, 23 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Workers in protective gear at a neighborhood placed under lockdown due to Covid-19 in Beijing on November 10. Photo: Bloomberg</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Workers in protective gear at a neighborhood placed under lockdown due to Covid-19 in Beijing on November 10.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9993647933006287</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Asian Shares Slip as Cautious Traders Wait on US Payroll Data - Asia Financial</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 10:51:30 GMT</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The region’s major indexes ended the week on the back foot with reluctant investors staying on the sidelines Asian shares dipped on Friday, with investors in cautious mood ahead of the release of key payroll data out of the US later in the day. Despite signals from the US Fed earlier this week hinting at a slowdown of its aggressive rate hikes policy, traders remain on edge with confidence brittle in the face of global challenges. Japan’s Nikkei share average tumbled as much as 2% to a three-week low in earlier trading as a sharply higher yen hurt autos and other exporter stocks. Also on AF: Truckers Strike Has Cost S Korea $1.2bn in Lost Shipments The benchmark Nikkei 225 index closed down at 1.59%, or 448.18 points to end at 27,777.90. The broader Topix index fell 1.64%, or 32.48 points, to 1,953.98. The dollar fell as low as 135.01 yen on Friday, the lowest since August 18, extending the previous day’s plunge of more than 2%. Investors are also watching for more signs that China is easing its zero-Covid policy, and whether China would be in a position to contribute more to global growth next year amid a looming global recession. But Chinese blue chips slid 0.5%, as the country grappled with another surge in Covid-19 cases. Hong Kong’s Hang Seng index reversed earlier gains to be in the red at the close. The Hang Seng Index dropped 0.33%, or 61.09 points, to 18,675.35. The Shanghai Composite Index dipped 0.29%, or 9.33 points, to 3,156.14, while the Shenzhen Composite Index on China’s second exchange rose 0.02%, or 0.50 points, to 2,044.60. Treasuries Retain Gains Elsewhere across the region, MSCI’s index of regional stocks outside Japan slipped 0.28% while Indian stocks dropped with Mumbai’s signature Nifty 50 index down 0.62%, or 116.40 points, to close at 18,696.10. Globally, Treasuries held on to their gains ahead of the US non-farm payrolls data, while the dollar nursed heavy losses. The cautious tone in share markets, after the recent big rally, was set to extend to Europe, with the pan-region Euro Stoxx 50 futures easing 0.2%, German DAX futures down 0.1% and FTSE futures 0.2% lower. US shares ended mixed on Thursday after a big rally the day before, buoyed by comments from Fed Chair Jerome Powell that did not sound as hawkish as some had feared. Data overnight including falling US job openings and contracting US manufacturing activity, pointing to signs of easing cost pressure, added to evidence that the Fed’s rate hikes have cooled the economy. The US dollar wallowed at a three-month low against major currencies. It was set for a 1.3% weekly drop. In the oil market, prices seesawed ahead of a key meeting of producing countries over the weekend. US crude oil futures reversed earlier losses to be flat around $81.21 per barrel, after surging to a two-week high of $83.34 in the previous session on a softer dollar. Key figures Tokyo – Nikkei 225 &lt; DOWN 1.59% at 27,777.90 (close) Hong Kong – Hang Seng Index &lt; DOWN 0.33% at 18,675.35 (close) Shanghai – Composite &lt; DOWN 0.29% at 3,156.14 (close) London – FTSE 100 &lt; DOWN 0.30% at 7,535.51 (0940 GMT) New York – Dow &lt; DOWN 0.56% at 34,395.01 (Thursday close) Reuters with additional editing by Sean O’Meara Read more: China Softens its Warnings on Severity of Covid-19 After Protests Apple Revenue Forecast Cut as Covid Curbs Hit iPhone Output</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>The region’s major indexes ended the week on the back foot with reluctant investors staying on the sidelines Asian shares dipped on Friday, with investors in cautious mood ahead of the release of key payroll data out of the US later in the day. Despite signals from the US Fed earlier this week hinting at a slowdown of its aggressive rate hikes policy, traders remain on edge with confidence brittle in the face of global challenges. Also on AF: Truckers Strike Has Cost S Korea $1.2bn in Lost Shipments The benchmark Nikkei 225 index closed down at 1.59%, or 448.18 points to end at 27,777.90. The broader Topix index fell 1.64%, or 32.48 points, to 1,953.98.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9999841451644897</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks lead losses as Asia markets fall ahead of U.S. inflation data - CNBC</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 23:34:51 GMT</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>People walk through Exchange Square in Hong Kong on October 28, 2022. Major lenders Standard Chartered and HSBC expressed confidence in the rebound of Hong Kong's and China's economy, even as China ramps up its Covid measures and Hong Kong's economy posted its worst quarter in more than two years. Shares in the Asia-Pacific fell Thursday as investors await U.S. inflation data, a key metric closely watched by the Federal Reserve, and as U.S. midterm results continue to roll in. The Nikkei 225 in Japan shed 0.98% to close at 27,446.10 and the Topix declined 0.66% to stand at 1.936.66. In South Korea, the Kospi dropped 0.91% and closed at 2,402.23. In Australia, the S&amp;P/ASX 200 dropped 0.50% to end the session at 6,964. Hong Kong's Hang Seng Index fell 1.86% as Hang Seng Tech Index dropped 3.36% – leading in losses across markets in the wider region. In mainland China, the Shenzhen Component declined 0.986%, while the Shanghai Composite Index lost 0.41%. MSCI's broadest index of Asia-Pacific shares outside Japan fell 1.36%.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>People walk through Exchange Square in Hong Kong on October 28, 2022. In Australia, the S&amp;P/ASX 200 dropped 0.50% to end the session at 6,964.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9988099336624146</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Major stock market indices worldwide - China.org.cn</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 03:01:16 GMT</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>You are here: 视频播放位置 下载安装Flash播放器 BEIJING, Dec. 3 (Xinhua) -- The following are the indices of major stock markets worldwide on Saturday. IN ASIA The Shanghai Composite Index had no trading. The Shenzhen Component Index had no trading. The Hang Seng Index had no trading. The S&amp;P/ASX 200 index had no trading. The 225-issue Nikkei Stock Average had no trading. The Straits Times Index had no trading. The Korea Composite Stock Price Index had no trading. IN THE UNITED STATES The S&amp;P 500 Index closed at 4,071.70 points, down 4.87 points, or 0.12 percent. The Dow Jones Industrial Average closed at 34,429.88 points, up 34.87 points, or 0.10 percent. The Nasdaq Composite Index closed at 11,461.50 points, down 20.95 points, or 0.18 percent. IN EUROPE The DAX Index closed at 14,529.39 points, up 39.09 points, or 0.27 percent. The FTSE 100 Index closed at 7,556.23 points, down 2.26 points, or 0.03 percent. The Paris CAC 40 closed at 6,742.25 points, down 11.72 points, or 0.17 percent. Enditem (This article is generated by Xinhua News Robot.)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>You are here: 视频播放位置 下载安装Flash播放器 BEIJING, Dec. 3 (Xinhua) -- The following are the indices of major stock markets worldwide on Saturday. The Nasdaq Composite Index closed at 11,461.50 points, down 20.95 points, or 0.18 percent.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.9998718500137329</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Asia-Pacific markets mostly lower as second day of G-20 is underway - CNBC</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Tue, 15 Nov 2022 23:59:20 GMT</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Indonesia President Joko Widodo, US President Joe Biden and European Commission President Ursula von der Leyen meet on sidelines of the G20 Summit in Nusa Dua on the Indonesian resort island of Bali on November 15, 2022. (Photo by SAUL LOEB / AFP) (Photo by SAUL LOEB/AFP via Getty Images) Shares in the Asia-Pacific were mostly lower on Wednesday as world leaders gathered in Bali, Indonesia for a second day of the Group of 20 summit. Polish authorities said a Russian-made missile killed two citizens, which president Andrzej Duda described as "an isolated incident," adding an investigation is underway. The Nikkei 225 in Japan reversed earlier losses to close 0.14% higher at 28,028.30 as heavyweight SoftBank Group climbed 2.94%. The Topix was fractionally lower at 1,963.29. South Korea's Kospi was 0.12% lower at 2,477.45, and Australia's S&amp;P/ASX 200 shed 0.27% to 7,122.20. In Hong Kong, the Hang Seng index was 1.04% lower in the final hour of trade, and the Hang Seng Tech index fell 1.82%. Mainland China's Shanghai Composite was 0.45% lower at 3,119.98 and the Shenzhen Component slipped 1.02% to 11,235.56. MSCI's broadest index of Asia-Pacific shares outside Japan fell 0.67%.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Indonesia President Joko Widodo, US President Joe Biden and European Commission President Ursula von der Leyen meet on sidelines of the G20 Summit in Nusa Dua on the Indonesian resort island of Bali on November 15, 2022. ( The Nikkei 225 in Japan reversed earlier losses to close 0.14% higher at 28,028.30 as heavyweight SoftBank Group climbed 2.94%.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9980216026306152</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>The Hang Seng reacts to new Covid measures - IG International</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Tue, 15 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>China’s state media finally confirmed that China will ease some of its strict Covid measures but was not yet in the position to change the Covid-Zero policy. Even so, the announcement still bolstered investor's confidence. The Hang Seng index in Hong Kong jumped more than 7% last Friday and kicked off the new week with a 3% gain. China’s new Covid policy China has been committing to "Covid-Zero" policy measures to control the outbreak of the virus since the early days of the pandemic. The country has now become one of the few destinations that still require centralized quarantine when travellers arrive. According to the new policy, China will change the duration of compulsory quarantine at a centralized facility from seven days to five days, followed by three days of self-quarantine or "home observation". China's contact tracing policy change In the previous model, all close connections, including people who were connected to travellers are viewed as “tracking targets”. Starting from November, “close contact” only applies to people interacting with individuals with confirmed Covid infections.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>China’s state media finally confirmed that China will ease some of its strict Covid measures but was not yet in the position to change the Covid-Zero policy. China's contact tracing policy change In the previous model, all close connections, including people who were connected to travellers are viewed as “tracking targets”.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9471750855445862</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Stock market news today: Indexes open mixed as China rebounds - Markets Insider</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Tue, 29 Nov 2022 14:37:15 GMT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>US stocks opened mixed on Tuesday while markets in China jumped as COVID-19 fears eased. The Shanghai Composite Index climbed 2.3% and Hong Kong's Hang Seng Index jumped 5.2% after diving on Monday. On Tuesday, China reported lower COVID infections and touted an increase in vaccinations. Sign up for our newsletter to get the inside scoop on what traders are talking about — delivered daily to your inbox. Loading Something is loading. Thanks for signing up! Access your favorite topics in a personalized feed while you're on the go. download the app Email address By clicking ‘Sign up’, you agree to receive marketing emails from Insider as well as other partner offers and accept our Terms of Service and Privacy Policy US stocks were mixed on Tuesday, while markets in China rallied after major protests against stringent zero-COVID restrictions sparked a big decline on Monday. The Shanghai Composite Index climbed 2.3% and Hong Kong's Hang Seng Index jumped 5.2%. On Tuesday, China reported lower COVID infections and touted an increase in vaccinations. Health officials in Beijing also seemingly acknowledged the adverse effects of zero-COVID policies and pledged to "reduce inconvenience" facing the public while moving to lift restrictions as soon as the current outbreak is under control. Here's where US indexes stood as the market opened at 9:30 a.m. on Tuesday: Here's what else is happening: The European Union effort to cap Russian oil prices is stalling as Poland demands a $30-per-barrel limit. Bankrupt crypto firm BlockFi is suing Sam Bankman-Fried to hand over shares of Robinhood. Credit Suisse analysts cautioned that inflation will remain above central banks' targets next year. In commodities, bonds, and crypto:</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>US stocks opened mixed on Tuesday while markets in China jumped as COVID-19 fears eased. The Shanghai Composite Index climbed 2.3% and Hong Kong's Hang Seng Index jumped 5.2% after diving on Monday. download the app Email address By clicking ‘Sign up’, you agree to receive marketing emails from Insider as well as other partner offers and accept our Terms of Service and Privacy Policy US stocks were mixed on Tuesday, while markets in China rallied after major protests against stringent zero-COVID restrictions sparked a big decline on Monday.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8073393106460571</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Global financial markets having 'awful year' despite 'great' November for most assets, says Deutsche Bank - MarketWatch</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 16:42:00 GMT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>The month of November brought some good cheer to global financial markets, with more assets up than any other month since December 2020, according to data compiled by Deutsche Bank. One of the areas that turned in the best performance was Hong Kong’s Hang Seng Index HSI, -0.33% , which had its best month since October 1998 and was up 27% in USD total return terms, according to Jim Reid, head of thematic research for Deutsche Bank DB, +1.25% . By contrast, the U.S. Dollar Index DXY, -0.21% fell 5% in November for its worst monthly performance in over a decade, he said.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>The month of November brought some good cheer to global financial markets, with more assets up than any other month since December 2020, according to data compiled by Deutsche Bank. One of the areas that turned in the best performance was Hong Kong’s Hang Seng Index HSI, -0.33% , which had its best month since October 1998 and was up 27% in USD total return terms, according to Jim Reid, head of thematic research for Deutsche Bank DB, +1.25% .</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9999966621398926</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bulls rest it out as Sensex sheds 400 pts, Nifty closes sub 18,700; Auto drags | Mint - Mint</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 10:17:56 GMT</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Copyright © 2022 HT Digital Streams Ltd All Right Reserved</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Stocks rally as Fed rate hopes dent dollar - Reuters</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[1/3] The exterior of the Marriner S. Eccles Federal Reserve Board Building is seen in Washington, D.C., U.S., June 14, 2022. REUTERS/Sarah Silbiger Summary Summary Companies Crude oil prices jump almost 3% on China demand hopes Wall Street gains for second day after big rally Dollar decline biggest two-day drop in 13 years U.S. bond markets closed for Veterans Day NEW YORK/LONDON, Nov 11 (Reuters) - Global stocks rallied on Friday for a second day on hopes cooler U.S. inflation would lead to less aggressive interest rate hikes by the Federal Reserve, an outlook that pushed the dollar to its biggest two-day drop in 13 years. Crypto exchange FTX filed for U.S. bankruptcy and founder Sam Bankman-Fried stepped down as chief executive, while oil prices jumped after health authorities in top global crude importer China eased some of the country's heavy COVID-19 curbs. Gold prices rose to a near three-month high and headed to at least their best week since July 2020 after Thursday's better-than-expected report on U.S. consumer prices bolstered bets that the Fed would be less hawkish about hiking rates. On Wall Street, stocks rose to add to the prior day's biggest daily percentage gains for the S&amp;P 500 (.SPX) and Nasdaq (.IXIC) in more than 2-1/2 years after year-over-year inflation in October fell below 8% for the first time in eight months. "We got a potential view that the Fed may not need to get as horrible as we thought over the last couple of weeks," Marvin Loh, senior global macro strategist at State Street in Boston, said about the market's exuberance. "Risk could be stabilizing here." The Fed has no choice but to press on, but if inflation is no longer rising, that indicates the end of more extensive tightening may be near, Loh said. The Dow Jones Industrial Average (.DJI) rose 0.1%, the S&amp;P 500 (.SPX) gained 0.92% and the Nasdaq Composite (.IXIC) advanced 1.88%. MSCI's all-country world index (.MIWD00000PUS) rose 1.91%, lifting it to its highest levels since mid-September, as the market repriced expectations for the Fed's target rate to peak below 5%, or about 20 basis points lower than recent highs. The MSCI emerging markets index (.MSCIEF) jumped 5.19%, in its biggest single-day surge since March. Market bets that the Fed will raise rates by 50 basis points at its next meeting in December increased, while the probability of a 75 basis points hike decreased. "While this year has been amazingly exciting and fascinating from a market perspective, maybe its crescendo was really yesterday," said Christian Chan, chief investment officer at AssetMark Financial Holdings Inc. The CPI report showed that when "you peeled back the number, it kept on getting better," but labor markets and corporate margins will be pressured as the Fed fights to lower inflation, posing potential headwinds for risk assets, Chan said. In Europe, euro zone yields firmed and the EU's executive European Commission said it sees a bigger euro zone slowdown in 2023, though only slightly affecting jobs or public finances. Britain's economy shrank in the three months to September at the start of what is likely to be a lengthy recession. John O'Toole, global head of multi-asset investment solutions at asset manager Amundi, said the reaction in stock markets to the CPI showed investors were "pretty desperate" for good news and could be getting ahead of themselves. Rates could "stay at an elevated level for an extended period of time, and that's something that financial markets just don't have in their outlook," O'Toole said. The weaker outlook for corporate earnings and jobs has yet to be fully priced into markets, he added. US inflation, Fed rates and markets Investors poured into risky assets after the U.S. data, driving the dollar down 1.6% on the day. The greenback posted its biggest two-day decline since March 2009. The yield on benchmark U.S. 10-year paper slipped below 4% on Thursday. U.S. bond markets are closed on Friday for Veterans Day. Asian shares scaled a seven-week high, with MSCI's broadest index of Asia-Pacific shares outside Japan (.MIAPJ0000PUS) set for its biggest one-day percentage jump since March 2020. In China, health authorities on Friday eased the country's heavy COVID curbs, including shortening by two days the quarantine times for close contacts of cases and inbound travelers. The country's blue-chip CSI 300 index (.CSI300) rose 2.8% and the Hang Seng Index (.HSI) surged 7.7%. Oil prices rose after the U.S. inflation data but were on track for weekly declines of more than 4% due to COVID-related worries in China. U.S. crude futures settled up $2.49 at $88.96 a barrel, while Brent rose $2.32 to settle at $95.99. U.S. gold futures settled up 0.9% at $1,769.40 an ounce. The turmoil in cryptocurrency markets this week sent bitcoin to two-year lows. After the FTX announcement, bitcoin fell 4.17% to $16,819.00. FTX's native token FTT plunged 28.47% at $2.666, having fallen 90% month-to-date. Reporting by Herbert Lash, additional reporting by Huw Jones in London; Editing by Barbara Lewis; Susan Fenton, Andrea Ricci and Jonathan Oatis Our Standards: The Thomson Reuters Trust Principles.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[1/3] The exterior of the Marriner S. Eccles Federal Reserve Board Building is seen in Washington, D.C., U.S., June 14, 2022. MSCI's all-country world index (.MIWD00000PUS) rose 1.91%, lifting it to its highest levels since mid-September, as the market repriced expectations for the Fed's target rate to peak below 5%, or about 20 basis points lower than recent highs. While this year has been amazingly exciting and fascinating from a market perspective, maybe its crescendo was really yesterday," said Christian Chan, chief investment officer at AssetMark Financial Holdings Inc. The CPI report showed that when "you peeled back the number, it kept on getting better," but labor markets and corporate margins will be pressured as the Fed fights to lower inflation, posing potential headwinds for risk assets, Chan said. Britain's economy shrank in the three months to September at the start of what is likely to be a lengthy recession. US inflation, Fed rates and markets Investors poured into risky assets after the U.S. data, driving the dollar down 1.6% on the day. The country's blue-chip CSI 300 index (.CSI300) rose 2.8% and the Hang Seng Index (.HSI) surged 7.7%.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9875176548957825</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Wall St stocks gain for second straight week on hopes of Fed slowing rate rises - Financial Times</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 21:37:50 GMT</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>What is included in my trial? During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Standard Digital includes access to a wealth of global news, analysis and expert opinion. Premium Digital includes access to our premier business column, Lex, as well as 15 curated newsletters covering key business themes with original, in-depth reporting. For a full comparison of Standard and Premium Digital, click here. Change the plan you will roll onto at any time during your trial by visiting the “Settings &amp; Account” section. What happens at the end of my trial? If you do nothing, you will be auto-enrolled in our premium digital monthly subscription plan and retain complete access for $69 per month. For cost savings, you can change your plan at any time online in the “Settings &amp; Account” section. If you’d like to retain your premium access and save 20%, you can opt to pay annually at the end of the trial. You may also opt to downgrade to Standard Digital, a robust journalistic offering that fulfils many user’s needs. Compare Standard and Premium Digital here. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>During your trial you will have complete digital access to FT.com with everything in both of our Standard Digital and Premium Digital packages. Any changes made can be done at any time and will become effective at the end of the trial period, allowing you to retain full access for 4 weeks, even if you downgrade or cancel.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9999622106552124</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Asia markets rise, except Japan, ahead of US jobs report - The Denver Post</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Thu, 03 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>By YURI KAGEYAMA TOKYO (AP) — Shares were mostly higher in Asia on Friday led by a 5.8% jump in Hong Kong’s Hang Seng index as Chinese markets were lifted by speculation that Beijing might begin to ease pandemic restrictions. Tokyo’s Nikkei fell, catching up after Japan’s markets were closed Thursday for a holiday. Investors are watching for signs of recovering demand in China and weighing risks of further interest increases by major central banks to rein in inflation. Wall Street’s benchmark S&amp;P 500 lost 1.1% on Thursday and the tech-heavy Nasdaq composite index sank 1.7% a day after the Federal Reserve raised its benchmark rate for the sixth time this year. Traders are looking ahead to a closely watched U.S. jobs report due out later Friday. In the past few days, Chinese shares have climbed on hopes that authorities might begin to ease the country’s stringent COVID-19 controls. That would alleviate supply chain disruptions that have slowed economic activity and pave the way for stronger demand from the world’s No. 2 economy. There has been no official confirmation of any such policy changes. Hong Kong’s Hang Seng jumped 16,221.86 while the Shanghai Composite added 2.1% to 3,060.39. Elsewhere in Asia, Japan’s benchmark Nikkei 225 dropped nearly 2% to 27,120.61. Australia’s S&amp;P/ASX 200 added 0.3% to 6,878.20, and South Korea’s Kospi gained 0.3% to 2,335.72. The decline on Wall Street came a day after the central bank again raised its benchmark rate and signaled that it may need to keep hiking rates for some time to successfully squash the highest inflation in decades. The S&amp;P 500 fell 39.80 points to 3,719.89. The Dow lost 0,5% to 32,001.25. The Nasdaq slid 181.86 points to 10,342.94. Smaller company stocks also lost ground. The Russell 2000 fell 0.5% to 1,779.73. Expectations of higher interest rates helped push up Treasury yields, weighing on stocks. The two-year Treasury note, which tends to track expectations for future Fed moves, rose to 4.72% from 4.61% late Wednesday and is now at its highest level since 2007, according to Tradeweb. The yield on the 10-year Treasury rose to 4.15% from 4.09% late Wednesday. The rise in the 10-year Treasury yield has prompted mortgage rates to more than double this year and it continues putting pressure on stocks. The central bank’s latest three-quarters-of-a-percentage-point raise brings short-term interest rates to a range of 3.75% to 4%, its highest level in 15 years. Wall Street is evenly split on whether the central bank ultimately raises rates to a range of 5% to 5.25% or 5.25% to 5.50% next year. Higher rates not only slow the economy by discouraging borrowing, they also make stocks look less appealing compared to lower-risk assets like bonds and CDs. Stubbornly hot inflation has been prompting central banks around the world to also raise interest rates. On Thursday, the Bank of England announced its biggest interest rate increase in three decades. The increase is the Bank of England’s eighth in a row and the biggest since 1992. Investors had been hoping for economic data signaling that the Fed might avoid more rate hikes that might go too far in slowing the economy and bring on a recession. But hotter-than-expected data from the employment sector this week has so far signaled that the Fed will remain aggressive. On Friday, Wall Street will get a broader update from the U.S. government’s October jobs report. So far, hiring and wage growth have not fallen fast enough for the Fed to slow its inflation-fighting efforts. If the October data shows a stronger-than-expected rise in hiring or wages, that could put pressure on the Fed to keep raising interest rates. The Labor Department is expected to report that nonfarm employers added 200,000 jobs last month. That would be the worst showing since December 2020, when the economy lost 115,000 jobs. Investors will also be looking ahead to the latest data on inflation at the consumer level. That report, the consumer price index, is due out next week. “A busy week ahead for economic releases is expected with the key focus on U.S. and China inflation figures for October. China will also update October trade figures. The United Kingdom meanwhile releases third quarter GDP figures while Germany’s industrial production data will also be due,” S&amp;P Global Market Intelligence said in its report on the upcoming week. Wall Street has also been closely watching the latest company earnings reports. The reports have been mixed and many companies have warned that inflation will likely continue pressuring operations. In energy trading Friday, benchmark U.S. crude rose 67 cents to $88.84 a barrel in electronic trading on the New York Mercantile Exchange. Brent crude, the international standard, gained 65 cents in London to $95.32 a barrel. In currency trading, the U.S. dollar inched down to 148.06 Japanese yen from 148.25 yen. The euro cost 97.74 cents, up from 97.50 cents. ___ AP Business Writers Damian J. Troise and Alex Veiga contributed to this report.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>By YURI KAGEYAMA TOKYO (AP) — Shares were mostly higher in Asia on Friday led by a 5.8% jump in Hong Kong’s Hang Seng index as Chinese markets were lifted by speculation that Beijing might begin to ease pandemic restrictions. Elsewhere in Asia, Japan’s benchmark Nikkei 225 dropped nearly 2% to 27,120.61. Stubbornly hot inflation has been prompting central banks around the world to also raise interest rates. On Friday, Wall Street will get a broader update from the U.S. government’s October jobs report. If the October data shows a stronger-than-expected rise in hiring or wages, that could put pressure on the Fed to keep raising interest rates. Investors will also be looking ahead to the latest data on inflation at the consumer level. That report, the consumer price index, is due out next week. “ In currency trading, the U.S. dollar inched down to 148.06 Japanese yen from 148.25 yen.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8390077352523804</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Global stocks rise but Polish deaths raise market concerns - Reuters</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Tue, 15 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[1/2] The German share price index DAX graph is pictured at the stock exchange in Frankfurt, Germany, November 14, 2022. REUTERS/Staff Summary U.S. producer price data bolsters peak-inflation view Markets price in lower Federal Reserve target rate Deaths in Poland spark Ukrainian war escalation fears NEW YORK, Nov 15 (Reuters) - Stocks rose and the dollar fell on Tuesday after data provided new signs U.S. inflation was peaking, but markets were rattled by media reports that said Russian missiles killed two people in Poland, news that raised fears of an escalation in the Ukraine war. Firefighters said two people were killed in an eastern Polish village near the Ukrainian border, Reuters reported. Other media said the deaths were due to what Kyiv said were the heaviest Russian missile strikes since the war in Ukraine began. The White House said it could not confirm the reports, which Russia's defense ministry denied and described as "a deliberate provocation aimed at escalating the situation." Stocks wavered and the dollar briefly rose on initial reports of the Polish deaths as the market was overstretched as data suggested inflation was coming off its peak, said Marc Chandler, chief market strategist at Bannockburn Global Forex in New York. The Polish deaths were reminiscent of U.S. bombs that killed three people in the Chinese Embassy in Belgrade in 1999, he said. "It did not trigger a war. It was a tragic accident. This is along those same lines," Chandler said. Stocks rallied and bond yields slid further after the Labor Department reported that U.S. producer prices increased just 0.2% in October. On an annualized basis, PPI rose 8.0% after climbing 8.4% the previous month. Economists polled by Reuters forecast monthly PPI rising 0.4% and advancing 8.3% year-on-year. The reading was better than expected and bolstered the risk-off mood sparked last week by cooler-than-expected data on U.S. consumer prices that gave investors hope the Federal Reserve can soon curb its aggressive interest rate hikes to tame inflation. "The market is sniffing out the end of the Fed rate hike cycle," said Peter Duffy, chief investment officer of credit at Penn Capital Management Co LLC in Philadelphia. "The market is taking a big sigh of relief because the Fed has had to talk so tough. As soon as these numbers can start coming down, even if it's a slow walk down in inflation, the market will be relieved." Fed funds futures slid further from last week's above 5% forecast for the U.S. central bank's target rate. The market is now pricing in a peak of 4.9% next May and June, and then a drop to 4.39% by year's end on expectations the Fed cuts rates. The likelihood the Fed hikes 50 basis points in December rose to a 93% probability, up from 71.5% last week. Reuters Graphics Reuters Graphics MSCI's gauge of stocks across the globe (.MIWD00000PUS) gained 1.03%, while its emerging markets index (.MSCIEF) rose 2.22%. On Wall Street, the Dow Jones Industrial Average (.DJI) rose 0.17% after wobbling on the Polish deaths. The S&amp;P 500 (.SPX) gained 0.87% and the Nasdaq Composite (.IXIC) added 1.45%. Big moves in the dollar, among other assets, suggested investors were dramatically changing their positions after the CPI and PPI reports, Chandler said. It will take time to gain a better take on inflation and the Fed's policy plans, Duffy said. The euro up 0.22% to $1.0348, after briefly slipping on the Polish reports, and the yen strengthened 0.50% versus the dollar at 139.18. The benchmark 10-year Treasury yield fell to a six-week low of 3.758% and was last down 10.1 basis points to 3.766%. The 10-year has fallen 30 basis points since Thursday. Chinese and Hong Kong stocks rallied overnight as investors digested China's COVID-19 policy adjustments, a property sector rescue package, and a cooling in tensions between the U.S. and China. Hong Kong's Hang Seng Index (.HSI) surged 4.11% overnight. The index is up nearly 25% for the month while China's CSI 300 (.CSI300) has gained 10% in that time. U.S. President Joe Biden and Chinese President Xi Jinping held a three-hour meeting on Monday in Bali on the sidelines of the G20 gathering. Investors welcomed the two countries' pledge of more frequent communications. U.S. crude futures settled up $1.05 at $86.92 a barrel, while Brent futures rose 72 cents to settle at $93.86. U.S. gold futures settled little changed at $1,776.80 an ounce after it bullion prices edged up near three-month highs on safe-haven buying following the media reports from Poland. Bitcoin rose 1.33% to $16,809.00, but remained around 20% lower for the month. The collapsed FTX crypto exchange outlined a "severe liquidity crisis" in bankruptcy filings released on Tuesday. Reporting by Herbert Lash, additional reporting by Harry Robertson; Editing by Bradley Perrett, Simon Cameron-Moore, Ken Ferris, Emelia Sithole-Matarise, Susan Fenton and Deepa Babington Our Standards: The Thomson Reuters Trust Principles.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[1/2] The German share price index DAX graph is pictured at the stock exchange in Frankfurt, Germany, November 14, 2022. Other media said the deaths were due to what Kyiv said were the heaviest Russian missile strikes since the war in Ukraine began. The market is now pricing in a peak of 4.9% next May and June, and then a drop to 4.39% by year's end on expectations the Fed cuts rates. On Wall Street, the Dow Jones Industrial Average (.DJI) rose 0.17% after wobbling on the Polish deaths. Chinese and Hong Kong stocks rallied overnight as investors digested China's COVID-19 policy adjustments, a property sector rescue package, and a cooling in tensions between the U.S. and China. Investors welcomed the two countries' pledge of more frequent communications. Bitcoin rose 1.33% to $16,809.00, but remained around 20% lower for the month.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5898958444595337</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hong Kong's tech stocks drop as Asia markets mostly fall - CNBC</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Sun, 24 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng Tech index dropped on Monday as major indexes in Asia-Pacific slipped. The Hang Seng index in Hong Kong fell 0.22% to close 20,562.94, and the Hang Seng Tech index lost 1.38%. The Financial Times reported over the weekend that China plans to sort U.S.-listed Chinese companies into three groups depending on the sensitivity of the data the firms hold. The new system aims to prevent American regulators from delisting Chinese companies by bringing some firms into compliance with the U.S. rules, the FT reported, citing people with knowledge of the situation. Chinese firms with "secretive" data would have to delist, the report said. China's securities regulator told CNBC it has not come up with a three-tiered system to help Chinese companies avoid U.S. delisting. Hong Kong shares of U.S.-listed Chinese companies dropped on Monday. Nio plunged 6.42%, XPeng lost 6.3% and Alibaba fell 2.45%. Mainland China markets were also lower. The Shanghai Composite slipped 0.60% to 3,250.39, and the Shenzhen Component shed 0.83% to 12,291.59.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Hong Kong's Hang Seng Tech index dropped on Monday as major indexes in Asia-Pacific slipped. The new system aims to prevent American regulators from delisting Chinese companies by bringing some firms into compliance with the U.S. rules, the FT reported, citing people with knowledge of the situation.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9852842688560486</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hong Kong Market falls as China's PPI depreciates - Business Standard</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Hong Kong share market finished session steep down on Wednesday, 9 November 2022, registering second day of falling streak, amid caution ahead of the U. S. inflation data as well as the results of the U. S. midterm elections that could signify a power shift in Washington. Also weighing sentiments was official data showing China's factory gate prices went backwards and consumer inflation slowed, highlighting concerns about weakening demand and consumption trend and the economic outlook in the country. At closing bell, the benchmark Hang Seng Index dropped 198.79 points, or 1.2%, to 16,358.52. The Hang Seng China Enterprises Index was down 67.85 points, or 1.21%, to 5,534.76. Investor appetite was dampened by latest official data showing that the world's second-largest economy factory gate prices fell for the first time in nearly two years and consumer inflation slowed, highlighting concerns about weakening demand and consumption trend and the economic outlook in the country. China's producer price index (PPI), which reflects the prices that factories charge wholesalers for products, fell by 1.3% year on year in October, down from 0.9% growth in September, the National Bureau of Statistics (NBS) said on Wednesday. China consumer price index (CPI), meanwhile, rose by 2.1% in October from a year earlier, down from 2.8% growth in September, remaining below the annual target of around 3%. China's core consumer inflation rate, excluding the volatile prices of food and energy, rose by 0.6% in October compared with a year earlier, unchanged from September. Meanwhile, risk sentiments dented further on caution ahead of results of the U. S. midterm elections, which could affect future levels of government spending and regulation in the second half of President Joe Biden's term. Results of the U. S. midterm elections will decide whether the Democrats lose or retain congressional control halfway through President Joe Biden's term, with investors expecting Republican gains. Republicans are widely favoured to pick up the five seats they need to control the House, but control of the Senate could come down to tight races in several states. A split Congress would diminish the outlook for fiscal support measures, leading to investors to expect the Fed to sooner become less aggressive in raising interest rates. Traders also continued to look ahead to Thursday's report on consumer price inflation. The inflation data would give clues about how much the U. S. Federal Reserve's rapid interest rate hikes are helping cool down the economy. Among blue chips, electric-vehicle maker BYD retreated 4.6% to HK$187 and WuXi Biologics lost 4.7% to HK$44.60. Tencent Holdings declined 3.7% to HK$236.80 and Alibaba Group slipped 1.6% to HK$66. Shares of Property developers surged after Beijing unveiled further support for the industry. Country Garden surged 14% to HK$1.64 and its peer Longfor rallied 4% to HK$13.94. Many Idea Cloud Holdings, which offers integrated marketing solution services, rose 2% to HK$2 on its first day of trading in Hong Kong. Powered by Capital Market - Live News (This story has not been edited by Business Standard staff and is auto-generated from a syndicated feed.)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Hong Kong share market finished session steep down on Wednesday, 9 November 2022, registering second day of falling streak, amid caution ahead of the U. S. inflation data as well as the results of the U. S. midterm elections that could signify a power shift in Washington. Investor appetite was dampened by latest official data showing that the world's second-largest economy factory gate prices fell for the first time in nearly two years and consumer inflation slowed, highlighting concerns about weakening demand and consumption trend and the economic outlook in the country. China consumer price index (CPI), meanwhile, rose by 2.1% in October from a year earlier, down from 2.8% growth in September, remaining below the annual target of around 3%. Country Garden surged 14% to HK$1.64 and its peer Longfor rallied 4% to HK$13.94.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9999916553497314</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Why Nio Stock Exploded This Week - The Motley Fool</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 19:23:17 GMT</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>What happened Nio (NIO 8.60%) stock fired up this week -- and how. Barring one down day, the shares rallied every other day and were up a whopping 28% through the week as of 11:45 a.m. ET Friday, according to data provided by S&amp;P Global Market Intelligence. Nio is growing rapidly, as its latest delivery numbers suggest, but this week's epic rally was driven almost entirely by one macroeconomic trigger. That one trigger alone attracted big investors into Nio, as they perhaps see it as a surefire sign of an end to the biggest overhang on the electric vehicle (EV) stock. For that matter, Nio's CEO William Li also had some big things to say this week, including his belief that Nio will give German luxury carmaker BMW a run for its money. So what Because Nio is a Chinese company, its stock price has been all over the place in recent months as China grappled with surging COVID-19 cases and put large regions, including important manufacturing hubs, under strict lockdowns. In a significant -- and surprising -- turn of events this past weekend, though, mass public protests against Draconian zero-COVID policies erupted in China, fueling hopes of an easing in restrictions and an economic upswing. On Wednesday, the nation lifted some COVID restrictions in some areas. The Hang Seng index clocked its biggest monthly gains since 2003, and Chinese stocks in the U.S. skyrocketed. Nio shares surged by double-digit percentages. Although most Chinese stocks took a breather the next day after their dizzying one-day rally, Nio revealed record delivery numbers for the month of November, in line with its outlook. Nio's November deliveries rose 30% year over year and 41% sequentially, and it grew faster than peers overall. While Nio's ES7 SUV saw a big jump in sales, the company also sold 2,968 units of its newly launched sedan, ET5, which is touted to be a potential game changer for the EV maker. Now what While the markets may have focused only on the China angle this week, investing in a Chinese stock on expectations and speculation about the economy is still about as risky as it can get. Of course, any rebound in the Chinese economy will bode well for Nio, but investors should buy the stock for what the company is doing and can do, even in a challenging business environment. Nio doesn't disappoint on that front. This week, Nio said it will accelerate production and deliveries in December, which means the company could meet its guidance of record deliveries in December and 75% or higher growth in revenue in the fourth quarter. Further, in a speech to employees this week on Nio's eighth anniversary, Li spoke about the company's goal to break even by 2024 and produce its own batteries and semiconductor chips in the long term. Li also said Nio is now focused on increasing sales, and he is so confident about its EVs that he believes anyone who drove a BMW will not go back once they buy a Nio vehicle. I have been pounding the table on Nio stock for several weeks now, and this week just proved how quickly investor sentiment in the stock can change.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>What happened Nio (NIO 8.60%) stock fired up this week -- and how. So what Because Nio is a Chinese company, its stock price has been all over the place in recent months as China grappled with surging COVID-19 cases and put large regions, including important manufacturing hubs, under strict lockdowns. While Nio's ES7 SUV saw a big jump in sales, the company also sold 2,968 units of its newly launched sedan, ET5, which is touted to be a potential game changer for the EV maker. Now what While the markets may have focused only on the China angle this week, investing in a Chinese stock on expectations and speculation about the economy is still about as risky as it can get.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.690991997718811</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Here's what stock-market investors are getting wrong about China and its zero-COVID policy, economists say - Morningstar</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 21:35:00 GMT</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>By Isabel Wang No major supply chain disruption, but opening up of economy won't happen anytime soon Investors took some cheer this week from China's latest COVID policy after massive anti-lockdown protests erupted across the country, rattling global financial markets, but economists think that markets have placed a "too high probability" on restrictions being relaxed soon. China's National Health Commission said on Tuesday it would ramp up COVID vaccinations for the elderly and pledged to rectify COVID control measures, a move that is seen as allowing the government eventually to relax restrictions and to reduce their impact on people's lives. After a sharp selloff on Monday driven by worries that China's civil unrest and full-blown lockdown would stoke global supply chain disruptions, financial markets recovered amid hope of the pandemic policy relief. U.S. stocks finished nearly flat on Tuesday after the Dow Jones Industrial Average dropped nearly 500 points in the previous session. Hong Kong's Hang Seng Index jumped 2.2% on Wednesday, booking a monthly gain of over 25%. It is the largest one month percentage gain since 1998, according to Dow Jones Market Data. See:Some markets cheer as China vows to vaccinate more elderly. Analysts see positive movement by officials However, economists at Capital Economics are concerned that investors are too optimistic about China's exit from its zero-COVID policy and think it will not happen soon. "I think the markets have taken a half glass full approach to the situation. There's definitely investors who are looking at the bright side of this and hoping for an end to zero-COVID in the near future," said Jonas Goltermann, senior markets economist at Capital Economics. "But it is not something we think is justified if we're right that lockdowns continue and zero-COVID isn't going anywhere. Eventually that will filter through and that probably will put renewed downward pressure on the Chinese stock market." For years, the Chinese equity markets had offered both domestic and foreign investors an opportunity to invest in one of the fastest growing economies in the world. However, Chinese equities have tumbled since the start of 2021 with Hang Seng China Enterprises Index down 43.3%. The iShares MSCI China (MCHI) exchange-traded fund (ETF) slumped 46.3% since February 2021, according to Dow Jones Market Data. The price-to-earning ratios of China-related indexes and ETFs are at their lowest levels compared to their own history and to other financial markets, especially the U.S., where valuations are still very high, Goltermann told clients in a briefing on Tuesday. "I can see where investors are coming from -- the Chinese market looks cheap or undervalued relative to the past, (and) relative to peers. There is a turnaround into COVID that does have the scope for a significant rebound. Now, we don't think that's justified and based on zero-COVID outlook," he added. Related: China needs at least a year to end zero-COVID policy, experts say Economists do not think the country is now ready to open up its economy, though recent updates to its COVID policy which simplify various protocols are a step in that direction. Earlier this month, investors applauded as the government announced tweaks to its zero-COVID policy, which include less amount of time international travelers entering the country must spend in quarantine and no more mass testing unless it is unclear how infections are spreading in an area. The changes raised a glimmer of hope that the government was considering easing its draconian pandemic restrictions. In the best case scenario, the country is going to open up in 2023 or 2024, so the rest of the world won't see any supply chain disruption, said Mark Williams, chief Asia economist at Capital Economics. But there is also a significant downside risk that the pandemic gets out of control and the country needs to impose a nation-wide lockdown across industries, which would feed through to the global supply chains and commodity markets. White House on Monday said demonstrations in China haven't resulted in supply-chain disruptions. U.S. stocksrallied on Wednesday after Federal Reserve Chairman Powell said the central bank's pace of interest-rate increases can slow as soon as its December meeting. The S&amp;P 500 gained 3.1%, while the Dow rose 2.2% to exit a bear market and the Nasdaq Composite advanced 4.4%. -Isabel Wang (END) Dow Jones Newswires 11-30-22 1635ET Copyright (c) 2022 Dow Jones &amp; Company, Inc.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>By Isabel Wang No major supply chain disruption, but opening up of economy won't happen anytime soon Investors took some cheer this week from China's latest COVID policy after massive anti-lockdown protests erupted across the country, rattling global financial markets, but economists think that markets have placed a "too high probability" on restrictions being relaxed soon. U.S. stocks finished nearly flat on Tuesday after the Dow Jones Industrial Average dropped nearly 500 points in the previous session. The iShares MSCI China (MCHI) exchange-traded fund (ETF) slumped 46.3% since February 2021, according to Dow Jones Market Data. I can see where investors are coming from -- the Chinese market looks cheap or undervalued relative to the past, (and) relative to peers. Related: China needs at least a year to end zero-COVID policy, experts say Economists do not think the country is now ready to open up its economy, though recent updates to its COVID policy which simplify various protocols are a step in that direction. White House on Monday said demonstrations in China haven't resulted in supply-chain disruptions.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.998451828956604</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Asian stocks extend best rally in 24 years on China, Fed boosts - The Edge Markets MY</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 15:05:00 GMT</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>(Dec 1): Equities in Asia extended gains after their best monthly rally in 24 years, as concerns eased over China's Covid-19 measures and the US Federal Reserve's (Fed) tightening. After capping a 15% gain November, the MSCI Asia Pacific Index jumped as much as 2.5% on Thursday, inching closer toward a bull market. Gauges in China, Japan, and Taiwan led gains — although Hong Kong's measures pared — as a top Chinese official said efforts to combat the virus are entering a new phase with the Omicron variant weakening and vaccination rates rising. Investors may look past China's near-term economic slump "as long as there are positive signs of China's reopening", David Chao, global market strategist for Asia Pacific ex-Japan at Invesco, wrote in a note. Traders will watch whether China's central bank will ease further in December, he added. Regional equities also got a boost from a weaker dollar, after Fed chair Jerome Powell said that the pace of rate increases may moderate in December. The comments came as ADP Research Institute data showed hiring at US firms cooled last month and wage gains moderated. Asian stocks have battled back as the shift in the Fed's policy stance and China's reopening appeared to materialise and foreign funds piled into emerging markets. The exuberance may be on shaky ground, however, as the outlook for global growth dims into next year. Sectors to watch • Some Chinese shares linked to economic reopening, such as Macau casinos, extended their days-long rally after a top official in charge of the fight against Covid-19 softened her stance. • Korean construction stocks including Dongbu rallied as Powell's speech fuelled bets that a slowdown in rate hikes will aid the country's battered real estate market. • Chinese electric-vehicle (EV) makers surged, tracking the rally in the US-listed peers, amid rising optimism about loosening lockdown restrictions in China and encouraging signs from Xpeng's quarterly results. • Philippine lenders such as Philippine National Bank gained after central bank data showed loans grew at a faster pace in October even after successive interest rate hikes by the monetary authority. • Japanese property stocks fell as Mizuho Securities lowered ratings and cut price targets for Mitsubishi Estate and Sumitomo Realty. • Airlines in India rose after jet fuel prices were lowered by about 2.3% by oil marketing firms. Markets at a glance • MSCI Asia Pacific Index up 1.7%. • Japan's Topix index little changed, Nikkei 225 up 0.9%. • Hong Kong's Hang Seng Index up 0.7%, Hang Seng China Enterprises up 0.2%, Shanghai Composite up 0.4%, CSI 300 up 1.1%. • Taiwan's Taiex index up 0.9%. • South Korea's Kospi index up 0.3%, Kospi 200 up 0.3%. • Australia's S&amp;P/ASX 200 up 1%, New Zealand's S&amp;P/NZX 50 up 0.9%. • India's S&amp;P BSE Sensex Index up 0.4%, NSE Nifty 50 up 0.4%. • Singapore's Straits Times Index up 0.1%, Malaysia's KLCI index up 0.2%, Philippine Stock Exchange Index down 0.7%, Jakarta Composite Index down 0.9%, Thailand's SET index up 0.6%, Vietnam's VN Index down 1.2%. Advancers • XPeng jumped 13% in Hong Kong amid a broad risk-on rally after the EV maker's third-quarter margins beat expectations. • Tokyo Electron climbed 4% after Mitsubishi UFJ Morgan Stanley upgraded its rating, citing recovery prospects from mid-2023. Decliners • Shares of GoTo plunged 6.6% in Jakarta to another record low after a lock-up on its major shareholder stakes expired, freeing early backers to reduce their holdings.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>(Dec 1): Equities in Asia extended gains after their best monthly rally in 24 years, as concerns eased over China's Covid-19 measures and the US Federal Reserve's (Fed) tightening. Gauges in China, Japan, and Taiwan led gains — although Hong Kong's measures pared — as a top Chinese official said efforts to combat the virus are entering a new phase with the Omicron variant weakening and vaccination rates rising. The comments came as ADP Research Institute data showed hiring at US firms cooled last month and wage gains moderated. Korean construction stocks including Dongbu rallied as Powell's speech fuelled bets that a slowdown in rate hikes will aid the country's battered real estate market. • Hong Kong's Hang Seng Index up 0.7%, Hang Seng China Enterprises up 0.2%, Shanghai Composite up 0.4%, CSI 300 up 1.1%. •</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.5279691815376282</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>What Investors Should Know About AIA Group (HKEX: 1299), Asia's Largest Insurance Stock - DollarsAndSense.sg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 03:00:04 GMT</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Insurance is a big part of our lives. Here in Singapore, while we buy a lot of insurance products, we don’t actually have that many listed insurance stocks that we can invest in on the local Singapore Exchange (SGX). One of the good things about the Hong Kong Stock Exchange is that it offers investors access to a wide range of large companies in various sectors. In the insurance sector, Hong Kong’s stock market is home to Asia’s largest listed insurance company by market capitalisation – AIA Group Ltd (HKEX: 1299). Currently, AIA has a market cap of HK$797 billion (US$101.5 billion). For context, in Singapore the largest insurance stock on the SGX is Great Eastern Holding Ltd (SGX: G07), which has a market cap of around S$8.6 billion (US$6.1 billion). So, for investors interested in AIA Group and its business, here’s what investors should know about Asia’s largest listed insurance company. A Brief History Of AIA Group AIA Group was founded in Shanghai in 1919, meaning that the company originally has its roots in Asia. While it was a subsidiary of US-based insurer American International Group Inc (AIG) (NYSE: AIG) – that was a key victim of the Global Financial Crisis – none of AIA’s business was related to its parent. In 2010, AIG spun off AIA in a Hong Kong initial public offering (IPO) that raised US$17.9 billion, making it the world’s third-largest IPO at the time. Shares were priced at HK$19.68. Today, the company is present in 18 Asia-Pacific markets, from Malaysia, Thailand, and Singapore to China, India, South Korea, and Australia, among others. It serves mainly the health and life insurance segments, which is a sizeable and growing market in Asia. A China focus for AIA Group AIA was known as a pan-Asian insurance company when it was first listed in 2010. While that still applies, its business has become more geared towards the growth of the insurance industry in Mainland China. It’s currently the only foreign life insurance company with a wholly-owned subsidiary (AIA China) that operates in Mainland China. Initially confined to business in coastal cities in China, the company has increasingly been receiving approvals to start branches of operations in new provinces. Over the past two or three years, the company has received approval from the China Banking and Insurance Regulatory Commission (CBIRC) to open branches in new Chinese provinces and cities, including Hubei, Sichuan, and Henan. This focus on expansion in China can be seen through its earnings makeup. For insurance companies, many investors look at the Value of New Business (VONB) as a measure of growth. In the first half of 2022, AIA recorded VONB of US$1.54 billion, down 13% year-on-year. Most of this fall was attributed to movement restrictions in China during the period, which negatively impacted AIA China’s VONB growth. As investors can see, China made up over one-third of AIA’s overall VONB in the first half of this year and Hong Kong made up 19% (see below). Meanwhile, Thailand, Malaysia, Singapore, and Other Markets (which include Vietnam, Australia, India, South Korea, the Philippines, Sri Lanka, Taiwan, New Zealand, Indonesia, Cambodia, Brunei, and Myanmar) combined make up nearly 50% of the group’s VONB. Source: AIA Group H1 2022 earnings presentation Operating &amp; Business Metrics For AIA Group AIA sells a lot of its policies via its own agency force, as can be seen from the chart above. The rest comes from partnerships such as bancassurance agreements with large financial institutions and banks. This model has seen the company grow its operating profit after tax (OPAT) at a steady rate over the years. In the first half of 2012, the company’s OPAT was US$1.08 billion while in the first half of 2022 AIA posted an OPAT of US$3.22 billion (see below). Quite a bit of this OPAT growth in the first half of 2022 came from Hong Kong, Mainland China, and Singapore. Source: AIA Group H1 2022 earnings presentation In terms of capital allocation, in March of this year, AIA announced that it would be carrying out a US$10 billion share buyback over three years given the strong free surplus that it holds. The company has also been paying shareholders a dividend since 2011. It has grown this annual dividend per share (DPS) from HK$0.33 per share in 2011 to HK$1.46 in 2021. That equates to a compound annual growth rate (CAGR) in its dividend of 16% over the past decade. At its current price, AIA shares provide investors with a 12-month trailing dividend yield of 2.2%. If individuals want to buy its stock, you will have to be aware that the company sells its shares in board lots of 200 shares each. That means – based on its latest price of HK$68.05 – the minimum amount required to purchase AIA shares would be HK$13,610, which at current exchange rates is S$2,423. AIA Group Is A Big Insurance Stock To Monitor Overall, AIA is a large insurance company that is also a constituent member of the Hang Seng Index (Hong Kong’s equivalent of the Straits Times Index). The company is continuing to see a recovery in key markets in which it operates in. In its latest brief Q3 2022 business update, the company stated that group VONB was up 7% year-over-year to US$741 million. For investors who are interested in insurance stocks in Asia, AIA is a big company worth following. Advertiser Message Looking to gain exposure to the Hong Kong Stocks here on SGX? You can do so via Daily Leverage Certificates (DLCs) that allows you to gain leveraged exposure of up 7x on key Hang Seng Indices and 5x on Hong Kong Stocks for both Long and Short direction. DLCs are listed on SGX Securities Market and can be traded through a regular stock brokerage account. Learn more about the product features and associated risks on the Societe Generale DLC website. Check out the latest Broker Promotion - Trade the DLCs and get S$200* cash credit (T&amp;Cs apply) Check out the latest Broker Promotion - Be rewarded when you trade SGX Listed DLCs. Claim your S$150 Now! (T&amp;Cs apply) This advertisement has not been reviewed by the Monetary Authority of Singapore. The DLCs are for specified investment products (SIP) qualified investors only. 4 Stocks This Week is not a recommendation from us to buy or sell any of these stocks. For investors who are keen to find out more, you should continue researching about them before making your investment decisions.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Here in Singapore, while we buy a lot of insurance products, we don’t actually have that many listed insurance stocks that we can invest in on the local Singapore Exchange (SGX). For context, in Singapore the largest insurance stock on the SGX is Great Eastern Holding Ltd (SGX: G07), which has a market cap of around S$8.6 billion (US$6.1 billion). Over the past two or three years, the company has received approval from the China Banking and Insurance Regulatory Commission (CBIRC) to open branches in new Chinese provinces and cities, including Hubei, Sichuan, and Henan. The rest comes from partnerships such as bancassurance agreements with large financial institutions and banks. In the first half of 2012, the company’s OPAT was US$1.08 billion while in the first half of 2022 AIA posted an OPAT of US$3.22 billion (see below). Quite a bit of this OPAT growth in the first half of 2022 came from Hong Kong, Mainland China, and Singapore. The company has also been paying shareholders a dividend since 2011. That equates to a compound annual growth rate (CAGR) in its dividend of 16% over the past decade. AIA Group Is A Big Insurance Stock To Monitor Overall, AIA is a large insurance company that is also a constituent member of the Hang Seng Index (Hong Kong’s equivalent of the Straits Times Index). Check out the latest Broker Promotion - Trade the DLCs and get S$200* cash credit (T&amp;Cs apply) Check out the latest Broker Promotion - Be rewarded when you trade SGX Listed DLCs.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9999868869781494</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>A combination of factors led to the rally in the Hang Seng index, says Goldman Sachs - CNBC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Wed, 02 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Share Share Article via Facebook Share Article via Twitter Share Article via LinkedIn Share Article via Email A combination of factors led to the rally in the Hang Seng index, says Goldman Sachs Timothy Moe of the investment bank says the Hong Kong's Hang Seng was "ripe for any kind of recovery, rebound and short-selling covering" after it fell sharply recently.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Share Share Article via Facebook Share Article via Twitter Share Article via LinkedIn Share Article via Email A combination of factors led to the rally in the Hang Seng index, says Goldman Sachs Timothy Moe of the investment bank says the Hong Kong's Hang Seng was "ripe for any kind of recovery, rebound and short-selling covering" after it fell sharply recently.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9811407327651978</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Stocks to Decline at Open - Baystreet.ca</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 13:42:34 GMT</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Futures for Canada's main stock index dipped on Friday, tracking losses in bullion prices, while investors stayed on the sidelines ahead of key domestic jobs data for clues on the pace and path of future interest rate hikes. The TSX Composite gained 72.19 points to close Thursday’s session at 20,525.45. December futures on the S&amp;P/TSX index bowed 0.2%. The Canadian dollar edged 0.02 cents to 74.43 cents U.S. Canada's largest pension fund CPP Investments is set to raise $372 million in its first "reverse inquiry" bond on Dec. 9, where lenders Royal Bank of Canada and CIBC would be the underwriters to the offer. On the economic bulletin board, Statistics Canada said the economy created but 10,000 jobs in November, bringing the unemployment rate down 0.1 percentage points to 5.1%. ON BAYSTREET The TSX Venture Exchange gained 8.18 points, or 1.4%, Thursday to 599.18. ON WALLSTREET Stock futures dropped Friday as investors digested stronger than expected jobs data, which worried investors looking for signals that the Federal Reserve can slow interest rate hikes. Futures for the Dow Jones Industrials dropped 65 points, or 0.2%, to 34,364. Futures for the S&amp;P 500 fell 5.75 points, or 0.1%, to 4,076. Futures for the NASDAQ Composite subsided 28.5 points, or 0.2%, to 12,034.25. Non-farm payrolls increased 263,000 in November, a gain larger than the 200,000 jobs expected by analysts polled by Dow Jones. Friday’s is the final monthly employment report before the Federal Reserve’s two-day meeting on Dec. 13 and 14, in which the central bank is expected to raise its fed funds target rate by a half-percentage point. A 50-basis-point increase would mark a slowing from the prior 75-basis-point rate hikes set by the central bank. Tesla shares were slightly higher in pre-market trading after CEO Elon Musk delivered the first Semi trucks to PepsiCo at an event on Thursday. The trucks were first unveiled in 2017 and originally due to be produced in 2019 but were delayed by the pandemic and other issues. DoorDash shares fell 2.8% in pre-market trading after RBC Capital Markets downgraded the stock to “sector perform” from “outperform.” RBC praised the delivery service’s execution and management, but said it’s uncomfortable with the current valuation given the potential for order deceleration. In Japan, the Nikkei 225 shed 1.6% Friday, while in Hong Kong, the Hang Seng Index lost 0.3%. Oil prices gained 70 cents to $81.92 U.S. a barrel. Gold prices gave back $4.40 to $1,801.80 U.S. an ounce.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Futures for Canada's main stock index dipped on Friday, tracking losses in bullion prices, while investors stayed on the sidelines ahead of key domestic jobs data for clues on the pace and path of future interest rate hikes. The Canadian dollar edged 0.02 cents to 74.43 cents U.S. Canada's largest pension fund CPP Investments is set to raise $372 million in its first "reverse inquiry" bond on Dec. 9, where lenders Royal Bank of Canada and CIBC would be the underwriters to the offer. Futures for the NASDAQ Composite subsided 28.5 points, or 0.2%, to 12,034.25. The trucks were first unveiled in 2017 and originally due to be produced in 2019 but were delayed by the pandemic and other issues.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.627979040145874</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hong Kong Stock Market (HSI) Rebounds After Flirting With Correction Levels - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mon, 18 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Gold Down 1%; Samsara Shares Spike Higher - Asana (NYSE:ASAN), Anavex Life Sciences (NASDAQ:AVXL) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 17:06:59 GMT</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>U.S. stocks traded lower midway through trading, with the Dow Jones falling around 75 points on Friday. The Dow traded down 0.22% to 34,319.84 while the NASDAQ fell 0.71% to 11,401.44. The S&amp;P 500 also fell, dropping, 0.47% to 4,057.57. Also check this: Ethereum Edges Lower But Remains Above This Key Level; Dogecoin Becomes Top Loser Leading and Lagging Sectors Energy shares rose by 0.1% on Friday. Leading the sector was strength from Borr Drilling Limited BORR and CONSOL Energy Inc. CEIX. In trading on Friday, information technology shares fell by 1.4%. Top Headline The US economy unexpectedly added 263,000 jobs in November, following a revised 284,000 gain in October and also surpassing market estimates of 200,000. The unemployment rate came in unchanged at 3.7% in November, while average hourly earnings increased by 0.6% to $32.82 in November. Equities Trading UP Samsara Inc. IOT shares shot up 18% to $11.67 after the company reported better-than-expected Q3 results and issued FY23 guidance above estimates. shares shot up 18% to $11.67 after the company reported better-than-expected Q3 results and issued FY23 guidance above estimates. Shares of Rigel Pharmaceuticals, Inc. RIGL got a boost, shooting 39% to $0.9475 after the company reported FDA approval of REZLIDHIA for the treatment of adult patients with relapsed or refractory acute myeloid leukemia with a susceptible IDH1 mutation. got a boost, shooting 39% to $0.9475 after the company reported FDA approval of REZLIDHIA for the treatment of adult patients with relapsed or refractory acute myeloid leukemia with a susceptible IDH1 mutation. Anavex Life Sciences Corp. AVXL shares were also up, gaining 44% to $12.80 after the company announced the ANAVEX2-73 Phase 2B/3 study met primary and key secondary endpoints, showing a statistically significant reduction of clinical decline in study of patients with early Alzheimer's disease. Equities Trading DOWN Theratechnologies Inc. THTX shares tumbled 37% to $1.33 after the company announced it decided to pause the enrollment of patients in its Phase 1 clinical trial of TH1902. shares tumbled 37% to $1.33 after the company announced it decided to pause the enrollment of patients in its Phase 1 clinical trial of TH1902. Shares of Asana, Inc. ASAN were down 12% to $15.83 after the company issued Q4 and FY23 sales guidance below estimates. were down 12% to $15.83 after the company issued Q4 and FY23 sales guidance below estimates. RedHill Biopharma Ltd. RDHL was down, falling 29% to $0.2596 after the company priced an $8 million underwritten public offering. Also check out: Dow Drops Nearly 200 Points But Market Volatility Eases Commodities In commodity news, oil traded up 0.8% to $81.88 while gold traded down 1% at $1,797.50. Silver traded up 0.3% to $22.90 on Friday while copper fell 0.6% to $3.7960. Euro zone European shares were mixed today. The eurozone’s STOXX 600 fell 0.13%, London’s FTSE 100 rose 0.02% while Spain’s IBEX 35 Index fell 0.28%. The German DAX gained 0.46%, French CAC 40 fell 0.17% and Italy’s FTSE MIB Index fell 0.22%. Producer prices in the Eurozone declined 2.9% from a month ago in October versus a 1.6% increase in the previous month. French government budget deficit widened to EUR 143.2 billion in January-October compared to EUR 171.6 billion in the year-ago period. Industrial production in France dropped by 2.6% from the earlier month in October. The trade surplus in Germany narrowed to €5.3 billion in October from €12.5 billion in the year-ago period. Asia Pacific Markets Asian markets closed lower on Friday, with the Japan’s Nikkei dropping 1.59% and Hong Kong’s Hang Seng Index falling 0.33%. China’s Shanghai Composite Index dropped 0.29%. Retail sales in Australia dropped by 0.2% from a month ago to AUD 35.02 billion in October versus a growth of 0.6% in September. Economics The US economy unexpectedly added 263,000 jobs in November, following a revised 284,000 gain in October and also surpassing market estimates of 200,000. The unemployment rate came in unchanged at 3.7% in November, while average hourly earnings increased by 0.6% to $32.82 in November. Check out this: Investor Sentiment Drops Ahead Of US Jobs Report COVID-19 Update The U.S. has the highest number of coronavirus cases and deaths in the world, reporting a total of 100,743,390 cases with around 1,106,370 deaths. India confirmed a total of at least 44,673,980 cases and 530,620 deaths, while France reported over 37,916,050 COVID-19 cases with 159,020 deaths. In total, there were at least 648,749,110 cases of COVID-19 worldwide with more than 6,642,930 deaths.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>U.S. stocks traded lower midway through trading, with the Dow Jones falling around 75 points on Friday. Top Headline The US economy unexpectedly added 263,000 jobs in November, following a revised 284,000 gain in October and also surpassing market estimates of 200,000. The unemployment rate came in unchanged at 3.7% in November, while average hourly earnings increased by 0.6% to $32.82 in November. Anavex Life Sciences Corp. AVXL shares were also up, gaining 44% to $12.80 after the company announced the ANAVEX2-73 Phase 2B/3 study met primary and key secondary endpoints, showing a statistically significant reduction of clinical decline in study of patients with early Alzheimer's disease. were down 12% to $15.83 after the company issued Q4 and FY23 sales guidance below estimates. Also check out: Dow Drops Nearly 200 Points But Market Volatility Eases Commodities In commodity news, oil traded up 0.8% to $81.88 while gold traded down 1% at $1,797.50. The eurozone’s STOXX 600 fell 0.13%, London’s FTSE 100 rose 0.02% while Spain’s IBEX 35 Index fell 0.28%.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9998643398284912</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hang Seng rebounds slightly as Asia markets rise; Australia inflation hits highest in 32 years - CNBC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Tue, 25 Oct 2022 23:51:17 GMT</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Shoppers walking around Pitt Street Mall on June 07, 2022 in Sydney, Australia. Shares in the Asia-Pacific rose Wednesday as sentiment overnight improved over the Fed potentially turning less aggressive. Hong Kong's Hang Seng index was up 1% at 15,317.67 after three consecutive negative sessions. The Hang Seng Tech index gained 2.48%. In mainland China, the Shanghai Composite added 0.78% to 2,999.50 and the Shenzhen Component gained 1.678% to 10,818.33 – the China Securities Regulatory Commission on Tuesday said it intends to expedite the development of a "regulated, transparent open, lively and resilient" market. Australia's annual consumer price index reached the highest since December 1990. The S&amp;P/ASX 200 rose 0.18% to 6,810.90. The Australian dollar last stood at $0.6468. The Nikkei 225 in Japan rose 0.67% to 27,431.84, and the Topix gained 0.58% to 1,918.21. South Korea's Kospi gained 0.65% to 2,249.56 — MSCI's broadest index of Asia-Pacific shares outside Japan ticked 0.92% higher.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Shoppers walking around Pitt Street Mall on June 07, 2022 in Sydney, Australia. South Korea's Kospi gained 0.65% to 2,249.56 — MSCI's broadest index of Asia-Pacific shares outside Japan ticked 0.92% higher.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9998267292976379</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Friday Funds: Singapore Exchange to launch futures on Nikkei 225 Climate Change 1.5C Index - Responsible Investor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 13:04:27 GMT</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Nearly there! A verification email is on its way to you. Please check your spam or junk folder just in case. If you do not receive this within five minutes, please try to sign in again. If the problem persists, please email: subscriptions@peimedia.com</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>If you do not receive this within five minutes, please try to sign in again. If the problem persists, please email: subscriptions@peimedia.com</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.9507966637611389</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Must read: FTSE 100 lifted by China-sensitive stocks after Hang Seng surges - Interactive Investor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>EUROPEAN MARKETS European markets have opened mixed with the FTSE 100 staging gains. China-sensitive stocks listed on the UK index such as Prudential (LSE:PRU), Rio Tinto (LSE:RIO) and Anglo American (LSE:AAL) are outperforming on the back of the Hang Seng’s overnight surge. The Bank of England’s Catherine Mann warned that there ‘still is a lot of momentum’ when it comes to the domestic drivers of inflation. It comes after the central bank raised its benchmark interest rate by the most since 1989 to 3% despite warning of the longest recession in a century. It was the eighth consecutive interest rate increase. However, the pound fell sharply after Governor Andrew Bailey said rates ‘will have to go up by less than currently priced into financial markets.’ Cable (GBPUSD) is recovering some lost ground this morning, trading around $1.12 and is down by almost 3.5% this week with pressures on both sides of the ledger after messaging from the Fed on Wednesday drove the greenback higher mid-week. HANG SENG The Hang Seng in Hong Kong has rallied by more than 5% overnight with the Hang Seng property and tech indices surged by more than 10% at one stage. The HSI logged its best weekly gain since November 2011 amid speculation that some of China’s strict Covid rules that have sharply weighed on its economy could be set to ease in the coming months. So far, the speculation is only based on social media rumours with China’s foreign ministry commenting that it is not aware of the issue. However, this has been enough to help lift risk appetite for stocks in Hong Kong and on the mainland with the Shanghai Composite enjoying its best weekly gain in over two years. Also adding to the bullish sentiment was a report from Bloomberg suggesting that US officials were content after an audit inspection of US-listed Chinese companies, alleviating some tensions between the two superpowers. The positive momentum is driving China-sensitive London-listed stocks such as Rio Tinto Registered Shares (LSE:RIO) and Prudential (LSE:PRU) to the top of the FTSE 100 this morning. US JOBS REPORT Trader attention shifts to October’s US jobs report at lunchtime with non-farm payrolls expected to hit +195,000 slowing from +263,000 in the previous month. The unemployment rate is also expected to deteriorate slightly from 3.5% in September to 3.6% this month. However, previous labour market data this week topped expectations with the ADP private employment report on Wednesday coming in at +239,000 and the US JOLTS job openings rising to 10.7 million in September versus forecasts for 10 million, suggesting that the Fed’s aggressive rate-hiking path is yet to have a notable cooling impact on the jobs market. The US dollar is on track to log its best week in over a month after the Fed warned US rates will peak above expectations and carried out another aggressive interest rate increase.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>EUROPEAN MARKETS European markets have opened mixed with the FTSE 100 staging gains. China-sensitive stocks listed on the UK index such as Prudential (LSE:PRU), Rio Tinto (LSE:RIO) and Anglo American (LSE:AAL) are outperforming on the back of the Hang Seng’s overnight surge. The HSI logged its best weekly gain since November 2011 amid speculation that some of China’s strict Covid rules that have sharply weighed on its economy could be set to ease in the coming months. However, previous labour market data this week topped expectations with the ADP private employment report on Wednesday coming in at +239,000 and the US JOLTS job openings rising to 10.7 million in September versus forecasts for 10 million, suggesting that the Fed’s aggressive rate-hiking path is yet to have a notable cooling impact on the jobs market.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9998601675033569</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Today: Alibaba Flat, Nio, EV Stocks Drop Over 1% - Alibaba Group Holding (NYSE:BABA) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Wed, 14 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks opened mixed on Thursday morning, with the benchmark Hang Seng gaining 0.38%, while EV stocks declined. Shares of XPeng, Li Auto and Nio fell over 1%. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA 0.06% JD.com Inc JD -0.45% Baidu Inc BIDU -1.17% Tencent Holdings Ltd. TCEHY 0.4% Meituan MPNGF 0.4% Nio Inc NIO -1.10% XPeng Inc XPEV -2.61% Li Auto Inc LI -1.89% The People's Bank of China (PBOC) kept the rate on 400 billion yuan ($57.46 billion) worth of one-year medium-term lending facility (MLF) loans to some financial institutions unchanged at 2.75%, according to Channel News Asia. Also Read: Cathie Wood Buys Nearly $7M In This Sapped Bitcoin-Linked Stock — Also Picks Up Shares In CareDx Macro News: China's cyberspace regulator on Wednesday proposed a series of amendments to the nation’s cybersecurity law that includes increasing the size of fines for some violations, reported Reuters. Chinese President Xi Jinping traveled to Kazakhstan on Wednesday for a state visit, his first foreign trip since the COVID-19 pandemic as he tries to gain alliances to counter U.S. influence on the world order, reported Bloomberg. Company News: Alibaba launched its second annual small business grants program, known as the "Manifest" Grants Program, to enhance the competitive edge of products by US small and medium-sized businesses (SMBs). Tesla Inc. TSLA Chair Robyn Denholm has defended the carmaker’s focus on China and plans to grow further in the country, saying hitting a goal of making 20 million vehicles a year by 2030 will require manufacturing capabilities on every continent, reported Bloomberg. Top Gainers and Losers: Country Garden Services Holdings Company Ltd and WuXi Biologics (Cayman) Inc. gained over 7% each, while ENN Energy Holdings Ltd and Hengan International Group Company Ltd lost over 0.6% each. Global News: U.S. futures traded in the green on Thursday morning Asia session. The Dow Jones futures were up 0.06% while the Nasdaq futures gained 0.09%. The S&amp;P 500 futures rose 0.09%. Elsewhere in Asia, Australia’s ASX 200 gained 0.36%. Japan’s Nikkei 225 was up 0.12% while China’s Shanghai Composite index gained 0.5%. South Korea’s Kospi was up 0.1%.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks opened mixed on Thursday morning, with the benchmark Hang Seng gaining 0.38%, while EV stocks declined. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA 0.06% JD.com Inc JD -0.45% Baidu Inc BIDU -1.17% Tencent Holdings Ltd. TCEHY 0.4% Meituan MPNGF 0.4% Nio Inc NIO -1.10% XPeng Inc XPEV -2.61% Li Auto Inc LI -1.89% The People's Bank of China (PBOC) kept the rate on 400 billion yuan ($57.46 billion) worth of one-year medium-term lending facility (MLF) loans to some financial institutions unchanged at 2.75%, according to Channel News Asia.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9999260902404785</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Country Garden, Longfor propel Hang Seng Index higher - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mon, 14 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>An electronic billboard displays the Hang Seng Index figures outside the HKEX in Central. Photo: Yik Yeung-man</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>An electronic billboard displays the Hang Seng Index figures outside the HKEX in Central.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9999994039535522</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Asia Shares Rally as China Covid Hopes Spark Hang Seng Surge - Asia Financial</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>The Hang Seng posted its biggest weekly gain in 11 years as investors were buoyed by rumours China could reopen its economy next year Asian shares bounced back on Friday as hopes that China might reopen its economy after months of Covid shutdowns lifted the mood across trading floors. There was also some optimism that there could be an easing in Sino-US tensions with progress being reportedly made in the long-running auditing row over Chinese companies listed in the US. Mainland China and Hong Kong stocks surged, with the Hang Seng notching up its biggest weekly gain in 11 years, but Japan shares slipped with investors there focusing on the US Fed’s gloomy predictions on inflation. Also on AF: China Evergrande Chairman’s $89m Hong Kong Mansion Seized Wall Street stocks continued their slide on Thursday, a day after Fed Chair Jerome Powell quashed investor hopes for a dovish pivot by saying it was “very premature” to be thinking about pausing rate hikes. That fed into Japan’s Nikkei share average which ended lower with investors in selling mood after returning from a national holiday, although the strong gains in Chinese stocks limited the losses. The benchmark Nikkei 225 index dropped 1.68%, or 463.65 points to end at 27,199.74. The broader Topix index fell 1.29%, or 25.06 points, to 1,915.40. Every sector fell, with rate-sensitive technology shares leading losses with a 2.23% drop. Energy fared best, slipping 0.34%, supported by higher crude prices. Chinese markets soared, though, and the yuan rose, with about a trillion dollars added to the value of Chinese stocks in a week. MSCI’s broadest index of Asia-Pacific shares outside Japan was 2.07% higher on the day. The Hang Seng surged seeing its biggest weekly gain since 2011 while the Shanghai Composite scored a 5.3% weekly gain, its largest in more than two years. Gains were broad, defying a downbeat mood in global markets weighed by the prospect of US interest rates rising further than previously expected. Property and tech shares led the way. China Covid Rules Rumours The Hang Seng Index soared 5.36%, or 821.65 points, to 16,161.14. The Shanghai Composite Index gained 2.43%, or 72.99 points, to 3,070.80, while the Shenzhen Composite Index on China’s second exchange was up 2.68%, or 52.78 points, to 2,020.16. Unsubstantiated social media posts flagging an aim to relax Covid rules in March have driven optimism all week and seemed to pick up new momentum on Friday. Shares in online giants Alibaba and JD.com each rose more than 10% and the Hang Seng Tech index rose 7.5%. Property manager Country Garden Services rose 15% and an index of mainland developers rose 9%. Elsewhere across the region, stocks were on the back foot after Wall Street fell for a fourth straight session overnight. Equities in the Philippines and Indonesia fell 0.9% and 0.6%, respectively. The Taiwan benchmark slid 0.3%. Indian stocks advanced with Mumbai’s signature Nifty 50 index up 0.41%, or 74.65 points, to close at 18,127.35. Investors Wait on US Payrolls Report Globally, stocks have been rattled since comments from Fed Chair Jerome Powell on Wednesday that it was “very premature” to be thinking about pausing its rate hikes, putting a lid on any lingering investor hopes of a near term easing. Investors will be keeping an eye on Friday’s US payrolls report where any upside surprise will likely reinforce the Fed’s hawkish outlook. Economists polled by Reuters expect non-farm payrolls to have increased by 200,000 jobs in October. In the currency market, sterling was up 0.38% at $1.1207, after sliding 2% overnight when the Bank of England raised interest rates by the most since 1989, but warned a long recession looms. The US dollar index, which measures the greenback against a basket of currencies, fell 0.292%, after surging 0.8% overnight and touching a roughly two-week high of 113.15. Key figures Tokyo – Nikkei 225 &lt; DOWN 1.68% at 27,199.74 (close) Hong Kong – Hang Seng Index &gt; UP 5.36% at 16,161.14 (close) Shanghai – Composite &gt; UP 2.43% at 3,070.80 (close) London – FTSE 100 &gt; UP 0.92% at 7,254.72 (0935 GMT) New York – Dow &lt; DOWN 0.46% at 32,001.25 (Thursday close) Reuters with additional editing by Sean O’Meara Read more: Chinese Yuan Close to 15-Year Low After Fed Rate Hike China Stocks Slump on US Rate Hike, Rising Covid Cases</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>The Hang Seng posted its biggest weekly gain in 11 years as investors were buoyed by rumours China could reopen its economy next year Asian shares bounced back on Friday as hopes that China might reopen its economy after months of Covid shutdowns lifted the mood across trading floors. Also on AF: China Evergrande Chairman’s $89m Hong Kong Mansion Seized Wall Street stocks continued their slide on Thursday, a day after Fed Chair Jerome Powell quashed investor hopes for a dovish pivot by saying it was “very premature” to be thinking about pausing rate hikes. The broader Topix index fell 1.29%, or 25.06 points, to 1,915.40. Shares in online giants Alibaba and JD.com each rose more than 10% and the Hang Seng Tech index rose 7.5%. Property manager Country Garden Services rose 15% and an index of mainland developers rose 9%. The US dollar index, which measures the greenback against a basket of currencies, fell 0.292%, after surging 0.8% overnight and touching a roughly two-week high of 113.15.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.7028595805168152</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Legendary investor Mark Mobius says China’s stock market will pay the price for COVID protests - Fortune</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mon, 28 Nov 2022 20:14:00 GMT</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>China’s strict zero-COVID policies will backfire in the near term and cause some serious pain for investors in that country, according to veteran money manager Mark Mobius. Rare public protests against COVID lockdowns swelled across China last week after an apartment fire in the capital of Xinjiang province, Ürümqi, killed 10, and workers at the world’s largest iPhone factory in Zhengzhou clashed with authorities over poor working conditions. But even as protests against China’s COVID policies rage across the country, Mobius warns that government officials are unlikely to change their stance anytime soon. “It’s clear to me that Xi cannot tolerate any protests, so there will be a very tough crackdown on any protestors. More people will be arrested and they will probably go further in terms of population control in many areas,” the emerging markets specialist and the founder of Mobius Capital Partners told Bloomberg. That’s bad news for Chinese stocks, which have already been under pressure this year, with the Hang Seng Index and Shanghai Composite Index falling 25% and 15%, respectively, year to date. “If you have that kind of scenario you have to consider that the market will not do that well in the short term,” Mobius said, arguing that Chinese indices could fall another 10%. Still, Mobius went on to make the case that “people’s memories are very short” and that, at some point, there will be a recovery in Chinese stocks that look “very cheap” as investors seek value. “You’ll see some recovery,” he said. “But right now, I think hoping for a change in attitude on the part of the central government is not in the cards.” Mobius isn’t the only investor sounding the alarm about China’s latest COVID protests. Mark Haefele, UBS Wealth Management’s chief investment officer, said in a Monday note that the protests and rising COVID cases in China represent a “setback” for the country. “With a relaxation of the zero-COVID policy still some time away, we see continued near-term headwinds for the Chinese recovery,” he wrote. And Citi strategists echoed Haefele’s comments in their own note to start the week, saying that the latest protests amount to a “setback of sentiment” for investors in China. “The path to reopening is likely to be noisy with local infections at risk of remaining high in winter months and until vaccination rates rise more meaningfully,” they wrote. On top of the latest protests and COVID lockdowns, Mobius warned, any investor in China has to accept the growing risk of war. “The problem that I have is…what happens if China decides to attack Taiwan?” he said. “Because if you have that kind of scenario, it’s going to be like Russia—all of the investments in China will be lost.”</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>China’s strict zero-COVID policies will backfire in the near term and cause some serious pain for investors in that country, according to veteran money manager Mark Mobius. But even as protests against China’s COVID policies rage across the country, Mobius warns that government officials are unlikely to change their stance anytime soon. “ Still, Mobius went on to make the case that “people’s memories are very short” and that, at some point, there will be a recovery in Chinese stocks that look “very cheap” as investors seek value. “ The problem that I have is…what happens if China decides to attack Taiwan?”</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.999936580657959</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Major stock market indices worldwide_china.org.cn - China.org.cn</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 03:01:16 GMT</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>You are here: 视频播放位置 下载安装Flash播放器 BEIJING, Dec. 3 (Xinhua) -- The following are the indices of major stock markets worldwide on Saturday. IN ASIA The Shanghai Composite Index had no trading. The Shenzhen Component Index had no trading. The Hang Seng Index had no trading. The S&amp;P/ASX 200 index had no trading. The 225-issue Nikkei Stock Average had no trading. The Straits Times Index had no trading. The Korea Composite Stock Price Index had no trading. IN THE UNITED STATES The S&amp;P 500 Index closed at 4,071.70 points, down 4.87 points, or 0.12 percent. The Dow Jones Industrial Average closed at 34,429.88 points, up 34.87 points, or 0.10 percent. The Nasdaq Composite Index closed at 11,461.50 points, down 20.95 points, or 0.18 percent. IN EUROPE The DAX Index closed at 14,529.39 points, up 39.09 points, or 0.27 percent. The FTSE 100 Index closed at 7,556.23 points, down 2.26 points, or 0.03 percent. The Paris CAC 40 closed at 6,742.25 points, down 11.72 points, or 0.17 percent. Enditem (This article is generated by Xinhua News Robot.)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>You are here: 视频播放位置 下载安装Flash播放器 BEIJING, Dec. 3 (Xinhua) -- The following are the indices of major stock markets worldwide on Saturday. The Nasdaq Composite Index closed at 11,461.50 points, down 20.95 points, or 0.18 percent.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9998718500137329</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index Sinks to April 2009 Low - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Fri, 21 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index surges 9%, best day since October 2008 as Tencent, Alibaba jump more than 23% - CNBC</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Tue, 15 Mar 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were higher in Wednesday trade, as Chinese stocks saw a strong rebound following recent heavy losses. Hong Kong's Hang Seng index closed 9.08% higher at 20,087.50 — its best day since Oct. 30, 2008, when it gained 12.82%. Still, the benchmark index is down more than 2% so far this week after seeing heavy losses on Monday and Tuesday. Chinese tech stocks in Hong Kong saw big gains, as shares of Chinese tech giant Tencent rose 23.15%, Alibaba soared 27.3% and NetEase jumped 23.4%. The Hang Seng Tech index surged 22.2% to 4,243.39. Mainland Chinese stocks also saw robust gains as the Shanghai composite climbed 3.48% to close at 3,170.71 and the Shenzhen component soared 4.019% to 12,000.96. The bulk of the gains Wednesday came after a Chinese state media report signaled support for Chinese stocks. U.S. and Chinese regulators are progressing toward a cooperation plan on U.S.-listed Chinese stocks, the report said, citing a financial stability meeting Wednesday chaired by Vice Premier Liu He. The report said Beijing supported Chinese stock listings overseas, and would work towards stability in Hong Kong's financial market as well as the struggling real estate sector. Chinese tech stocks have been under pressure in recent days amid multiple concerns, including a Wall Street Journal report that Tencent could face a record fine for violating anti-money laundering rules. Fears of U.S.-listed Chinese firms being delisted stateside also recently resurfaced after the Securities and Exchange Commission identified five U.S.-listed American depositary receipts of Chinese companies that failed to comply with the Holding Foreign Companies Accountable Act, further weighing on investor sentiment. The sharp reversal comes as investors continue to monitor the pandemic situation in the country, with China grappling with its most severe Covid outbreak since the height of the pandemic in 2020, with major cities scrambling to limit business activity. In Japan, the Nikkei 225 climbed 1.64% to close at 25,762.01 while the Topix index gained 1.46% to 1,853.25. South Korea's Kospi advanced 1.44% on the day to 2,659.23. Australia's S&amp;P/ASX 200 rose 1.1%, closing at 7,175.20. MSCI's broadest index of Asia-Pacific shares outside Japan soared 4.15%.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were higher in Wednesday trade, as Chinese stocks saw a strong rebound following recent heavy losses. Chinese tech stocks in Hong Kong saw big gains, as shares of Chinese tech giant Tencent rose 23.15%, Alibaba soared 27.3% and NetEase jumped 23.4%. The report said Beijing supported Chinese stock listings overseas, and would work towards stability in Hong Kong's financial market as well as the struggling real estate sector.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>APAC Week Ahead: Go with the flow - CMC Markets</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 20:06:57 GMT</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>The three US benchmark indices gained for the second straight week amid Fed’s softened stance on rate hikes, with the tech-heavy index, Nasdaq outperforming both Dow and S&amp;P 500, up 2% for the week. This suggests that the hardest-beaten growth stocks are taking the strongest monetary policy tailwind as a sharp decline in bond yields offered dip-buying opportunities in these high multiple companies. On the other hand, China’s stock markets continued their swift rebound since November as the country finally starts its easing progress on Covid curbs, sparking optimism toward its fast economic recovery in the new year. This week, we continue to monitor influential economic data around the globe, including the US PPI and China’s international trade data. Plus, both RBA and BOC are to decide on future interest rates, both of which have started a slowdown in rate hikes recently on economic growth concerns. What are we watching? Both US dollar and bond yields fall: The major markets’ bellwether, including the USD and the US bond yields, continued their declines since mid-October, offering a further rebound in risk assets, such as equities and commodities. The major markets’ bellwether, including the USD and the US bond yields, continued their declines since mid-October, offering a further rebound in risk assets, such as equities and commodities. Gold on the surge: Precious metals, including gold and silver, have both established bottom reversal patterns due to a softened US dollar and a drop in the US bond yields. The rebounding trend in gold may continue as gold futures price consolidated above the 200-day moving average. Precious metals, including gold and silver, have both established bottom reversal patterns due to a softened US dollar and a drop in the US bond yields. The rebounding trend in gold may continue as gold futures price consolidated above the 200-day moving average. China rebound: The China-related rebound in Chinese shares and the Yuan may not just stop here, with the Hang Seng Index testing its pivotal resistance on the long-term downtrend line, and the Yuan also appreciating toward the key psychological level of 7 against the USD. The China-related rebound in Chinese shares and the Yuan may not just stop here, with the Hang Seng Index testing its pivotal resistance on the long-term downtrend line, and the Yuan also appreciating toward the key psychological level of 7 against the USD. Crude oil faces dilemma outlooks: The oil market face both bullish and bearish factors that steer its directions as China's reopening improved the demand outlook while global recession concerns continue to pressure energy prices. OPEC + is most likely to keep its output tight enough to hold prices up in the face of the EU recessionary risks. The oil market face both bullish and bearish factors that steer its directions as China's reopening improved the demand outlook while global recession concerns continue to pressure energy prices. OPEC + is most likely to keep its output tight enough to hold prices up in the face of the EU recessionary risks. Cryptocurrencies’ bottoms in check: Despite leading cryptocurrencies stabilized above their recent lows, FTX’s rippling effects on the digital worlds may not fade off just yet. With several major players filling bankruptcy following the FTX's fallout, the bottoms in cryptocurrencies are still in check. Economic Calendar (05 Dec – 09 Dec)</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>The three US benchmark indices gained for the second straight week amid Fed’s softened stance on rate hikes, with the tech-heavy index, Nasdaq outperforming both Dow and S&amp;P 500, up 2% for the week. Both US dollar and bond yields fall: The major markets’ bellwether, including the USD and the US bond yields, continued their declines since mid-October, offering a further rebound in risk assets, such as equities and commodities. The China-related rebound in Chinese shares and the Yuan may not just stop here, with the Hang Seng Index testing its pivotal resistance on the long-term downtrend line, and the Yuan also appreciating toward the key psychological level of 7 against the USD. OPEC + is most likely to keep its output tight enough to hold prices up in the face of the EU recessionary risks.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9110861420631409</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Global stocks mixed after strong US jobs data - ZAWYA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 06:40:13 GMT</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Stock markets were mixed Friday after strong US jobs data raised concerns that the US Federal Reserve may continue to aggressively hike interest rates to tame inflation. US government data showed that the world's biggest economy added 263,000 jobs in November, with the unemployment rate remaining at 3.7 percent. Government figures also indicated a bigger jump in hourly wages than analysts had benchmarked. Indices in New York initially tumbled on the release as markets feared it would extend the period of ultra-aggressive Federal Reserve interest rate hikes to counter inflation. But markets recovered throughout the day, with the S&amp;P 500 ending down 0.1 percent. Investors were unnerved by the jump in wages "because that tends to feed inflation," said Quincy Krosby of LPL Financial But traders also realize that "there's a positive side to this," she said. "The Fed has the luxury if you will to continue to raise rates, with smaller rate hikes. And the labor market remains resilient." The jobs data comes two days after Federal Reserve Chair Jerome Powell signaled the central bank could moderate its aggressive posture on interest rates as soon as this month. Earlier, London finished flat, while Frankfurt gained modestly and Paris dipped. Investors were also focused on the oil market, where prices finished lower amid focus on talks on a price cap to limit Russia's oil revenues. The G7 and EU agreed a $60-per-barrel price cap on Russian oil late Friday. Analysts were still assessing the effect of the price ceiling, but have said the impact on supply could be limited because Russia currently sells some oil below this price level. Traders are also focused on OPEC+, which may decide Sunday to slash oil production further to boost prices for its members, which include Saudi Arabia and Russia. "There remains considerable uncertainty around the action OPEC+ will take when it meets," noted OANDA trading platform analyst Craig Erlam. Among individual companies, Boeing jumped 4.0 percent following a Wall Street Journal report that United Airlines is close to agreeing to order dozens of Boeing 787 Dreamliners. United shares were flat. Key figures around 2200 GMT New York - Dow: UP 0.1 percent at 34,429.88 (close) New York - S&amp;P 500: DOWN 0.1 percent at 4,071.70 (close) New York - Nasdaq: DOWN 0.2 percent at 11,461.50 (close) London - FTSE 100: FLAT at 7,556.23 (close) Frankfurt - DAX: UP 0.3 percent at 14,529.39 (close) Paris - CAC 40: DOWN 0.2 percent at 6,742.25 (close) EURO STOXX 50: DOWN 0.2 percent at 3,977.90 (close) Tokyo - Nikkei 225: DOWN 1.6 percent at 27,777.90 (close) Hong Kong - Hang Seng Index: DOWN 0.3 percent at 18,675.35 (close) Shanghai - Composite: DOWN 0.3 percent at 3,156.14 (close) Euro/dollar: UP at $1.0531 from $1.0520 on Thursday Dollar/yen: DOWN at 134.27 yen from 135.33 yen Pound/dollar: UP at $1.2296 from $1.2247 Euro/pound: DOWN at 85.73 pence from 85.90 pence Brent North Sea crude: DOWN 1.5 percent at $85.57 per barrel West Texas Intermediate: DOWN 1.5 percent at $79.98 per barrel</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Stock markets were mixed Friday after strong US jobs data raised concerns that the US Federal Reserve may continue to aggressively hike interest rates to tame inflation. Earlier, London finished flat, while Frankfurt gained modestly and Paris dipped. Investors were also focused on the oil market, where prices finished lower amid focus on talks on a price cap to limit Russia's oil revenues.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9960343241691589</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hang Seng Index Today: Alibaba, Others Show Optimism Even As Analysts Downgrade China Growth Projections - Benzinga</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Thu, 18 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Hong Kong’s Hang Seng index opened in the green on Friday, gaining 0.12% in opening trade, following a muted session on Wall Street. Investors also digested macro news from Japan where the headline inflation rose to 2.6% in July as compared to 2.4% in June. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA 0.45% JD.com Inc JD -1.47% Baidu Inc BIDU -1.95% Tencent Holdings Ltd. TCEHY 0.77% Meituan MPNGF -0.35% Nio Inc NIO -1.28% XPeng Inc XPEV 0.12% Li Auto Inc LI 1.51% Macro News: China’s military is likely to get a new leadership line-up as four out of the seven members on the Central Military Commission are at, or have passed, the retirement age and may step down at the upcoming party congress, reported the South China Morning Post. The report added Xi Jinping, who heads the CMC, may be looking for combat experience and loyalty when making his picks. Also Read: REITs Are Going (And Staying) Private for These Four Key Reasons Goldman Sachs and Nomura have downgraded their projections for China’s growth, over weaker demand, uncertainties stemming from zero-Covid policy and an energy crunch, reported CNBC. Goldman Sachs reduced its 2022 full-year forecast to 3% from 3.3%, while Nomura trimmed its full-year projections to 2.8% from 3.3%. Company News: Chinese internet giant NetEase Inc NTES reported a 12.8% year-on-year revenue growth at $3.5 billion. Li Auto has announced the Li L9, an intelligent flagship SUV, has officially rolled off the production line at the company’s Changzhou Base, and will be delivered across the country soon, reported Pan Daily. The Shanghai Municipal Commission of Economy and Informatization has written a letter to Sichuan authorities asking them to prioritize access to power for 16 local suppliers of Tesla Inc. TSLA and SAIC Motor Corporation Limited considering supply chain stability, reported Nikkei Asia. This has reportedly upset residents in Sichuan. Global News: U.S. futures were trading in the red during Friday morning Asia session. The Dow Jones futures were down 0.06% while the Nasdaq futures shed 0.11%. The S&amp;P 500 futures lost 0.12%. Elsewhere in Asia, Australia’s ASX 200 gained 0.12%. Japan’s Nikkei 225 was up 0.16% while China’s Shanghai Composite index was down 0.06%. South Korea’s Kospi lost 0.36%.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Hong Kong’s Hang Seng index opened in the green on Friday, gaining 0.12% in opening trade, following a muted session on Wall Street. The Shanghai Municipal Commission of Economy and Informatization has written a letter to Sichuan authorities asking them to prioritize access to power for 16 local suppliers of Tesla Inc. TSLA and SAIC Motor Corporation Limited considering supply chain stability, reported Nikkei Asia. The Dow Jones futures were down 0.06% while the Nasdaq futures shed 0.11%.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.8277033567428589</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Alibaba, Nio Stocks Mixed: Hang Seng Index Today - Alibaba Group Holding (NYSE:BABA) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Sun, 02 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Hong Kong shares opened in the red on Monday morning, taking cues from Friday’s Wall Street decline where major indices fell 1.5%. The benchmark Hang Seng fell 1% in opening trade. Hong Kong Stocks Today Stock Movement Alibaba Group Holding Ltd. BABA -0.83% JD.com Inc JD -2.82% Baidu Inc BIDU -0.26% Tencent Holdings Ltd. TCEHY -1.35% Meituan MPNGF -2.36% Nio Inc NIO 1.63% XPeng Inc XPEV -2.5% Li Auto Inc LI -0.5% EV shares traded mixed with shares of Xpeng trading 2.5% lower while Nio stock jumped 1.63%. Shares of Alibaba fell over 0.8% in morning trade while Meituan, JD.com lost over 2%. Also Read: How To Buy Alibaba (Baba) Stock Macro News: U.S. Defense Secretary Lloyd Austin stated on Sunday he does not expect an imminent invasion of Taiwan by China but said the country was trying to establish a "new normal" with its military activities around the island, reported Reuters. At the Communist Party’s upcoming national congress, China’s leadership will discuss and calibrate the country’s strategy for the next five years, reported the South China Morning Post citing People’s Daily. Company News: Nio, XPeng and Li Auto released their September deliveries on Saturday, with the numbers indicating a flat performance in line with that of recent months. China Petroleum and Chemical Corporation SNPMF is intending to de-list its American Depository Shares trading on the London Stock Exchange, reported Reuters. Top Gainers and Losers: Country Garden Services Holdings Company Limited and Longfor Group Holdings Limited are the top gainers among Hang Seng constituents, having gained over 10% and 7% respectively. New World Development Company Limited and ENN Energy Holdings Limited are the top losers, having lost over 4% and 3% respectively. Global News: U.S. futures traded mixed on Monday morning Asia session. The Dow Jones futures were up 0.02%, while the Nasdaq futures lost 0.52%. The S&amp;P 500 futures were down 0.19%. Elsewhere in Asia, Australia’s ASX 200 was down 0.07%. Japan’s Nikkei 225 gained 0.64%. The Chinese and South Korean markets were closed on Monday. Read Next: Cathie Wood Slashes $18M Stake In Spotify, Keeps Binging On This Software Company's Shares</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Hong Kong shares opened in the red on Monday morning, taking cues from Friday’s Wall Street decline where major indices fell 1.5%. Also Read: How To Buy Alibaba (Baba) Stock Macro News: U.S. Defense Secretary Lloyd Austin stated on Sunday he does not expect an imminent invasion of Taiwan by China but said the country was trying to establish a "new normal" with its military activities around the island, reported Reuters. Top Gainers and Losers: Country Garden Services Holdings Company Limited and Longfor Group Holdings Limited are the top gainers among Hang Seng constituents, having gained over 10% and 7% respectively.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.961076021194458</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hang Seng &amp; Shanghai Composite Approach Key Levels For Policy Support - Forbes</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Thu, 22 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hong Kong tech leads losses in Asia; China cuts rates ahead of Fed, Bank of Japan meetings this week - CNBC</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Mon, 19 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Shares in the Asia-Pacific fell on Monday ahead of major central bank meetings this week. The Hang Seng index in Hong Kong was 0.89% lower in the final hour of trade, with the Hang Seng Tech index down 1.93%. South Korea's Kospi shed 1.14% to 2,355.66 and the Kosdaq was 2.35% lower at 751.91. In mainland China, the Shanghai Composite dipped 0.35% to 3,115.60 and the Shenzhen Component also declined 0.48% to 11,207.04. The People's Bank of China cut its 14-day reverse repo rates. The S&amp;P/ASX 200 in Australia was 0.28% lower at 6,719.90. MSCI's broadest index of Asia-Pacific shares outside Japan fell 0.59%. Japan's market was closed for a holiday Monday.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Shares in the Asia-Pacific fell on Monday ahead of major central bank meetings this week. The Hang Seng index in Hong Kong was 0.89% lower in the final hour of trade, with the Hang Seng Tech index down 1.93%.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9998207688331604</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Index falls 6.36 pct - Xinhua</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Mon, 24 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>HONG KONG, Oct. 24 (Xinhua) -- Hong Kong shares ended sharply lower on Monday, with the benchmark Hang Seng Index down 6.36 percent to close at 15,180.69 points. The Hang Seng China Enterprises Index fell 7.30 percent to end at 5,114.48 points, while the Hang Seng Tech index dived 9.65 percent to close at 2,801.99 points. ■</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>HONG KONG, Oct. 24 (Xinhua) -- Hong Kong shares ended sharply lower on Monday, with the benchmark Hang Seng Index down 6.36 percent to close at 15,180.69 points. The Hang Seng China Enterprises Index fell 7.30 percent to end at 5,114.48 points, while the Hang Seng Tech index dived 9.65 percent to close at 2,801.99 points.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9988603591918945</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index leads gains as Asia markets rise; SoftBank Group shares soar almost 6% - CNBC</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Tue, 08 Feb 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose in Wednesday trade, with stocks in Hong Kong leading gains regionally. The Hang Seng index in Hong Kong soared 2.06% to close at 24,829 as Chinese tech stocks bounced back from their Tuesday losses. Shares of Alibaba jumped 6.83% while Tencent gained 2.72% and Netease advanced 4.88%. Mainland Chinese stocks rose on the day, with the Shanghai composite up 0.79% to 3,479.95 and the Shenzhen component advancing 1.545% to 13,531.31. In Japan, the Nikkei 225 closed 1.08% higher at 27,579.87 while the Topix index climbed 0.94% to 1,952.22. Shares of SoftBank Group surged 5.85% after the Japanese conglomerate on Tuesday announced plans to take Arm public following the collapse of a planned sale of the unit to Nvidia. Elsewhere, the S&amp;P/ASX 200 in Australia climbed 1.14% to close at 7,268.30 as bank stocks jumped: Commonwealth Bank of Australia (CBA) surged 5.58%, Westpac gained 2.43%, Australia and New Zealand Banking Group advanced 1.71% while National Australia Bank rose 2.38%. CBA on Monday announced a jump in its first-half profit and also a share buy-back worth 2 billion Australian dollars ($1.43 billion). South Korea's Kospi finished its trading day 0.81% day higher at 2,768.85. MSCI's broadest index of Asia-Pacific shares outside Japan climbed 1.52%. Overnight stateside, the Dow Jones Industrial Average surged 371.65 points to 35,462.78 while the S&amp;P 500 advanced 0.84% to 4,521.54. The Nasdaq Composite jumped 1.28% to about 14,194.46.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose in Wednesday trade, with stocks in Hong Kong leading gains regionally. In Japan, the Nikkei 225 closed 1.08% higher at 27,579.87 while the Topix index climbed 0.94% to 1,952.22. Shares of SoftBank Group surged 5.85% after the Japanese conglomerate on Tuesday announced plans to take Arm public following the collapse of a planned sale of the unit to Nvidia.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9999949932098389</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Japan's Nikkei 225 and Hong Kong's Hang Seng index jump 2% each as Asia stocks rise - CNBC</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sun, 29 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Monday as investors look ahead to major economic data releases later in the week. Japanese stocks led gains among the region's major markets, with the Nikkei 225 rising 2.19% on the day to 27,369.43 as shares of robot maker Fanuc jumped 4.66%. The Topix index surged 1.86% to 1,922.44. Hong Kong's Hang Seng index also saw robust gains, closing 2.06% higher at 21,123.93 as Chinese tech stocks in the city jumped: Tencent rose 2.4%, Alibaba surged 4.29% while Netease advanced 2.58%. Over in mainland China, the Shanghai Composite closed 0.6% higher at 3,149.06 while the Shenzhen Component rose 1.043% to 11,310.28. The Kospi in South Korea closed 1.2% higher at 2,669.66, while Australia's S&amp;P/ASX 200 ended the trading day up 1.45% to 7,286.60. MSCI's broadest index of Asia-Pacific stocks outside Japan gained 2.07%. Regional investor sentiment on Monday may have been boosted by a relaxation of Covid controls over the weekend in the major Chinese cities of Beijing and Shanghai.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific rose on Monday as investors look ahead to major economic data releases later in the week. Japanese stocks led gains among the region's major markets, with the Nikkei 225 rising 2.19% on the day to 27,369.43 as shares of robot maker Fanuc jumped 4.66%.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9999997615814209</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng index surges nearly 3% in mixed Asia-Pacific trading - CNBC</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sun, 05 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed on Monday, with Chinese stocks leading gains regionally as tech stocks in Hong Kong surged. Hong Kong's broader Hang Seng index closed 2.71% higher at 21,653.90. Shares of Chinese tech firms in Hong Kong soared following a Wall Street Journal report that regulators in China are concluding probes on ride-hailing firm Didi and two other U.S.-listed tech companies. Regulators plan to lift a ban on the firms adding new users on their platforms, and allow their apps back on domestic app stores, according to the report. Shares of Alibaba in Hong Kong gained 5.04% while Meituan jumped 9.93% and Baidu climbed 5.18%. The Hang Seng Tech index gained 4.64% to 4,601.95. In mainland China, the Shanghai Composite closed 1.28% higher at 3,236.37 while the Shenzhen Component surged 2.664% to 11,938.12. China's Caixin Services Purchasing Managers' Index released Monday came in at 41.4, better than April's reading of 36.2 but still in contraction territory. The release comes on the back of last week's official non-manufacturing PMI print of 47.8 for May, an improvement over April's reading of 41.9 but still below the 50 mark that separates expansion from contraction. PMI readings are sequential and represent month-on-month expansion or contraction.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>SINGAPORE — Shares in Asia-Pacific were mixed on Monday, with Chinese stocks leading gains regionally as tech stocks in Hong Kong surged. China's Caixin Services Purchasing Managers' Index released Monday came in at 41.4, better than April's reading of 36.2 but still in contraction territory.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.999998927116394</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hang Seng Index falls to six-year low as Covid-19 weighs on market - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Mon, 14 Mar 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A security guard in front of closed stores at a residential neighborhood placed under lockdown due to Covid-19 in Shanghai, on Thursday, March 10, 2022. Photo: Bloomberg</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>A security guard in front of closed stores at a residential neighborhood placed under lockdown due to Covid-19 in Shanghai, on Thursday, March 10, 2022.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.999951958656311</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng Hits Five-Year Low - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Mon, 07 Mar 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Baidu, Other Chinese Tech Names May Join Hang Seng in Reshuffle - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Thu, 17 Feb 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hong Kong's Hang Seng down nearly 2%; consumer confidence in Japan, South Korea falls - CNBC</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Tue, 28 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>I'm still optimistic on a 12-month view, but for the next three or four months, I think there's more downside Shane Oliver Chief Economist, AMP Australia's S&amp;P/ASX 200 was 0.94% lower at 6,700.2 at the close. Retail sales in Australia rose 0.9% in May compared to April, the same increase in April from March. MSCI's broadest index of Asia-Pacific shares declined 1.56%. Singapore's STI bucked the trend in the region, rising about 0.21% in its final hour of trade following Deputy Prime Minister Lawrence Wong's announcement to strengthen Singapore's "social compact" on Tuesday. Talk of the social compact has had a positive influence on markets because increased productivity — a component of social compact — gave some Singapore's stocks a boost in the past two years, Singapore Exchange Markets Strategist Geoff Howie told CNBC's "Street Signs Asia." Recession fears Shane Oliver, chief economist at AMP, said markets will remain vulnerable until there's more certainty about whether a recession can be averted. "Even if we don't have a recession, we're gonna see quite a significant slowdown in global growth, in growth in Asia, and that's going to weigh on company profits, so I suspect there is more downside," he told CNBC's "Squawk Box Asia" on Wednesday, adding that the market may only bottom in September or October. "I'm still optimistic on a 12-month view, but for the next three or four months, I think there's more downside," he said. "With the Fed hiking aggressively into an already weakening economy, I think odds for a soft landing are not that high," said Gunther Westen, global head of asset allocation at ODDO BHF Asset Management. U.S. stocks gave up early gains to decline overnight following disappointing economic data. The consumer confidence index fell to 98.7 in June from 103.2 in May, according to The Conference Board. The Dow Jones Industrial Average dropped 491.27 points, or 1.56%, to 30,946.99. The S&amp;P 500 slipped 2.01% to 3,821.55, and the Nasdaq Composite was the laggard, declined 3% to 11,181.54. China quarantine changes Currencies and oil The U.S. dollar index , which tracks the greenback against a basket of its peers, was at 104.485, bouncing back from below 104 earlier this week. The Japanese yen weakened past the 136 level against the dollar again, after strengthening and holding steady in the past few sessions. It last changed hands at 136.14. The Australian dollar was at $0.6884. Oil futures were little changed in Asia's afternoon trade. U.S. crude futures were up fractionally at $111.80 per barrel, while Brent crude lost 0.08% to $117.89 per barrel.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>I'm still optimistic on a 12-month view, but for the next three or four months, I think there's more downside Shane Oliver Chief Economist, AMP Australia's S&amp;P/ASX 200 was 0.94% lower at 6,700.2 at the close. Even if we don't have a recession, we're gonna see quite a significant slowdown in global growth, in growth in Asia, and that's going to weigh on company profits, so I suspect there is more downside," he told CNBC's "Squawk Box Asia" on Wednesday, adding that the market may only bottom in September or October. " The consumer confidence index fell to 98.7 in June from 103.2 in May, according to The Conference Board.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9999792575836182</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Nio Surges Higher After Hang Seng Closes Bullish Week: What's Going On? - NIO (NYSE:NIO) - Benzinga</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Nio, Inc NIO gapped up over 10% higher Friday and continued to climb intraday. China-based stocks were boosted by the Hang Seng Index, which closed Friday’s session in Hong Kong up 5.36%. Nio’s surge could be the beginning of a relief bounce, with the stock having spiked over 20% since Thursday’s opening price after plunging over 60% between Sept. 15 and Thursday’s $9.03 low. Read more here about bullish action in China-based stocks. Eventually Nio will need to enter a period of consolidation to take a breather from the two-day surge. When that occurs, traders and investors can watch for a cup-and-handle pattern to print on the stock’s daily chart. A cup-and-handle pattern can be either a powerful reversal indicator when found at the bottom of a downtrend or a continuation pattern when found in an uptrend. The pattern is formed when a security forms a rounded trough (cup) and then rises upwards before consolidating downward between two parallel lines (handle). The handle should begin to form before the stock has risen up as high as the top of the left side of the cup. When the security breaks up through the handle on higher-than-average volume, it indicates the pattern was recognized, and a rally may follow. Aggressive bullish traders may choose to enter a security in a cup-and-handle pattern on the initial rise, with a stop below the lowest price in the cup. More conservative traders may wait to enter a position on a break up from the handle of the pattern on higher-than-average volume. Bearish traders may wait to enter into a position if the security falls below the lowest price within the cup formation, which negates the bullish cup-and-shoulder pattern and indicates an accelerated move to the downside may follow. Want direct analysis? Find me in the BZ Pro lounge! Click here for a free trial. The Nio Chart: After breaking up from a falling channel pattern Oct. 26, Nio failed to gain the bullish momentum required to make a trend change and traded mostly sideways over the six trading days that followed. The sideways trading pattern has developed a rounded bottom, which may indicate a cup-and-handle pattern is about to occur. If the pattern takes shape, with Nio beginning to trend slightly lower in consolidation over the next few trading days, a handle to pair with the rounded bottom may print. If that happens, and Nio breaks up bullishly from the handle on higher-than-average volume, the measured move would be about 36%, which indicates the stock could soar up toward the $15 mark. Although Nio negated its sideways trading pattern on Friday, by printing a higher high above the most recent high of $10.45, a new trend hasn’t yet confirmed. If Nio consolidates lower and prints a higher low above $9.03, an uptrend may be on the horizon. If Nio closes the trading day within about 3% of the opening price or near the low-of-day, the stock will print a doji or shooting star candlestick, respectively, which could indicate the temporary top is in and a retracement is in the cards. If the stock closes the session near the high of day, the lower wick could indicate higher prices will come Monday. Nio has resistance above at $11.38 and $14.31 and support below at $9.48 and $8.38. See Also: Alibaba Climbs As Hang Seng Bounces In Relief: Here's What's Going On Photo courtesy of Nio.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Nio, Inc NIO gapped up over 10% higher Friday and continued to climb intraday. Nio’s surge could be the beginning of a relief bounce, with the stock having spiked over 20% since Thursday’s opening price after plunging over 60% between Sept. 15 and Thursday’s $9.03 low. Eventually Nio will need to enter a period of consolidation to take a breather from the two-day surge. The pattern is formed when a security forms a rounded trough (cup) and then rises upwards before consolidating downward between two parallel lines (handle). Bearish traders may wait to enter into a position if the security falls below the lowest price within the cup formation, which negates the bullish cup-and-shoulder pattern and indicates an accelerated move to the downside may follow.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.7460628151893616</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Shanghai Eases Covid Rules as China’s Policy Shift Expands - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 12:30:14 GMT</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>(Bloomberg) -- Shanghai eased some of its Covid restrictions, joining other top-tier Chinese cities as authorities accelerate a shift toward reopening the economy after thousands of demonstrators took to the streets last weekend to voice their anger at the nation’s stringent policies. Most Read from Bloomberg The financial hub will scrap PCR testing requirements to enter outdoor public venues such as parks as well as ride public transit effective Monday, city authorities said in a statement Sunday. Measures will “continue to be optimized and adjusted” in line with national policy and the situation, according to the statement. Shanghai, which saw a grueling two-month lockdown earlier in the year, joins other metropolises such as Beijing, Shenzhen and Guangzhou in relaxing curbs in recent days. Top government officials over the past week signaled a transition away from the harshest containment measures, which have weighed on the economy and triggered anti-lockdown protests as public discontent grew. The rapid unwinding of requirements has led to a sharp drop in the number of testing booths in some cities, causing unusually-long queues. Authorities in Beijing’s Chaoyang District, one of the Chinese capital’s worst-hit areas in the current outbreak, on Saturday said they were “deeply sorry” for inadequate coordination that led to excessively long waiting times and restored some sites. China reported 30,889 new local Covid cases on Saturday, down from 32,206 the day before, according to the latest official data. Restrictions are also being rolled back in Zhengzhou city, home to Apple Inc.’s largest manufacturing site in China. Authorities announced on Sunday the immediate end of mandatory Covid testing to enter buses, subway, taxis and other public venues besides for those who depart from the city or go to karaoke bars and internet cafes. Story continues The city of Wuhan, where the virus first emerged about three years ago, said it would end testing requirements to ride the subway while Lhasa city will resume previously halted bus operations. Chinese stocks have rallied recently, fueled by rising optimism that China is softening its pursuit of Zero Covid. The Hang Seng China Enterprises Index surged 29% in November, capping its best month since 2003, while the benchmark Hang Seng Index posted its biggest monthly gain since 1998. The rally was mainly driven by the gains in airlines, casinos, restaurant operators and other stocks expected to benefit from a reopening of the world’s second-largest economy. Investors are increasingly seen shifting their bets to longer-term plays such as consumer and health-care equities, from travel and catering firms whose shares have jumped sharply. Restrictions were also eased in a number of provincial capital cities over the weekend. Kunming, in the southwestern province of Yunnan, will as of Sunday allow people to ride public transport without showing a PCR test, while Nanning in the neighboring Guangxi region scrapped such testing requirements for all public venues except hotels and tourist destinations. In Harbin, the capital of Heilongjiang in the northeast, test results are no longer required to enter public places, while people leaving the city only need to take one PCR test within 48 hours instead of two, the local government said late Saturday. Urumqi, where a fire that killed more than 10 people last month triggered anti-lockdown protests, reopened skiing venues and a pedestrian street on Sunday, according to state broadcaster CCTV. Hotels, restaurants, supermarkets and entertainment businesses such gyms will also resume normal operations Monday as conditions are now ripe for “normalized” containment measures, CCTV reported, citing a local government briefing Sunday. Suspicions that Covid restrictions hampered rescue efforts in the fire a high-rise building in the capital city of the Xinjiang region fueled public anger, helping spread protests across the country as people gathered to commemorate the victims and request an end to Covid curbs. While the easing measures in cities can’t be interpreted as China abandoning its Covid Zero policy yet, “we see them as clear evidence of the Chinese government preparing for an exit, and trying to minimize the economic and social cost of Covid control in the meantime,” Goldman Sachs Group Inc.’s chief China economist Hui Shan and colleagues wrote in a note Sunday. Experiences in Hong Kong and Taiwan showed that new cases will skyrocket upon reopening, with mobility declining sharply, they wrote. Goldman Sachs’ base case scenario suggests China’s Covid Zero policy will stay until April to allow for preparations, according to the note. In Zhuhai, another city in Guangdong, residents who have no Covid symptoms or high exposure risks are advised to not take PCR tests, while those that need can take paid tests, CCTV reported, citing a government notice. People traveling from elsewhere can take a voluntary test upon arrival but no quarantine is required. --With assistance from Low De Wei, Youkyung Lee and Li Liu. (Updates with details on Wuhan and Zhengzhou in sixth and seventh paragraphs.) Most Read from Bloomberg Businessweek ©2022 Bloomberg L.P.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>(Bloomberg) -- Shanghai eased some of its Covid restrictions, joining other top-tier Chinese cities as authorities accelerate a shift toward reopening the economy after thousands of demonstrators took to the streets last weekend to voice their anger at the nation’s stringent policies. Authorities announced on Sunday the immediate end of mandatory Covid testing to enter buses, subway, taxis and other public venues besides for those who depart from the city or go to karaoke bars and internet cafes. Story continues The city of Wuhan, where the virus first emerged about three years ago, said it would end testing requirements to ride the subway while Lhasa city will resume previously halted bus operations. The rally was mainly driven by the gains in airlines, casinos, restaurant operators and other stocks expected to benefit from a reopening of the world’s second-largest economy. While the easing measures in cities can’t be interpreted as China abandoning its Covid Zero policy yet, “we see them as clear evidence of the Chinese government preparing for an exit, and trying to minimize the economic and social cost of Covid control in the meantime,” Goldman Sachs Group Inc.’s chief China economist Hui Shan and colleagues wrote in a note Sunday. --With assistance from Low De Wei, Youkyung Lee and Li Liu. (</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.8404630422592163</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Share Market News Highlights: Sensex tanks 416 points, Nifty settles below 18,700; Eicher Motors, Tata Consumer Products, M&amp;M top drags - Business Today</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 01:32:10 GMT</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Share Market Updates Today: Indian equity benchmarks settled lower on Friday, pausing their winning run of eight straight sessions amid weak cues from the global markets. Asian shares fell, tracking an overnight decline in Wall Street. Japan's Nikkei plunged 1.59 per cent, South Korea's Kospi slipped 1.84 per cent, China's Shanghai Composite slipped 0.29 per cent and Hong Kong's Hang Seng index fell 0.33 per cent. Investors waited for US jobs data to gauge more signs of a shift on interest rate plans from the Federal Reserve. US stock futures were flat, indicating a muted opening for Wall Street later today. S&amp;P futures edged 0.04 per cent higher, Nasdaq futures slipped 0.03 per cent and Dow Futures shed 0.02 per cent. Back home, foreign institutional investors sold a net of Rs 1,565.93 crore in equities on Wednesday, while domestic investors bought Rs 2,664.98 crore worth of shares, as per provisional NSE data. Here are the share market highlights: Nifty tech &amp; Bank Nifty view - Rupak De, Senior Technical Analyst at LKP Securities Bears remained at the helm throughout the day as the benchmark index couldn't pare the morning loss. However, the correction was limited to 0.62% by the end of the session. Over the near term, sentiment is likely to remain sideways, with 18,500-18,800 to be the crucial range. A decisive breakout from either band may induce a clean directional move in the market. The Bank Nifty started lower and remained sideward throughout the session. During the day Put writers have protected 43,000 levels; whereas on the higher end the index failed to move beyond 43,150. The daily RSI has entered a bearish crossover. Over the short term the trend is likely to remain sideways to negative. On the lower end, support is visible at 42,900/42,700. Resistance on the higher end is visible at 43,200/43,500. Paytm Analyst Day Paytm’s management highlighted the large growth opportunity for the payments business in India with a potential of 10 crore merchants and more than 50 crore payment customers and opportunity to cross sell financial services and commerce business offerings to them. The stock settled 7.06 per cent higher at Rs 536.90. (Read more) Lagnam Spintex’s official bought 1.23 lakh equity shares from open market Lagnam Spintex, one of the leading manufacturers of high-quality cotton yarns, has reported to NSE that its executive director Shubh Mangal has bought the shares from open market Between 22nd November to 30th November 2022. As per disclosure submitted by the Company under regulation 7(2) of SEBI (Prohibition of Insider Trading) Regulations, 2015, Mr. Shubh Mangal, Executive Director of the Company, purchased in total 1.23 lacs equity shares with an average price of Rs. 58.81 per share. Share market breadth The overall market breadth stood strong as 2,034 shares advanced while 1,449 declined on BSE. The market capitalization (m-cap) of BSE-listed companies stood at Rs 289.58 lakh crore. Nifty Auto, Nifty Financial Services &amp; Nifty FMCG underperform 10 out of the 15 sector gauges -- compiled by the National Stock Exchange -- settled in the red. Sub-indexes Nifty Auto, Nifty Financial Services and Nifty FMCG outperformed the NSE platform by falling as much as 1.10 per cent, 0.62 per cent and 0.48 per cent, respectively. In contrast, Nifty Metal and Nifty PSU Bank slipped 0.44 per cent and 0.42 per cent, each. Most active stocks Reliance Industries, Raymond, BHEL, ICICI Bank, Paytm, Bajaj Finance, Maruti, TCS, Tata Steel and VBL were among the most active stock on NSE, in terms of volume. Mid and small-cap stocks Mid- and small-cap shares finished on a higher note as Nifty Midcap 100 gained 0.88 per cent and small-cap rose 0.60 per cent. Top gainers &amp; losers on NSE On the stock-specific front, Eicher Motors was the top Nifty loser as the stock cracked 3.10 per cent to close at Rs 3,331. Tata Consumer Products, M&amp;M, Hero MotoCorp and Hindustan Unilever were also among the laggards. In contrast, Apollo Hospitals, Tech Mahindra, DR Reddy's, Tata Steel and Grasim were among the top gainers. Share market closing: Sensex, Nifty pause 8-day losing run Sensex falls 416 points or 0.66 per cent to settle at 62,868, Nifty moves 116 points or 0.62 per cent lower to close at 18,696 Paytm up 5% Shares of One 97 Communications Ltd, Paytm's parent, climbed 5.19 per cent to trade at Rs 527.60. The stock touched a day high of Rs 527.65. A total of 10.33 lakh shares changed hands today, amounting to a turnover of Rs 54.40 crore. The company's market capitalisation (m-cap) stood at Rs 34,288.40 crore. Share market update: Sensex down over 400 points, Nifty trades below 18,700 Sensex dives 422 points or 0.67 per cent to trade at 62,863, Nifty moves 116 points or 0.62 per cent lower to trade at 18,696; Eicher Motors, M&amp;M, Tata Consumer Products, HUL, Hero MotoCorp top drags KRBL Ltd down 2% Shares of KRBL Ltd slipped 2.39 per cent to trade at Rs 426.05. The stock touched a day low of Rs 424.05. A total of 58,000 shares changed hands today, amounting to a turnover of Rs 2.46 crore. The company's market capitalisation (m-cap) stood at Rs 10,028.79 crore. Easy Trip Planners Ltd down 2% Shares of Easy Trip Planners Ltd slipped 2.48 per cent to trade at Rs 65. The stock touched a day low of Rs 64.55. A total of 4.09 lakh shares changed hands today, amounting to a turnover of Rs 2.69 crore. The company's market capitalisation (m-cap) stood at Rs 11,299.08 crore. Tejas Networks Ltd down nearly 3% Shares of Tejas Networks Ltd fell 2.88 per cent to trade at Rs 642.95. The stock touched a day low of Rs 640.35. A total of 16,000 shares changed hands today, amounting to a turnover of Rs 1.03 crore. The company's market capitalisation (m-cap) stood at Rs 9,784.86 crore. Share market update: Sensex falls over 550 points in afternoon deals, Nifty tests 18,650 Sensex tanks 555 points or 0.88 per cent to trade at 62,729, Nifty moves 159 points or 0.84 per cent lower to trade at 18,654; Eicher Motors, M&amp;M, Tata Consumer Products, SBI Life, Hindustan Unilever top drags HUL shares fall over 1.5% Shares of Hindustan Unilever fell 1.71 per cent to trade at Rs 2,617. The stock touched a day low of Rs 2,608.10. A total of 17,000 shares changed hands today, amounting to a turnover of Rs 4.33 crore. The market capitalisation (m-cap) of the company stood at Rs 6,14,888.03 crore. Vedanta, Apollo Hospitals buck weak trend; stocks among top BSE100 gainers Shares of Vedanta rose 1.45 per cent to Rs 314.70 while those of Bharat Electronics were up 1.44 per cent at Rs 105.65. Apollo Hospitals, ICICI Lombard, Voltas, Bhandhan Bank and AU SFB were among BSE100 stocks that gained over 1 per cent in an otherwise weak market. Share market update: Sensex falls over 500 points in late morning deals, Nifty tests 18,650 Sensex tanks 506 points or 0.80 per cent to trade at 62,778, Nifty moves 146 points or 0.78 per cent lower to trade at 18,666; Eicher Motors, M&amp;M, Cipla, Tata Consumer Products, TCS top drags Adani Transmission Ltd shares fall 3% Shares of Adani Transmission Ltd tumbled 3.10 per cent to trade at Rs 2,744.60. The stock touched a day low of Rs 2,730. A total of 9,929 shares changed hands today, amounting to a turnover of Rs 2.73 crore. The market capitalisation (m-cap) of the company stood at Rs 3,06,158.12 crore. Unichem Laboratories Ltd shares dive 5.5% Shares of Unichem Laboratories Ltd cracked 5.58 per cent to trade at Rs 378.35. The stock touched a day low of Rs 377.20. A total of 26,000 shares changed hands today, amounting to a turnover of Rs 1 crore. The market capitalisation (m-cap) of the company stood at Rs 2,663.80 crore. M&amp;M down nearly 2% Shares of Mahindra &amp; Mahindra slipped 1.89 per cent to trade at Rs 1,268.85. The stock touched a day low of Rs 1,266.35. A total of 23,000 shares changed hands today, amounting to a turnover of Rs 2.95 crore. The market capitalisation (m-cap) of the company stood at Rs 1,57,823.29 crore. Eicher Motors down 2.5% Shares of Eicher Motors fell 2.58 per cent to trade at Rs 3,348.85. The stock touched a day low of Rs 3,335. A total of 13,000 shares changed hands today, amounting to a turnover of Rs 4.30 crore. The market capitalisation (m-cap) of the company stood at Rs 91,583.69 crore. Share market update Sensex drops 411 points or 0.65 per cent to trade at 62,874, Nifty moves 118 points or 0.63 per cent lower to trade at 18,694; Eicher Motors, M&amp;M, Bajaj Auto, Tata Consumer Products, TCS top drags Impact of windfall tax reduction on domestic crude Reliance Industries, ONGC, GAIL, Oil India, Chennai Petroleum and Mangalore Refineries, rose after the government reduced windfall tax on domestic crude by half to Rs 4,900 per tonne and levy on diesel exports to Rs 6.5 per litre. NLC India rises 2% on signing MoU with GRIDCO Shares of NLC India (NLCIL) jumped 2 per cent in Friday's trade after the company signed memorandum of understanding (MoU) with Grid Corporation of Odisha (GRIDCO) for the purpose of setting up floating solar power projects, pumped hydro storage projects, green hydrogen projects and other renewable projects at ‘Make in Odisha Conclave,’ being held at Bhubaneswar on December 1. This MoU will enable both the parties towards the National targets for Renewable Energy capacity and Energy Transition goal. The stock rose 2.39 per cent to hit a high of Rs 85.40 on BSE. Talbros Automotive soars 8% on Rs 420 crore orders Talbros Automotive Components rose 8 per cent in Friday's trade after the company received new multi years orders worth Rs 420 crore from both, domestic and overseas customers across its business divisions, product segments and JVs. The scrip rose 8.28 per cent to hit a high of Rs 501 on BSE. Talbros said the fresh orders will be be executed over a period of next 5 years covering the company's product lines – gaskets, heat shields, forgings and chassis. Likhitha Infra goes ex-stock split, stock jumps 8% Shares of Likhitha Infrastructure jumped over 8 per cent in Friday's trade, adding to its recent rise after ace investor Ashish Kacholia bought shares in the company. The scrip went ex-stock split today from Rs 10 to Rs 5 per share. The stock rose 7 per cent to hit a high of Rs 248.95 on BSE. Kacholia bought 3,97,000 Likhitha Infrastructure shares worth Rs 15.20 crore on Wednesday. Most active stocks Maruti, Bajaj Finance, Paytm, ICICI Bank, L&amp;T Tech, Reliance Industries, TCS, Yes Bank, VBL and Raymond were the most active stocks on the NSE platform, in terms of volume. Share market breadth The overall market breadth stood strong as 1,814 shares were seen advancing while 1,172 were declining on BSE. Sectoral indices' performance 10 out of the 15 sector gauges -- compiled by the National Stock Exchange -- were trading in the red. Sub-indexes Nifty Auto and Nifty Financial Services were underperforming the NSE platform by falling 1.11 per cent and 0.62 per cent, respectively. On the flip side, Nifty Oil &amp; Gas and Nifty PSU Bank climbed 0.46 per cent and 0.36 per cent, each. Mid &amp; small cap indexes Mid- and small-cap shares were positive as Nifty Midcap 100 and small-cap rose 0.19 per cent, respectively. Top gainers and losers on NSE Eicher Motors, Maruti, Divi's Lab, ICICI Bank and Tata Consumer Products were among the top gainers on the NSE platform today with their shares down as much as 2.39 per cent. In contrast, ONGC, BPCL, Hindalco, Reliance Industries and Coal India were among the top laggards. Share market opening Sensex falls 306 points or 0.48 per cent to trade at 62,978, Nifty moves 60 points or 0.32 per cent lower to trade at 18,752 Pre-opening deals Sensex falls 276 points or 0.44 per cent to 63,007.74 in pre-opening deals; Nifty moves 110 points or 0.59 per cent lower to 18,702.40 Rupee vs dollar view - Amit Pabarii, MD, CR Forex Advisors The Indian rupee rose in November by more than 1.70%, marking its first monthly gain this year and ending its longest losing streak in nearly four decades as the USD entered into a strong bearish trend. Yesterday, the USD-INR pair had tested the 81 mark for a few minutes but oil marketing companies and importer’s rush along with an intraday fall in Yuan spark a rally towards 81.30 levels. Overall, weaker USD, and stronger domestic fundamentals could pave the way for rupee to appreciate towards 80.80 to 80.50 in the near term. On the flip side, 81.30-81.50 will act as a crucial resistance zone for the pair. Stock to watch Reliance Industries, ONGC &amp; GAIL (India): The government reduced windfall tax on domestic crude by half to Rs 4,900 per tonne and levy on diesel exports to Rs 6.5 per litre. Mazagon Dock, Cochin Shipyard &amp; Garden Reach Shipbuilders: The Centre plans to offer cash subsidies, lower taxes and other incentives to aid the shipbuilding industry, news agency Reuters reported citing government sources. Hero MotoCorp: The bikemaker sold 390,932 units in November 2022, up 12 per cent on a yearly basis. NMDC: The government invited expressions of interest to divest a 50.79 per cent stake in NMDC Steel. Yes Bank: RBI allowed Advent and Carlyle to pick up a 9.99 per cent stake each in the lender, on a conditional basis. (Read more) Corporate actions today Gujarat Themis Biosyn and Som Distilleries &amp; Breweries going ex-dividend. Shares of Likhitha Infrastructure and Mefcom Capital Markets would go ex-stock split today. Adcon Capital Services would go ex-rights today. (Read more) Nifty Bank 'Put' option data Major 'Put' open interests were seen at 43,200, 43,000 and 42,500 strikes with total open interest of 1,63,684, 1,07,173 and 1,00,305 contracts, respectively. Major 'Put' open interest additions were seen at 43,200 and 43,300 strikes which added 83,665 and 39,094 contracts. 'Put' unwinding was seen at 43,000 strike, which shed 62,324 contracts. Nifty Bank 'Call' option data Major 'Call' open interests were seen at 43,300, 43,500 and 44,000 strikes with total open interest of 2,04,850, 1,84,214 and 1,64,376 contracts respectively. Major 'Call' open interest additions were seen at 43,300 and 43,400 strikes which added 1,06,513 and 71,525 contracts, respectively. 'Call' unwinding was seen at 43,000 strike, which shed 66,453 contracts. Nifty 'Put' option data Major 'Put' open interests were seen at 18,800, 18,500 and 18,300 strikes with total open interest of 2,34,840, 1,83,663 and 1,09,589 contracts respectively. Top 'Put' open interest additions were seen at 18,800 and 18,850 strikes which added 1,77,533 and 27,028 contracts, respectively. 'Put' unwinding was seen at 18,600 strike, which shed 1,06,007 contracts. Nifty 'Call' option data Major 'Call' open interests were seen at 18,900, 18,850 and 19,000 strikes with total open interest of 2,32,759, 2,21,634 and 1,82,455 contracts respectively. Top 'Call' open interest additions were seen at 18,850 and 19,200 strikes which added 1,22,800 and 92,358 contracts, respectively. 'Call' unwinding was seen at 18,700 strike, which shed 94,945 contracts, NSE data, as on December 1 (3:30 pm), showed. Oil edges higher Brent crude futures rose 25 cents, or 0.20 per cent, to $87.13 per barrel, while US West Texas Intermediate crude futures edged 13 cents, or 0.16 per cent higher, to $81.35. US stocks Dow Jones fell 0.56 per cent to settle at 34,395.01. S&amp;P 500 index edged 0.09 per cent lower to end the session at 4,076.57. Nasdaq inched 0.13 per cent higher to close at 11,482.45. Stocks in F&amp;O ban BHEL, Delta Corp, Indiabulls Housing Finance and PNB are in F&amp;O (Futures and Options) ban period today. Stocks are placed under F&amp;O ban when the derivative contracts in their securities cross 95 per cent of the market-wide position limit. FII-DII data Foreign institutional investors (FIIs) sold Rs 1,565.93 crore worth of shares, while domestic institutional investors (DIIs) bought Rs 2,664.98 crore worth of shares on December 1, provisional NSE data showed. SGX Nifty Trends on SGX Nifty indicated a lower opening for the domestic markets. The Nifty Futures on Singapore Exchange also known as the SGX Nifty Futures fell 49 points or 0.26 per cent to trade at 8,926.5. Previous close The benchmark BSE Sensex had climbed 185 points or 0.29 per cent to hit a record closing of 63,284.19 on Wednesday, while the broader NSE Nifty had moved 54 points or 0.29 per cent higher to touch a fresh closing peak of 18,812.50. (Read more)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Share Market Updates Today: Indian equity benchmarks settled lower on Friday, pausing their winning run of eight straight sessions amid weak cues from the global markets. Asian shares fell, tracking an overnight decline in Wall Street. Investors waited for US jobs data to gauge more signs of a shift on interest rate plans from the Federal Reserve. The Bank Nifty started lower and remained sideward throughout the session. Paytm Analyst Day Paytm’s management highlighted the large growth opportunity for the payments business in India with a potential of 10 crore merchants and more than 50 crore payment customers and opportunity to cross sell financial services and commerce business offerings to them. Read more) Lagnam Spintex’s official bought 1.23 lakh equity shares from open market Lagnam Spintex, one of the leading manufacturers of high-quality cotton yarns, has reported to NSE that its executive director Shubh Mangal has bought the shares from open market Between 22nd November to 30th November 2022. Nifty Auto, Nifty Financial Services &amp; Nifty FMCG underperform 10 out of the 15 sector gauges -- compiled by the National Stock Exchange -- settled in the red. Most active stocks Reliance Industries, Raymond, BHEL, ICICI Bank, Paytm, Bajaj Finance, Maruti, TCS, Tata Steel and VBL were among the most active stock on NSE, in terms of volume. Mid and small-cap stocks Mid- and small-cap shares finished on a higher note as Nifty Midcap 100 gained 0.88 per cent and small-cap rose 0.60 per cent. A total of 58,000 shares changed hands today, amounting to a turnover of Rs 2.46 crore. Tejas Networks Ltd down nearly 3% Shares of Tejas Networks Ltd fell 2.88 per cent to trade at Rs 642.95. Share market update: Sensex falls over 500 points in late morning deals, Nifty tests 18,650 Sensex tanks 506 points or 0.80 per cent to trade at 62,778, Nifty moves 146 points or 0.78 per cent lower to trade at 18,666; Eicher Motors, M&amp;M, Cipla, Tata Consumer Products, TCS top drags Adani Transmission Ltd shares fall 3% Shares of Adani Transmission Ltd tumbled 3.10 per cent to trade at Rs 2,744.60. The market capitalisation (m-cap) of the company stood at Rs 1,57,823.29 crore. The scrip went ex-stock split today from Rs 10 to Rs 5 per share. Share market breadth The overall market breadth stood strong as 1,814 shares were seen advancing while 1,172 were declining on BSE. Yesterday, the USD-INR pair had tested the 81 mark for a few minutes but oil marketing companies and importer’s rush along with an intraday fall in Yuan spark a rally towards 81.30 levels. On the flip side, 81.30-81.50 will act as a crucial resistance zone for the pair. Stock to watch Reliance Industries, ONGC &amp; GAIL (India): The government reduced windfall tax on domestic crude by half to Rs 4,900 per tonne and levy on diesel exports to Rs 6.5 per litre. Yes Bank: RBI allowed Advent and Carlyle to pick up a 9.99 per cent stake each in the lender, on a conditional basis. ( Call' unwinding was seen at 43,000 strike, which shed 66,453 contracts. Top 'Put' open interest additions were seen at 18,800 and 18,850 strikes which added 1,77,533 and 27,028 contracts, respectively. '</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9922149777412415</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hong Kong stocks hit three-month low on weak earnings, US rate policy - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Tue, 23 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Investors talking about markets inside a brokerage in Anhui province in February 2022. Photo: Reuters</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Investors talking about markets inside a brokerage in Anhui province in February 2022.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9999971389770508</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Asia stocks follow US market’s plunge after US inflation report - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wed, 14 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A man walks past a billboard showing the Hang Seng Index in Hong Kong on September 1, 2022. Photo: EPA-EFE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>A man walks past a billboard showing the Hang Seng Index in Hong Kong on September 1, 2022.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9999988079071045</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hang Seng Indexes Company launches new China enterprise tracker - Xinhua</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Mon, 29 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>HONG KONG, Aug. 29 (Xinhua) -- Hang Seng Indexes Company on Monday launched the Hang Seng Stock Connect China Enterprises Index (HSCEA) -- an extension of its widely referenced Hang Seng China Enterprises Index (HSCEI). The HSCEA includes southbound stock connect-eligible HSCEI constituents and large-cap A-shares that are eligible for trading through the northbound stock connect. Among the five largest constituents, Moutai, Tencent, CATL, and Meituan are listed on one of the mainland or Hong Kong stock exchanges. Only China Construction Bank is listed in both the Chinese mainland and Hong Kong. The market capitalization of the HSCEA was over 25 trillion yuan (about 3.6 trillion U.S. dollars), presenting a high representation of overall Chinese stocks. According to back-testing data, the HSCEA would have delivered a cumulative return of 12.6 percent since 2017. Chief Index Officer at Hang Seng Indexes Company Daniel Wong said the continuing internationalization of the Chinese mainland's capital markets with increasing accessibility presents huge potential investment opportunities and more global investors are eyeing the A-shares market. "We launched the HSCEA to serve as a comprehensive tracker of Chinese companies with a high degree of representativeness," Wong said. "We believe the HSCEA, in conjunction with our existing flagship index HSCEI, will help investors to embrace the expanding investment opportunities." ■</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>HONG KONG, Aug. 29 (Xinhua) -- Hang Seng Indexes Company on Monday launched the Hang Seng Stock Connect China Enterprises Index (HSCEA) -- an extension of its widely referenced Hang Seng China Enterprises Index (HSCEI). Chief Index Officer at Hang Seng Indexes Company Daniel Wong said the continuing internationalization of the Chinese mainland's capital markets with increasing accessibility presents huge potential investment opportunities and more global investors are eyeing the A-shares market. "</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9786524176597595</v>
       </c>
     </row>
   </sheetData>
